--- a/03_DB設計書/データモデル設計書2023_Aチーム.xlsx
+++ b/03_DB設計書/データモデル設計書2023_Aチーム.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asojukustudent.sharepoint.com/sites/ASE3E_abcc23-2/Shared Documents/チームＡ(諌山L)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\abcc_system_sd3e_grpA\03_DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="392" documentId="13_ncr:1_{3CE16138-56C3-4672-8798-B9DEB42229F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64D8B3BC-2F19-4513-9536-85B691648F66}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE9BD39-1B64-4249-92B7-6B954A96DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{158BE383-CCB0-48EA-A963-29248D96480F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{158BE383-CCB0-48EA-A963-29248D96480F}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="151">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -370,9 +370,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>松崎</t>
-  </si>
-  <si>
     <t>v1.0</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -631,12 +628,6 @@
       <t>ズ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>松崎光太郎</t>
-  </si>
-  <si>
-    <t>松﨑光太郎</t>
   </si>
   <si>
     <t>CRUD図名</t>
@@ -704,6 +695,17 @@
   </si>
   <si>
     <t>スレッド作成機能</t>
+  </si>
+  <si>
+    <t>渡邊</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>松崎</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -2397,10 +2399,91 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2418,135 +2501,159 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="71" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2562,9 +2669,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2574,97 +2678,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2673,58 +2717,40 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2745,21 +2771,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2768,6 +2779,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2786,24 +2806,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2877,7 +2879,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3178,204 +3180,206 @@
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9:Y12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="3.75" style="140" customWidth="1"/>
-    <col min="5" max="6" width="3.75" style="141" customWidth="1"/>
-    <col min="7" max="32" width="3.75" style="140" customWidth="1"/>
-    <col min="33" max="36" width="3.625" style="140" customWidth="1"/>
-    <col min="37" max="256" width="8.125" style="140"/>
-    <col min="257" max="288" width="3.75" style="140" customWidth="1"/>
-    <col min="289" max="292" width="3.625" style="140" customWidth="1"/>
-    <col min="293" max="512" width="8.125" style="140"/>
-    <col min="513" max="544" width="3.75" style="140" customWidth="1"/>
-    <col min="545" max="548" width="3.625" style="140" customWidth="1"/>
-    <col min="549" max="768" width="8.125" style="140"/>
-    <col min="769" max="800" width="3.75" style="140" customWidth="1"/>
-    <col min="801" max="804" width="3.625" style="140" customWidth="1"/>
-    <col min="805" max="1024" width="8.125" style="140"/>
-    <col min="1025" max="1056" width="3.75" style="140" customWidth="1"/>
-    <col min="1057" max="1060" width="3.625" style="140" customWidth="1"/>
-    <col min="1061" max="1280" width="8.125" style="140"/>
-    <col min="1281" max="1312" width="3.75" style="140" customWidth="1"/>
-    <col min="1313" max="1316" width="3.625" style="140" customWidth="1"/>
-    <col min="1317" max="1536" width="8.125" style="140"/>
-    <col min="1537" max="1568" width="3.75" style="140" customWidth="1"/>
-    <col min="1569" max="1572" width="3.625" style="140" customWidth="1"/>
-    <col min="1573" max="1792" width="8.125" style="140"/>
-    <col min="1793" max="1824" width="3.75" style="140" customWidth="1"/>
-    <col min="1825" max="1828" width="3.625" style="140" customWidth="1"/>
-    <col min="1829" max="2048" width="8.125" style="140"/>
-    <col min="2049" max="2080" width="3.75" style="140" customWidth="1"/>
-    <col min="2081" max="2084" width="3.625" style="140" customWidth="1"/>
-    <col min="2085" max="2304" width="8.125" style="140"/>
-    <col min="2305" max="2336" width="3.75" style="140" customWidth="1"/>
-    <col min="2337" max="2340" width="3.625" style="140" customWidth="1"/>
-    <col min="2341" max="2560" width="8.125" style="140"/>
-    <col min="2561" max="2592" width="3.75" style="140" customWidth="1"/>
-    <col min="2593" max="2596" width="3.625" style="140" customWidth="1"/>
-    <col min="2597" max="2816" width="8.125" style="140"/>
-    <col min="2817" max="2848" width="3.75" style="140" customWidth="1"/>
-    <col min="2849" max="2852" width="3.625" style="140" customWidth="1"/>
-    <col min="2853" max="3072" width="8.125" style="140"/>
-    <col min="3073" max="3104" width="3.75" style="140" customWidth="1"/>
-    <col min="3105" max="3108" width="3.625" style="140" customWidth="1"/>
-    <col min="3109" max="3328" width="8.125" style="140"/>
-    <col min="3329" max="3360" width="3.75" style="140" customWidth="1"/>
-    <col min="3361" max="3364" width="3.625" style="140" customWidth="1"/>
-    <col min="3365" max="3584" width="8.125" style="140"/>
-    <col min="3585" max="3616" width="3.75" style="140" customWidth="1"/>
-    <col min="3617" max="3620" width="3.625" style="140" customWidth="1"/>
-    <col min="3621" max="3840" width="8.125" style="140"/>
-    <col min="3841" max="3872" width="3.75" style="140" customWidth="1"/>
-    <col min="3873" max="3876" width="3.625" style="140" customWidth="1"/>
-    <col min="3877" max="4096" width="8.125" style="140"/>
-    <col min="4097" max="4128" width="3.75" style="140" customWidth="1"/>
-    <col min="4129" max="4132" width="3.625" style="140" customWidth="1"/>
-    <col min="4133" max="4352" width="8.125" style="140"/>
-    <col min="4353" max="4384" width="3.75" style="140" customWidth="1"/>
-    <col min="4385" max="4388" width="3.625" style="140" customWidth="1"/>
-    <col min="4389" max="4608" width="8.125" style="140"/>
-    <col min="4609" max="4640" width="3.75" style="140" customWidth="1"/>
-    <col min="4641" max="4644" width="3.625" style="140" customWidth="1"/>
-    <col min="4645" max="4864" width="8.125" style="140"/>
-    <col min="4865" max="4896" width="3.75" style="140" customWidth="1"/>
-    <col min="4897" max="4900" width="3.625" style="140" customWidth="1"/>
-    <col min="4901" max="5120" width="8.125" style="140"/>
-    <col min="5121" max="5152" width="3.75" style="140" customWidth="1"/>
-    <col min="5153" max="5156" width="3.625" style="140" customWidth="1"/>
-    <col min="5157" max="5376" width="8.125" style="140"/>
-    <col min="5377" max="5408" width="3.75" style="140" customWidth="1"/>
-    <col min="5409" max="5412" width="3.625" style="140" customWidth="1"/>
-    <col min="5413" max="5632" width="8.125" style="140"/>
-    <col min="5633" max="5664" width="3.75" style="140" customWidth="1"/>
-    <col min="5665" max="5668" width="3.625" style="140" customWidth="1"/>
-    <col min="5669" max="5888" width="8.125" style="140"/>
-    <col min="5889" max="5920" width="3.75" style="140" customWidth="1"/>
-    <col min="5921" max="5924" width="3.625" style="140" customWidth="1"/>
-    <col min="5925" max="6144" width="8.125" style="140"/>
-    <col min="6145" max="6176" width="3.75" style="140" customWidth="1"/>
-    <col min="6177" max="6180" width="3.625" style="140" customWidth="1"/>
-    <col min="6181" max="6400" width="8.125" style="140"/>
-    <col min="6401" max="6432" width="3.75" style="140" customWidth="1"/>
-    <col min="6433" max="6436" width="3.625" style="140" customWidth="1"/>
-    <col min="6437" max="6656" width="8.125" style="140"/>
-    <col min="6657" max="6688" width="3.75" style="140" customWidth="1"/>
-    <col min="6689" max="6692" width="3.625" style="140" customWidth="1"/>
-    <col min="6693" max="6912" width="8.125" style="140"/>
-    <col min="6913" max="6944" width="3.75" style="140" customWidth="1"/>
-    <col min="6945" max="6948" width="3.625" style="140" customWidth="1"/>
-    <col min="6949" max="7168" width="8.125" style="140"/>
-    <col min="7169" max="7200" width="3.75" style="140" customWidth="1"/>
-    <col min="7201" max="7204" width="3.625" style="140" customWidth="1"/>
-    <col min="7205" max="7424" width="8.125" style="140"/>
-    <col min="7425" max="7456" width="3.75" style="140" customWidth="1"/>
-    <col min="7457" max="7460" width="3.625" style="140" customWidth="1"/>
-    <col min="7461" max="7680" width="8.125" style="140"/>
-    <col min="7681" max="7712" width="3.75" style="140" customWidth="1"/>
-    <col min="7713" max="7716" width="3.625" style="140" customWidth="1"/>
-    <col min="7717" max="7936" width="8.125" style="140"/>
-    <col min="7937" max="7968" width="3.75" style="140" customWidth="1"/>
-    <col min="7969" max="7972" width="3.625" style="140" customWidth="1"/>
-    <col min="7973" max="8192" width="8.125" style="140"/>
-    <col min="8193" max="8224" width="3.75" style="140" customWidth="1"/>
-    <col min="8225" max="8228" width="3.625" style="140" customWidth="1"/>
-    <col min="8229" max="8448" width="8.125" style="140"/>
-    <col min="8449" max="8480" width="3.75" style="140" customWidth="1"/>
-    <col min="8481" max="8484" width="3.625" style="140" customWidth="1"/>
-    <col min="8485" max="8704" width="8.125" style="140"/>
-    <col min="8705" max="8736" width="3.75" style="140" customWidth="1"/>
-    <col min="8737" max="8740" width="3.625" style="140" customWidth="1"/>
-    <col min="8741" max="8960" width="8.125" style="140"/>
-    <col min="8961" max="8992" width="3.75" style="140" customWidth="1"/>
-    <col min="8993" max="8996" width="3.625" style="140" customWidth="1"/>
-    <col min="8997" max="9216" width="8.125" style="140"/>
-    <col min="9217" max="9248" width="3.75" style="140" customWidth="1"/>
-    <col min="9249" max="9252" width="3.625" style="140" customWidth="1"/>
-    <col min="9253" max="9472" width="8.125" style="140"/>
-    <col min="9473" max="9504" width="3.75" style="140" customWidth="1"/>
-    <col min="9505" max="9508" width="3.625" style="140" customWidth="1"/>
-    <col min="9509" max="9728" width="8.125" style="140"/>
-    <col min="9729" max="9760" width="3.75" style="140" customWidth="1"/>
-    <col min="9761" max="9764" width="3.625" style="140" customWidth="1"/>
-    <col min="9765" max="9984" width="8.125" style="140"/>
-    <col min="9985" max="10016" width="3.75" style="140" customWidth="1"/>
-    <col min="10017" max="10020" width="3.625" style="140" customWidth="1"/>
-    <col min="10021" max="10240" width="8.125" style="140"/>
-    <col min="10241" max="10272" width="3.75" style="140" customWidth="1"/>
-    <col min="10273" max="10276" width="3.625" style="140" customWidth="1"/>
-    <col min="10277" max="10496" width="8.125" style="140"/>
-    <col min="10497" max="10528" width="3.75" style="140" customWidth="1"/>
-    <col min="10529" max="10532" width="3.625" style="140" customWidth="1"/>
-    <col min="10533" max="10752" width="8.125" style="140"/>
-    <col min="10753" max="10784" width="3.75" style="140" customWidth="1"/>
-    <col min="10785" max="10788" width="3.625" style="140" customWidth="1"/>
-    <col min="10789" max="11008" width="8.125" style="140"/>
-    <col min="11009" max="11040" width="3.75" style="140" customWidth="1"/>
-    <col min="11041" max="11044" width="3.625" style="140" customWidth="1"/>
-    <col min="11045" max="11264" width="8.125" style="140"/>
-    <col min="11265" max="11296" width="3.75" style="140" customWidth="1"/>
-    <col min="11297" max="11300" width="3.625" style="140" customWidth="1"/>
-    <col min="11301" max="11520" width="8.125" style="140"/>
-    <col min="11521" max="11552" width="3.75" style="140" customWidth="1"/>
-    <col min="11553" max="11556" width="3.625" style="140" customWidth="1"/>
-    <col min="11557" max="11776" width="8.125" style="140"/>
-    <col min="11777" max="11808" width="3.75" style="140" customWidth="1"/>
-    <col min="11809" max="11812" width="3.625" style="140" customWidth="1"/>
-    <col min="11813" max="12032" width="8.125" style="140"/>
-    <col min="12033" max="12064" width="3.75" style="140" customWidth="1"/>
-    <col min="12065" max="12068" width="3.625" style="140" customWidth="1"/>
-    <col min="12069" max="12288" width="8.125" style="140"/>
-    <col min="12289" max="12320" width="3.75" style="140" customWidth="1"/>
-    <col min="12321" max="12324" width="3.625" style="140" customWidth="1"/>
-    <col min="12325" max="12544" width="8.125" style="140"/>
-    <col min="12545" max="12576" width="3.75" style="140" customWidth="1"/>
-    <col min="12577" max="12580" width="3.625" style="140" customWidth="1"/>
-    <col min="12581" max="12800" width="8.125" style="140"/>
-    <col min="12801" max="12832" width="3.75" style="140" customWidth="1"/>
-    <col min="12833" max="12836" width="3.625" style="140" customWidth="1"/>
-    <col min="12837" max="13056" width="8.125" style="140"/>
-    <col min="13057" max="13088" width="3.75" style="140" customWidth="1"/>
-    <col min="13089" max="13092" width="3.625" style="140" customWidth="1"/>
-    <col min="13093" max="13312" width="8.125" style="140"/>
-    <col min="13313" max="13344" width="3.75" style="140" customWidth="1"/>
-    <col min="13345" max="13348" width="3.625" style="140" customWidth="1"/>
-    <col min="13349" max="13568" width="8.125" style="140"/>
-    <col min="13569" max="13600" width="3.75" style="140" customWidth="1"/>
-    <col min="13601" max="13604" width="3.625" style="140" customWidth="1"/>
-    <col min="13605" max="13824" width="8.125" style="140"/>
-    <col min="13825" max="13856" width="3.75" style="140" customWidth="1"/>
-    <col min="13857" max="13860" width="3.625" style="140" customWidth="1"/>
-    <col min="13861" max="14080" width="8.125" style="140"/>
-    <col min="14081" max="14112" width="3.75" style="140" customWidth="1"/>
-    <col min="14113" max="14116" width="3.625" style="140" customWidth="1"/>
-    <col min="14117" max="14336" width="8.125" style="140"/>
-    <col min="14337" max="14368" width="3.75" style="140" customWidth="1"/>
-    <col min="14369" max="14372" width="3.625" style="140" customWidth="1"/>
-    <col min="14373" max="14592" width="8.125" style="140"/>
-    <col min="14593" max="14624" width="3.75" style="140" customWidth="1"/>
-    <col min="14625" max="14628" width="3.625" style="140" customWidth="1"/>
-    <col min="14629" max="14848" width="8.125" style="140"/>
-    <col min="14849" max="14880" width="3.75" style="140" customWidth="1"/>
-    <col min="14881" max="14884" width="3.625" style="140" customWidth="1"/>
-    <col min="14885" max="15104" width="8.125" style="140"/>
-    <col min="15105" max="15136" width="3.75" style="140" customWidth="1"/>
-    <col min="15137" max="15140" width="3.625" style="140" customWidth="1"/>
-    <col min="15141" max="15360" width="8.125" style="140"/>
-    <col min="15361" max="15392" width="3.75" style="140" customWidth="1"/>
-    <col min="15393" max="15396" width="3.625" style="140" customWidth="1"/>
-    <col min="15397" max="15616" width="8.125" style="140"/>
-    <col min="15617" max="15648" width="3.75" style="140" customWidth="1"/>
-    <col min="15649" max="15652" width="3.625" style="140" customWidth="1"/>
-    <col min="15653" max="15872" width="8.125" style="140"/>
-    <col min="15873" max="15904" width="3.75" style="140" customWidth="1"/>
-    <col min="15905" max="15908" width="3.625" style="140" customWidth="1"/>
-    <col min="15909" max="16128" width="8.125" style="140"/>
-    <col min="16129" max="16160" width="3.75" style="140" customWidth="1"/>
-    <col min="16161" max="16164" width="3.625" style="140" customWidth="1"/>
-    <col min="16165" max="16384" width="8.125" style="140"/>
+    <col min="1" max="4" width="3.69921875" style="140" customWidth="1"/>
+    <col min="5" max="6" width="3.69921875" style="141" customWidth="1"/>
+    <col min="7" max="32" width="3.69921875" style="140" customWidth="1"/>
+    <col min="33" max="36" width="3.59765625" style="140" customWidth="1"/>
+    <col min="37" max="256" width="8.09765625" style="140"/>
+    <col min="257" max="288" width="3.69921875" style="140" customWidth="1"/>
+    <col min="289" max="292" width="3.59765625" style="140" customWidth="1"/>
+    <col min="293" max="512" width="8.09765625" style="140"/>
+    <col min="513" max="544" width="3.69921875" style="140" customWidth="1"/>
+    <col min="545" max="548" width="3.59765625" style="140" customWidth="1"/>
+    <col min="549" max="768" width="8.09765625" style="140"/>
+    <col min="769" max="800" width="3.69921875" style="140" customWidth="1"/>
+    <col min="801" max="804" width="3.59765625" style="140" customWidth="1"/>
+    <col min="805" max="1024" width="8.09765625" style="140"/>
+    <col min="1025" max="1056" width="3.69921875" style="140" customWidth="1"/>
+    <col min="1057" max="1060" width="3.59765625" style="140" customWidth="1"/>
+    <col min="1061" max="1280" width="8.09765625" style="140"/>
+    <col min="1281" max="1312" width="3.69921875" style="140" customWidth="1"/>
+    <col min="1313" max="1316" width="3.59765625" style="140" customWidth="1"/>
+    <col min="1317" max="1536" width="8.09765625" style="140"/>
+    <col min="1537" max="1568" width="3.69921875" style="140" customWidth="1"/>
+    <col min="1569" max="1572" width="3.59765625" style="140" customWidth="1"/>
+    <col min="1573" max="1792" width="8.09765625" style="140"/>
+    <col min="1793" max="1824" width="3.69921875" style="140" customWidth="1"/>
+    <col min="1825" max="1828" width="3.59765625" style="140" customWidth="1"/>
+    <col min="1829" max="2048" width="8.09765625" style="140"/>
+    <col min="2049" max="2080" width="3.69921875" style="140" customWidth="1"/>
+    <col min="2081" max="2084" width="3.59765625" style="140" customWidth="1"/>
+    <col min="2085" max="2304" width="8.09765625" style="140"/>
+    <col min="2305" max="2336" width="3.69921875" style="140" customWidth="1"/>
+    <col min="2337" max="2340" width="3.59765625" style="140" customWidth="1"/>
+    <col min="2341" max="2560" width="8.09765625" style="140"/>
+    <col min="2561" max="2592" width="3.69921875" style="140" customWidth="1"/>
+    <col min="2593" max="2596" width="3.59765625" style="140" customWidth="1"/>
+    <col min="2597" max="2816" width="8.09765625" style="140"/>
+    <col min="2817" max="2848" width="3.69921875" style="140" customWidth="1"/>
+    <col min="2849" max="2852" width="3.59765625" style="140" customWidth="1"/>
+    <col min="2853" max="3072" width="8.09765625" style="140"/>
+    <col min="3073" max="3104" width="3.69921875" style="140" customWidth="1"/>
+    <col min="3105" max="3108" width="3.59765625" style="140" customWidth="1"/>
+    <col min="3109" max="3328" width="8.09765625" style="140"/>
+    <col min="3329" max="3360" width="3.69921875" style="140" customWidth="1"/>
+    <col min="3361" max="3364" width="3.59765625" style="140" customWidth="1"/>
+    <col min="3365" max="3584" width="8.09765625" style="140"/>
+    <col min="3585" max="3616" width="3.69921875" style="140" customWidth="1"/>
+    <col min="3617" max="3620" width="3.59765625" style="140" customWidth="1"/>
+    <col min="3621" max="3840" width="8.09765625" style="140"/>
+    <col min="3841" max="3872" width="3.69921875" style="140" customWidth="1"/>
+    <col min="3873" max="3876" width="3.59765625" style="140" customWidth="1"/>
+    <col min="3877" max="4096" width="8.09765625" style="140"/>
+    <col min="4097" max="4128" width="3.69921875" style="140" customWidth="1"/>
+    <col min="4129" max="4132" width="3.59765625" style="140" customWidth="1"/>
+    <col min="4133" max="4352" width="8.09765625" style="140"/>
+    <col min="4353" max="4384" width="3.69921875" style="140" customWidth="1"/>
+    <col min="4385" max="4388" width="3.59765625" style="140" customWidth="1"/>
+    <col min="4389" max="4608" width="8.09765625" style="140"/>
+    <col min="4609" max="4640" width="3.69921875" style="140" customWidth="1"/>
+    <col min="4641" max="4644" width="3.59765625" style="140" customWidth="1"/>
+    <col min="4645" max="4864" width="8.09765625" style="140"/>
+    <col min="4865" max="4896" width="3.69921875" style="140" customWidth="1"/>
+    <col min="4897" max="4900" width="3.59765625" style="140" customWidth="1"/>
+    <col min="4901" max="5120" width="8.09765625" style="140"/>
+    <col min="5121" max="5152" width="3.69921875" style="140" customWidth="1"/>
+    <col min="5153" max="5156" width="3.59765625" style="140" customWidth="1"/>
+    <col min="5157" max="5376" width="8.09765625" style="140"/>
+    <col min="5377" max="5408" width="3.69921875" style="140" customWidth="1"/>
+    <col min="5409" max="5412" width="3.59765625" style="140" customWidth="1"/>
+    <col min="5413" max="5632" width="8.09765625" style="140"/>
+    <col min="5633" max="5664" width="3.69921875" style="140" customWidth="1"/>
+    <col min="5665" max="5668" width="3.59765625" style="140" customWidth="1"/>
+    <col min="5669" max="5888" width="8.09765625" style="140"/>
+    <col min="5889" max="5920" width="3.69921875" style="140" customWidth="1"/>
+    <col min="5921" max="5924" width="3.59765625" style="140" customWidth="1"/>
+    <col min="5925" max="6144" width="8.09765625" style="140"/>
+    <col min="6145" max="6176" width="3.69921875" style="140" customWidth="1"/>
+    <col min="6177" max="6180" width="3.59765625" style="140" customWidth="1"/>
+    <col min="6181" max="6400" width="8.09765625" style="140"/>
+    <col min="6401" max="6432" width="3.69921875" style="140" customWidth="1"/>
+    <col min="6433" max="6436" width="3.59765625" style="140" customWidth="1"/>
+    <col min="6437" max="6656" width="8.09765625" style="140"/>
+    <col min="6657" max="6688" width="3.69921875" style="140" customWidth="1"/>
+    <col min="6689" max="6692" width="3.59765625" style="140" customWidth="1"/>
+    <col min="6693" max="6912" width="8.09765625" style="140"/>
+    <col min="6913" max="6944" width="3.69921875" style="140" customWidth="1"/>
+    <col min="6945" max="6948" width="3.59765625" style="140" customWidth="1"/>
+    <col min="6949" max="7168" width="8.09765625" style="140"/>
+    <col min="7169" max="7200" width="3.69921875" style="140" customWidth="1"/>
+    <col min="7201" max="7204" width="3.59765625" style="140" customWidth="1"/>
+    <col min="7205" max="7424" width="8.09765625" style="140"/>
+    <col min="7425" max="7456" width="3.69921875" style="140" customWidth="1"/>
+    <col min="7457" max="7460" width="3.59765625" style="140" customWidth="1"/>
+    <col min="7461" max="7680" width="8.09765625" style="140"/>
+    <col min="7681" max="7712" width="3.69921875" style="140" customWidth="1"/>
+    <col min="7713" max="7716" width="3.59765625" style="140" customWidth="1"/>
+    <col min="7717" max="7936" width="8.09765625" style="140"/>
+    <col min="7937" max="7968" width="3.69921875" style="140" customWidth="1"/>
+    <col min="7969" max="7972" width="3.59765625" style="140" customWidth="1"/>
+    <col min="7973" max="8192" width="8.09765625" style="140"/>
+    <col min="8193" max="8224" width="3.69921875" style="140" customWidth="1"/>
+    <col min="8225" max="8228" width="3.59765625" style="140" customWidth="1"/>
+    <col min="8229" max="8448" width="8.09765625" style="140"/>
+    <col min="8449" max="8480" width="3.69921875" style="140" customWidth="1"/>
+    <col min="8481" max="8484" width="3.59765625" style="140" customWidth="1"/>
+    <col min="8485" max="8704" width="8.09765625" style="140"/>
+    <col min="8705" max="8736" width="3.69921875" style="140" customWidth="1"/>
+    <col min="8737" max="8740" width="3.59765625" style="140" customWidth="1"/>
+    <col min="8741" max="8960" width="8.09765625" style="140"/>
+    <col min="8961" max="8992" width="3.69921875" style="140" customWidth="1"/>
+    <col min="8993" max="8996" width="3.59765625" style="140" customWidth="1"/>
+    <col min="8997" max="9216" width="8.09765625" style="140"/>
+    <col min="9217" max="9248" width="3.69921875" style="140" customWidth="1"/>
+    <col min="9249" max="9252" width="3.59765625" style="140" customWidth="1"/>
+    <col min="9253" max="9472" width="8.09765625" style="140"/>
+    <col min="9473" max="9504" width="3.69921875" style="140" customWidth="1"/>
+    <col min="9505" max="9508" width="3.59765625" style="140" customWidth="1"/>
+    <col min="9509" max="9728" width="8.09765625" style="140"/>
+    <col min="9729" max="9760" width="3.69921875" style="140" customWidth="1"/>
+    <col min="9761" max="9764" width="3.59765625" style="140" customWidth="1"/>
+    <col min="9765" max="9984" width="8.09765625" style="140"/>
+    <col min="9985" max="10016" width="3.69921875" style="140" customWidth="1"/>
+    <col min="10017" max="10020" width="3.59765625" style="140" customWidth="1"/>
+    <col min="10021" max="10240" width="8.09765625" style="140"/>
+    <col min="10241" max="10272" width="3.69921875" style="140" customWidth="1"/>
+    <col min="10273" max="10276" width="3.59765625" style="140" customWidth="1"/>
+    <col min="10277" max="10496" width="8.09765625" style="140"/>
+    <col min="10497" max="10528" width="3.69921875" style="140" customWidth="1"/>
+    <col min="10529" max="10532" width="3.59765625" style="140" customWidth="1"/>
+    <col min="10533" max="10752" width="8.09765625" style="140"/>
+    <col min="10753" max="10784" width="3.69921875" style="140" customWidth="1"/>
+    <col min="10785" max="10788" width="3.59765625" style="140" customWidth="1"/>
+    <col min="10789" max="11008" width="8.09765625" style="140"/>
+    <col min="11009" max="11040" width="3.69921875" style="140" customWidth="1"/>
+    <col min="11041" max="11044" width="3.59765625" style="140" customWidth="1"/>
+    <col min="11045" max="11264" width="8.09765625" style="140"/>
+    <col min="11265" max="11296" width="3.69921875" style="140" customWidth="1"/>
+    <col min="11297" max="11300" width="3.59765625" style="140" customWidth="1"/>
+    <col min="11301" max="11520" width="8.09765625" style="140"/>
+    <col min="11521" max="11552" width="3.69921875" style="140" customWidth="1"/>
+    <col min="11553" max="11556" width="3.59765625" style="140" customWidth="1"/>
+    <col min="11557" max="11776" width="8.09765625" style="140"/>
+    <col min="11777" max="11808" width="3.69921875" style="140" customWidth="1"/>
+    <col min="11809" max="11812" width="3.59765625" style="140" customWidth="1"/>
+    <col min="11813" max="12032" width="8.09765625" style="140"/>
+    <col min="12033" max="12064" width="3.69921875" style="140" customWidth="1"/>
+    <col min="12065" max="12068" width="3.59765625" style="140" customWidth="1"/>
+    <col min="12069" max="12288" width="8.09765625" style="140"/>
+    <col min="12289" max="12320" width="3.69921875" style="140" customWidth="1"/>
+    <col min="12321" max="12324" width="3.59765625" style="140" customWidth="1"/>
+    <col min="12325" max="12544" width="8.09765625" style="140"/>
+    <col min="12545" max="12576" width="3.69921875" style="140" customWidth="1"/>
+    <col min="12577" max="12580" width="3.59765625" style="140" customWidth="1"/>
+    <col min="12581" max="12800" width="8.09765625" style="140"/>
+    <col min="12801" max="12832" width="3.69921875" style="140" customWidth="1"/>
+    <col min="12833" max="12836" width="3.59765625" style="140" customWidth="1"/>
+    <col min="12837" max="13056" width="8.09765625" style="140"/>
+    <col min="13057" max="13088" width="3.69921875" style="140" customWidth="1"/>
+    <col min="13089" max="13092" width="3.59765625" style="140" customWidth="1"/>
+    <col min="13093" max="13312" width="8.09765625" style="140"/>
+    <col min="13313" max="13344" width="3.69921875" style="140" customWidth="1"/>
+    <col min="13345" max="13348" width="3.59765625" style="140" customWidth="1"/>
+    <col min="13349" max="13568" width="8.09765625" style="140"/>
+    <col min="13569" max="13600" width="3.69921875" style="140" customWidth="1"/>
+    <col min="13601" max="13604" width="3.59765625" style="140" customWidth="1"/>
+    <col min="13605" max="13824" width="8.09765625" style="140"/>
+    <col min="13825" max="13856" width="3.69921875" style="140" customWidth="1"/>
+    <col min="13857" max="13860" width="3.59765625" style="140" customWidth="1"/>
+    <col min="13861" max="14080" width="8.09765625" style="140"/>
+    <col min="14081" max="14112" width="3.69921875" style="140" customWidth="1"/>
+    <col min="14113" max="14116" width="3.59765625" style="140" customWidth="1"/>
+    <col min="14117" max="14336" width="8.09765625" style="140"/>
+    <col min="14337" max="14368" width="3.69921875" style="140" customWidth="1"/>
+    <col min="14369" max="14372" width="3.59765625" style="140" customWidth="1"/>
+    <col min="14373" max="14592" width="8.09765625" style="140"/>
+    <col min="14593" max="14624" width="3.69921875" style="140" customWidth="1"/>
+    <col min="14625" max="14628" width="3.59765625" style="140" customWidth="1"/>
+    <col min="14629" max="14848" width="8.09765625" style="140"/>
+    <col min="14849" max="14880" width="3.69921875" style="140" customWidth="1"/>
+    <col min="14881" max="14884" width="3.59765625" style="140" customWidth="1"/>
+    <col min="14885" max="15104" width="8.09765625" style="140"/>
+    <col min="15105" max="15136" width="3.69921875" style="140" customWidth="1"/>
+    <col min="15137" max="15140" width="3.59765625" style="140" customWidth="1"/>
+    <col min="15141" max="15360" width="8.09765625" style="140"/>
+    <col min="15361" max="15392" width="3.69921875" style="140" customWidth="1"/>
+    <col min="15393" max="15396" width="3.59765625" style="140" customWidth="1"/>
+    <col min="15397" max="15616" width="8.09765625" style="140"/>
+    <col min="15617" max="15648" width="3.69921875" style="140" customWidth="1"/>
+    <col min="15649" max="15652" width="3.59765625" style="140" customWidth="1"/>
+    <col min="15653" max="15872" width="8.09765625" style="140"/>
+    <col min="15873" max="15904" width="3.69921875" style="140" customWidth="1"/>
+    <col min="15905" max="15908" width="3.59765625" style="140" customWidth="1"/>
+    <col min="15909" max="16128" width="8.09765625" style="140"/>
+    <col min="16129" max="16160" width="3.69921875" style="140" customWidth="1"/>
+    <col min="16161" max="16164" width="3.59765625" style="140" customWidth="1"/>
+    <col min="16165" max="16384" width="8.09765625" style="140"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:176" ht="15.75" customHeight="1">
@@ -3613,18 +3617,18 @@
       <c r="U3" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="167"/>
-      <c r="W3" s="187">
+      <c r="V3" s="166"/>
+      <c r="W3" s="167">
         <v>45040</v>
       </c>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="166"/>
-      <c r="AB3" s="166"/>
-      <c r="AC3" s="166"/>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="167"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="166"/>
       <c r="AF3" s="142"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -3736,20 +3740,20 @@
       <c r="C7" s="149"/>
       <c r="D7" s="149"/>
       <c r="E7" s="148"/>
-      <c r="F7" s="188" t="s">
+      <c r="F7" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="189"/>
-      <c r="L7" s="189"/>
-      <c r="M7" s="189"/>
-      <c r="N7" s="189"/>
-      <c r="O7" s="189"/>
-      <c r="P7" s="189"/>
-      <c r="Q7" s="190"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="170"/>
+      <c r="Q7" s="171"/>
       <c r="R7" s="142"/>
       <c r="S7" s="142"/>
       <c r="T7" s="142"/>
@@ -3767,80 +3771,80 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="142"/>
-      <c r="B8" s="191" t="s">
+      <c r="B8" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="197" t="s">
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="198"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="198"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="198"/>
-      <c r="N8" s="198"/>
-      <c r="O8" s="198"/>
-      <c r="P8" s="198"/>
-      <c r="Q8" s="199"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="179"/>
+      <c r="N8" s="179"/>
+      <c r="O8" s="179"/>
+      <c r="P8" s="179"/>
+      <c r="Q8" s="180"/>
       <c r="R8" s="142"/>
       <c r="S8" s="142"/>
       <c r="T8" s="142"/>
       <c r="U8" s="142"/>
       <c r="V8" s="142"/>
-      <c r="W8" s="203" t="s">
+      <c r="W8" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="203"/>
-      <c r="Y8" s="203"/>
-      <c r="Z8" s="203" t="s">
+      <c r="X8" s="184"/>
+      <c r="Y8" s="184"/>
+      <c r="Z8" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="203"/>
-      <c r="AB8" s="203"/>
-      <c r="AC8" s="203" t="s">
+      <c r="AA8" s="184"/>
+      <c r="AB8" s="184"/>
+      <c r="AC8" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="203"/>
-      <c r="AE8" s="203"/>
+      <c r="AD8" s="184"/>
+      <c r="AE8" s="184"/>
       <c r="AF8" s="142"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="142"/>
-      <c r="B9" s="194"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="201"/>
-      <c r="H9" s="201"/>
-      <c r="I9" s="201"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
-      <c r="L9" s="201"/>
-      <c r="M9" s="201"/>
-      <c r="N9" s="201"/>
-      <c r="O9" s="201"/>
-      <c r="P9" s="201"/>
-      <c r="Q9" s="202"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="182"/>
+      <c r="L9" s="182"/>
+      <c r="M9" s="182"/>
+      <c r="N9" s="182"/>
+      <c r="O9" s="182"/>
+      <c r="P9" s="182"/>
+      <c r="Q9" s="183"/>
       <c r="R9" s="142"/>
       <c r="S9" s="142"/>
       <c r="T9" s="142"/>
       <c r="U9" s="142"/>
       <c r="V9" s="142"/>
-      <c r="W9" s="184"/>
-      <c r="X9" s="185"/>
-      <c r="Y9" s="186"/>
-      <c r="Z9" s="184"/>
-      <c r="AA9" s="185"/>
-      <c r="AB9" s="186"/>
-      <c r="AC9" s="184"/>
-      <c r="AD9" s="185"/>
-      <c r="AE9" s="186"/>
+      <c r="W9" s="185"/>
+      <c r="X9" s="186"/>
+      <c r="Y9" s="187"/>
+      <c r="Z9" s="185"/>
+      <c r="AA9" s="186"/>
+      <c r="AB9" s="187"/>
+      <c r="AC9" s="185"/>
+      <c r="AD9" s="186"/>
+      <c r="AE9" s="187"/>
       <c r="AF9" s="142"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -3866,15 +3870,15 @@
       <c r="T10" s="142"/>
       <c r="U10" s="142"/>
       <c r="V10" s="142"/>
-      <c r="W10" s="204"/>
-      <c r="X10" s="205"/>
-      <c r="Y10" s="206"/>
-      <c r="Z10" s="204"/>
-      <c r="AA10" s="205"/>
-      <c r="AB10" s="206"/>
-      <c r="AC10" s="204"/>
-      <c r="AD10" s="205"/>
-      <c r="AE10" s="206"/>
+      <c r="W10" s="188"/>
+      <c r="X10" s="189"/>
+      <c r="Y10" s="190"/>
+      <c r="Z10" s="188"/>
+      <c r="AA10" s="189"/>
+      <c r="AB10" s="190"/>
+      <c r="AC10" s="188"/>
+      <c r="AD10" s="189"/>
+      <c r="AE10" s="190"/>
       <c r="AF10" s="142"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -3900,15 +3904,15 @@
       <c r="T11" s="142"/>
       <c r="U11" s="142"/>
       <c r="V11" s="142"/>
-      <c r="W11" s="204"/>
-      <c r="X11" s="205"/>
-      <c r="Y11" s="206"/>
-      <c r="Z11" s="204"/>
-      <c r="AA11" s="205"/>
-      <c r="AB11" s="206"/>
-      <c r="AC11" s="204"/>
-      <c r="AD11" s="205"/>
-      <c r="AE11" s="206"/>
+      <c r="W11" s="188"/>
+      <c r="X11" s="189"/>
+      <c r="Y11" s="190"/>
+      <c r="Z11" s="188"/>
+      <c r="AA11" s="189"/>
+      <c r="AB11" s="190"/>
+      <c r="AC11" s="188"/>
+      <c r="AD11" s="189"/>
+      <c r="AE11" s="190"/>
       <c r="AF11" s="142"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -3934,15 +3938,15 @@
       <c r="T12" s="146"/>
       <c r="U12" s="146"/>
       <c r="V12" s="146"/>
-      <c r="W12" s="207"/>
-      <c r="X12" s="208"/>
-      <c r="Y12" s="209"/>
-      <c r="Z12" s="207"/>
-      <c r="AA12" s="208"/>
-      <c r="AB12" s="209"/>
-      <c r="AC12" s="207"/>
-      <c r="AD12" s="208"/>
-      <c r="AE12" s="209"/>
+      <c r="W12" s="191"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="193"/>
+      <c r="Z12" s="191"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="193"/>
+      <c r="AC12" s="191"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="193"/>
       <c r="AF12" s="142"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -4037,106 +4041,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="142"/>
-      <c r="B16" s="183" t="s">
+      <c r="B16" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="183"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="183"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="183"/>
-      <c r="P16" s="183"/>
-      <c r="Q16" s="183"/>
-      <c r="R16" s="183"/>
-      <c r="S16" s="183"/>
-      <c r="T16" s="183"/>
-      <c r="U16" s="183"/>
-      <c r="V16" s="183"/>
-      <c r="W16" s="183"/>
-      <c r="X16" s="183"/>
-      <c r="Y16" s="183"/>
-      <c r="Z16" s="183"/>
-      <c r="AA16" s="183"/>
-      <c r="AB16" s="183"/>
-      <c r="AC16" s="183"/>
-      <c r="AD16" s="183"/>
-      <c r="AE16" s="183"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="194"/>
+      <c r="P16" s="194"/>
+      <c r="Q16" s="194"/>
+      <c r="R16" s="194"/>
+      <c r="S16" s="194"/>
+      <c r="T16" s="194"/>
+      <c r="U16" s="194"/>
+      <c r="V16" s="194"/>
+      <c r="W16" s="194"/>
+      <c r="X16" s="194"/>
+      <c r="Y16" s="194"/>
+      <c r="Z16" s="194"/>
+      <c r="AA16" s="194"/>
+      <c r="AB16" s="194"/>
+      <c r="AC16" s="194"/>
+      <c r="AD16" s="194"/>
+      <c r="AE16" s="194"/>
       <c r="AF16" s="142"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="142"/>
-      <c r="B17" s="183"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="183"/>
-      <c r="M17" s="183"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="183"/>
-      <c r="P17" s="183"/>
-      <c r="Q17" s="183"/>
-      <c r="R17" s="183"/>
-      <c r="S17" s="183"/>
-      <c r="T17" s="183"/>
-      <c r="U17" s="183"/>
-      <c r="V17" s="183"/>
-      <c r="W17" s="183"/>
-      <c r="X17" s="183"/>
-      <c r="Y17" s="183"/>
-      <c r="Z17" s="183"/>
-      <c r="AA17" s="183"/>
-      <c r="AB17" s="183"/>
-      <c r="AC17" s="183"/>
-      <c r="AD17" s="183"/>
-      <c r="AE17" s="183"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="194"/>
+      <c r="Q17" s="194"/>
+      <c r="R17" s="194"/>
+      <c r="S17" s="194"/>
+      <c r="T17" s="194"/>
+      <c r="U17" s="194"/>
+      <c r="V17" s="194"/>
+      <c r="W17" s="194"/>
+      <c r="X17" s="194"/>
+      <c r="Y17" s="194"/>
+      <c r="Z17" s="194"/>
+      <c r="AA17" s="194"/>
+      <c r="AB17" s="194"/>
+      <c r="AC17" s="194"/>
+      <c r="AD17" s="194"/>
+      <c r="AE17" s="194"/>
       <c r="AF17" s="142"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="142"/>
-      <c r="B18" s="183"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="183"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="183"/>
-      <c r="O18" s="183"/>
-      <c r="P18" s="183"/>
-      <c r="Q18" s="183"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="183"/>
-      <c r="T18" s="183"/>
-      <c r="U18" s="183"/>
-      <c r="V18" s="183"/>
-      <c r="W18" s="183"/>
-      <c r="X18" s="183"/>
-      <c r="Y18" s="183"/>
-      <c r="Z18" s="183"/>
-      <c r="AA18" s="183"/>
-      <c r="AB18" s="183"/>
-      <c r="AC18" s="183"/>
-      <c r="AD18" s="183"/>
-      <c r="AE18" s="183"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="194"/>
+      <c r="Q18" s="194"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="194"/>
+      <c r="T18" s="194"/>
+      <c r="U18" s="194"/>
+      <c r="V18" s="194"/>
+      <c r="W18" s="194"/>
+      <c r="X18" s="194"/>
+      <c r="Y18" s="194"/>
+      <c r="Z18" s="194"/>
+      <c r="AA18" s="194"/>
+      <c r="AB18" s="194"/>
+      <c r="AC18" s="194"/>
+      <c r="AD18" s="194"/>
+      <c r="AE18" s="194"/>
       <c r="AF18" s="142"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -4278,41 +4282,41 @@
       <c r="B23" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="167"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="166"/>
       <c r="F23" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="166"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="167"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="166"/>
       <c r="J23" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="166"/>
-      <c r="L23" s="166"/>
-      <c r="M23" s="166"/>
-      <c r="N23" s="166"/>
-      <c r="O23" s="166"/>
-      <c r="P23" s="166"/>
-      <c r="Q23" s="166"/>
-      <c r="R23" s="166"/>
-      <c r="S23" s="166"/>
-      <c r="T23" s="166"/>
-      <c r="U23" s="166"/>
-      <c r="V23" s="166"/>
-      <c r="W23" s="166"/>
-      <c r="X23" s="166"/>
-      <c r="Y23" s="166"/>
-      <c r="Z23" s="166"/>
-      <c r="AA23" s="166"/>
-      <c r="AB23" s="167"/>
-      <c r="AC23" s="184" t="s">
+      <c r="K23" s="168"/>
+      <c r="L23" s="168"/>
+      <c r="M23" s="168"/>
+      <c r="N23" s="168"/>
+      <c r="O23" s="168"/>
+      <c r="P23" s="168"/>
+      <c r="Q23" s="168"/>
+      <c r="R23" s="168"/>
+      <c r="S23" s="168"/>
+      <c r="T23" s="168"/>
+      <c r="U23" s="168"/>
+      <c r="V23" s="168"/>
+      <c r="W23" s="168"/>
+      <c r="X23" s="168"/>
+      <c r="Y23" s="168"/>
+      <c r="Z23" s="168"/>
+      <c r="AA23" s="168"/>
+      <c r="AB23" s="166"/>
+      <c r="AC23" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="185"/>
-      <c r="AE23" s="186"/>
+      <c r="AD23" s="186"/>
+      <c r="AE23" s="187"/>
       <c r="AF23" s="144"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
@@ -4320,41 +4324,41 @@
       <c r="B24" s="165">
         <v>1</v>
       </c>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="168">
+      <c r="C24" s="168"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="195">
         <v>45040</v>
       </c>
-      <c r="G24" s="169"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="171" t="s">
+      <c r="G24" s="196"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="172"/>
-      <c r="L24" s="172"/>
-      <c r="M24" s="172"/>
-      <c r="N24" s="172"/>
-      <c r="O24" s="172"/>
-      <c r="P24" s="172"/>
-      <c r="Q24" s="172"/>
-      <c r="R24" s="172"/>
-      <c r="S24" s="172"/>
-      <c r="T24" s="172"/>
-      <c r="U24" s="172"/>
-      <c r="V24" s="172"/>
-      <c r="W24" s="172"/>
-      <c r="X24" s="172"/>
-      <c r="Y24" s="172"/>
-      <c r="Z24" s="172"/>
-      <c r="AA24" s="172"/>
-      <c r="AB24" s="172"/>
-      <c r="AC24" s="179" t="s">
+      <c r="K24" s="199"/>
+      <c r="L24" s="199"/>
+      <c r="M24" s="199"/>
+      <c r="N24" s="199"/>
+      <c r="O24" s="199"/>
+      <c r="P24" s="199"/>
+      <c r="Q24" s="199"/>
+      <c r="R24" s="199"/>
+      <c r="S24" s="199"/>
+      <c r="T24" s="199"/>
+      <c r="U24" s="199"/>
+      <c r="V24" s="199"/>
+      <c r="W24" s="199"/>
+      <c r="X24" s="199"/>
+      <c r="Y24" s="199"/>
+      <c r="Z24" s="199"/>
+      <c r="AA24" s="199"/>
+      <c r="AB24" s="199"/>
+      <c r="AC24" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="AD24" s="179"/>
-      <c r="AE24" s="179"/>
+      <c r="AD24" s="200"/>
+      <c r="AE24" s="200"/>
       <c r="AF24" s="142"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
@@ -4362,41 +4366,41 @@
       <c r="B25" s="165">
         <v>2</v>
       </c>
-      <c r="C25" s="166"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="175">
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="201">
         <v>45041</v>
       </c>
-      <c r="G25" s="176"/>
-      <c r="H25" s="176"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="171" t="s">
+      <c r="G25" s="202"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="172"/>
-      <c r="L25" s="172"/>
-      <c r="M25" s="172"/>
-      <c r="N25" s="172"/>
-      <c r="O25" s="172"/>
-      <c r="P25" s="172"/>
-      <c r="Q25" s="172"/>
-      <c r="R25" s="172"/>
-      <c r="S25" s="172"/>
-      <c r="T25" s="172"/>
-      <c r="U25" s="172"/>
-      <c r="V25" s="172"/>
-      <c r="W25" s="172"/>
-      <c r="X25" s="172"/>
-      <c r="Y25" s="172"/>
-      <c r="Z25" s="172"/>
-      <c r="AA25" s="172"/>
-      <c r="AB25" s="172"/>
-      <c r="AC25" s="173" t="s">
+      <c r="K25" s="199"/>
+      <c r="L25" s="199"/>
+      <c r="M25" s="199"/>
+      <c r="N25" s="199"/>
+      <c r="O25" s="199"/>
+      <c r="P25" s="199"/>
+      <c r="Q25" s="199"/>
+      <c r="R25" s="199"/>
+      <c r="S25" s="199"/>
+      <c r="T25" s="199"/>
+      <c r="U25" s="199"/>
+      <c r="V25" s="199"/>
+      <c r="W25" s="199"/>
+      <c r="X25" s="199"/>
+      <c r="Y25" s="199"/>
+      <c r="Z25" s="199"/>
+      <c r="AA25" s="199"/>
+      <c r="AB25" s="199"/>
+      <c r="AC25" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="AD25" s="173"/>
-      <c r="AE25" s="173"/>
+      <c r="AD25" s="204"/>
+      <c r="AE25" s="204"/>
       <c r="AF25" s="142"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
@@ -4404,41 +4408,41 @@
       <c r="B26" s="165">
         <v>3</v>
       </c>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="175">
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="201">
         <v>45042</v>
       </c>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="177" t="s">
+      <c r="G26" s="202"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="177"/>
-      <c r="L26" s="177"/>
-      <c r="M26" s="177"/>
-      <c r="N26" s="177"/>
-      <c r="O26" s="177"/>
-      <c r="P26" s="177"/>
-      <c r="Q26" s="177"/>
-      <c r="R26" s="177"/>
-      <c r="S26" s="177"/>
-      <c r="T26" s="177"/>
-      <c r="U26" s="177"/>
-      <c r="V26" s="177"/>
-      <c r="W26" s="177"/>
-      <c r="X26" s="177"/>
-      <c r="Y26" s="177"/>
-      <c r="Z26" s="177"/>
-      <c r="AA26" s="177"/>
-      <c r="AB26" s="177"/>
-      <c r="AC26" s="178" t="s">
+      <c r="K26" s="205"/>
+      <c r="L26" s="205"/>
+      <c r="M26" s="205"/>
+      <c r="N26" s="205"/>
+      <c r="O26" s="205"/>
+      <c r="P26" s="205"/>
+      <c r="Q26" s="205"/>
+      <c r="R26" s="205"/>
+      <c r="S26" s="205"/>
+      <c r="T26" s="205"/>
+      <c r="U26" s="205"/>
+      <c r="V26" s="205"/>
+      <c r="W26" s="205"/>
+      <c r="X26" s="205"/>
+      <c r="Y26" s="205"/>
+      <c r="Z26" s="205"/>
+      <c r="AA26" s="205"/>
+      <c r="AB26" s="205"/>
+      <c r="AC26" s="206" t="s">
         <v>16</v>
       </c>
-      <c r="AD26" s="179"/>
-      <c r="AE26" s="179"/>
+      <c r="AD26" s="200"/>
+      <c r="AE26" s="200"/>
       <c r="AF26" s="142"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
@@ -4446,245 +4450,245 @@
       <c r="B27" s="165">
         <v>4</v>
       </c>
-      <c r="C27" s="166"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="175">
+      <c r="C27" s="168"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="201">
         <v>45043</v>
       </c>
-      <c r="G27" s="176"/>
-      <c r="H27" s="176"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="181" t="s">
+      <c r="G27" s="202"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="182"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="182"/>
-      <c r="O27" s="182"/>
-      <c r="P27" s="182"/>
-      <c r="Q27" s="182"/>
-      <c r="R27" s="182"/>
-      <c r="S27" s="182"/>
-      <c r="T27" s="182"/>
-      <c r="U27" s="182"/>
-      <c r="V27" s="182"/>
-      <c r="W27" s="182"/>
-      <c r="X27" s="182"/>
-      <c r="Y27" s="182"/>
-      <c r="Z27" s="182"/>
-      <c r="AA27" s="182"/>
-      <c r="AB27" s="182"/>
-      <c r="AC27" s="179" t="s">
+      <c r="K27" s="208"/>
+      <c r="L27" s="208"/>
+      <c r="M27" s="208"/>
+      <c r="N27" s="208"/>
+      <c r="O27" s="208"/>
+      <c r="P27" s="208"/>
+      <c r="Q27" s="208"/>
+      <c r="R27" s="208"/>
+      <c r="S27" s="208"/>
+      <c r="T27" s="208"/>
+      <c r="U27" s="208"/>
+      <c r="V27" s="208"/>
+      <c r="W27" s="208"/>
+      <c r="X27" s="208"/>
+      <c r="Y27" s="208"/>
+      <c r="Z27" s="208"/>
+      <c r="AA27" s="208"/>
+      <c r="AB27" s="208"/>
+      <c r="AC27" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="AD27" s="179"/>
-      <c r="AE27" s="179"/>
+      <c r="AD27" s="200"/>
+      <c r="AE27" s="200"/>
       <c r="AF27" s="142"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="142"/>
       <c r="B28" s="165"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="171"/>
-      <c r="K28" s="172"/>
-      <c r="L28" s="172"/>
-      <c r="M28" s="172"/>
-      <c r="N28" s="172"/>
-      <c r="O28" s="172"/>
-      <c r="P28" s="172"/>
-      <c r="Q28" s="172"/>
-      <c r="R28" s="172"/>
-      <c r="S28" s="172"/>
-      <c r="T28" s="172"/>
-      <c r="U28" s="172"/>
-      <c r="V28" s="172"/>
-      <c r="W28" s="172"/>
-      <c r="X28" s="172"/>
-      <c r="Y28" s="172"/>
-      <c r="Z28" s="172"/>
-      <c r="AA28" s="172"/>
-      <c r="AB28" s="172"/>
-      <c r="AC28" s="173"/>
-      <c r="AD28" s="173"/>
-      <c r="AE28" s="173"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196"/>
+      <c r="I28" s="197"/>
+      <c r="J28" s="198"/>
+      <c r="K28" s="199"/>
+      <c r="L28" s="199"/>
+      <c r="M28" s="199"/>
+      <c r="N28" s="199"/>
+      <c r="O28" s="199"/>
+      <c r="P28" s="199"/>
+      <c r="Q28" s="199"/>
+      <c r="R28" s="199"/>
+      <c r="S28" s="199"/>
+      <c r="T28" s="199"/>
+      <c r="U28" s="199"/>
+      <c r="V28" s="199"/>
+      <c r="W28" s="199"/>
+      <c r="X28" s="199"/>
+      <c r="Y28" s="199"/>
+      <c r="Z28" s="199"/>
+      <c r="AA28" s="199"/>
+      <c r="AB28" s="199"/>
+      <c r="AC28" s="204"/>
+      <c r="AD28" s="204"/>
+      <c r="AE28" s="204"/>
       <c r="AF28" s="142"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="142"/>
       <c r="B29" s="165"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="172"/>
-      <c r="L29" s="172"/>
-      <c r="M29" s="172"/>
-      <c r="N29" s="172"/>
-      <c r="O29" s="172"/>
-      <c r="P29" s="172"/>
-      <c r="Q29" s="172"/>
-      <c r="R29" s="172"/>
-      <c r="S29" s="172"/>
-      <c r="T29" s="172"/>
-      <c r="U29" s="172"/>
-      <c r="V29" s="172"/>
-      <c r="W29" s="172"/>
-      <c r="X29" s="172"/>
-      <c r="Y29" s="172"/>
-      <c r="Z29" s="172"/>
-      <c r="AA29" s="172"/>
-      <c r="AB29" s="172"/>
-      <c r="AC29" s="173"/>
-      <c r="AD29" s="173"/>
-      <c r="AE29" s="173"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="195"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="198"/>
+      <c r="K29" s="199"/>
+      <c r="L29" s="199"/>
+      <c r="M29" s="199"/>
+      <c r="N29" s="199"/>
+      <c r="O29" s="199"/>
+      <c r="P29" s="199"/>
+      <c r="Q29" s="199"/>
+      <c r="R29" s="199"/>
+      <c r="S29" s="199"/>
+      <c r="T29" s="199"/>
+      <c r="U29" s="199"/>
+      <c r="V29" s="199"/>
+      <c r="W29" s="199"/>
+      <c r="X29" s="199"/>
+      <c r="Y29" s="199"/>
+      <c r="Z29" s="199"/>
+      <c r="AA29" s="199"/>
+      <c r="AB29" s="199"/>
+      <c r="AC29" s="204"/>
+      <c r="AD29" s="204"/>
+      <c r="AE29" s="204"/>
       <c r="AF29" s="142"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="142"/>
       <c r="B30" s="165"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="172"/>
-      <c r="L30" s="172"/>
-      <c r="M30" s="172"/>
-      <c r="N30" s="172"/>
-      <c r="O30" s="172"/>
-      <c r="P30" s="172"/>
-      <c r="Q30" s="172"/>
-      <c r="R30" s="172"/>
-      <c r="S30" s="172"/>
-      <c r="T30" s="172"/>
-      <c r="U30" s="172"/>
-      <c r="V30" s="172"/>
-      <c r="W30" s="172"/>
-      <c r="X30" s="172"/>
-      <c r="Y30" s="172"/>
-      <c r="Z30" s="172"/>
-      <c r="AA30" s="172"/>
-      <c r="AB30" s="172"/>
-      <c r="AC30" s="174"/>
-      <c r="AD30" s="174"/>
-      <c r="AE30" s="174"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="198"/>
+      <c r="K30" s="199"/>
+      <c r="L30" s="199"/>
+      <c r="M30" s="199"/>
+      <c r="N30" s="199"/>
+      <c r="O30" s="199"/>
+      <c r="P30" s="199"/>
+      <c r="Q30" s="199"/>
+      <c r="R30" s="199"/>
+      <c r="S30" s="199"/>
+      <c r="T30" s="199"/>
+      <c r="U30" s="199"/>
+      <c r="V30" s="199"/>
+      <c r="W30" s="199"/>
+      <c r="X30" s="199"/>
+      <c r="Y30" s="199"/>
+      <c r="Z30" s="199"/>
+      <c r="AA30" s="199"/>
+      <c r="AB30" s="199"/>
+      <c r="AC30" s="209"/>
+      <c r="AD30" s="209"/>
+      <c r="AE30" s="209"/>
       <c r="AF30" s="142"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="142"/>
       <c r="B31" s="165"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="169"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="171"/>
-      <c r="K31" s="172"/>
-      <c r="L31" s="172"/>
-      <c r="M31" s="172"/>
-      <c r="N31" s="172"/>
-      <c r="O31" s="172"/>
-      <c r="P31" s="172"/>
-      <c r="Q31" s="172"/>
-      <c r="R31" s="172"/>
-      <c r="S31" s="172"/>
-      <c r="T31" s="172"/>
-      <c r="U31" s="172"/>
-      <c r="V31" s="172"/>
-      <c r="W31" s="172"/>
-      <c r="X31" s="172"/>
-      <c r="Y31" s="172"/>
-      <c r="Z31" s="172"/>
-      <c r="AA31" s="172"/>
-      <c r="AB31" s="172"/>
-      <c r="AC31" s="173"/>
-      <c r="AD31" s="173"/>
-      <c r="AE31" s="173"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="197"/>
+      <c r="J31" s="198"/>
+      <c r="K31" s="199"/>
+      <c r="L31" s="199"/>
+      <c r="M31" s="199"/>
+      <c r="N31" s="199"/>
+      <c r="O31" s="199"/>
+      <c r="P31" s="199"/>
+      <c r="Q31" s="199"/>
+      <c r="R31" s="199"/>
+      <c r="S31" s="199"/>
+      <c r="T31" s="199"/>
+      <c r="U31" s="199"/>
+      <c r="V31" s="199"/>
+      <c r="W31" s="199"/>
+      <c r="X31" s="199"/>
+      <c r="Y31" s="199"/>
+      <c r="Z31" s="199"/>
+      <c r="AA31" s="199"/>
+      <c r="AB31" s="199"/>
+      <c r="AC31" s="204"/>
+      <c r="AD31" s="204"/>
+      <c r="AE31" s="204"/>
       <c r="AF31" s="142"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="142"/>
       <c r="B32" s="165"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="171"/>
-      <c r="K32" s="172"/>
-      <c r="L32" s="172"/>
-      <c r="M32" s="172"/>
-      <c r="N32" s="172"/>
-      <c r="O32" s="172"/>
-      <c r="P32" s="172"/>
-      <c r="Q32" s="172"/>
-      <c r="R32" s="172"/>
-      <c r="S32" s="172"/>
-      <c r="T32" s="172"/>
-      <c r="U32" s="172"/>
-      <c r="V32" s="172"/>
-      <c r="W32" s="172"/>
-      <c r="X32" s="172"/>
-      <c r="Y32" s="172"/>
-      <c r="Z32" s="172"/>
-      <c r="AA32" s="172"/>
-      <c r="AB32" s="172"/>
-      <c r="AC32" s="173"/>
-      <c r="AD32" s="173"/>
-      <c r="AE32" s="173"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="195"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="196"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="198"/>
+      <c r="K32" s="199"/>
+      <c r="L32" s="199"/>
+      <c r="M32" s="199"/>
+      <c r="N32" s="199"/>
+      <c r="O32" s="199"/>
+      <c r="P32" s="199"/>
+      <c r="Q32" s="199"/>
+      <c r="R32" s="199"/>
+      <c r="S32" s="199"/>
+      <c r="T32" s="199"/>
+      <c r="U32" s="199"/>
+      <c r="V32" s="199"/>
+      <c r="W32" s="199"/>
+      <c r="X32" s="199"/>
+      <c r="Y32" s="199"/>
+      <c r="Z32" s="199"/>
+      <c r="AA32" s="199"/>
+      <c r="AB32" s="199"/>
+      <c r="AC32" s="204"/>
+      <c r="AD32" s="204"/>
+      <c r="AE32" s="204"/>
       <c r="AF32" s="142"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="142"/>
       <c r="B33" s="165"/>
-      <c r="C33" s="166"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="171"/>
-      <c r="K33" s="172"/>
-      <c r="L33" s="172"/>
-      <c r="M33" s="172"/>
-      <c r="N33" s="172"/>
-      <c r="O33" s="172"/>
-      <c r="P33" s="172"/>
-      <c r="Q33" s="172"/>
-      <c r="R33" s="172"/>
-      <c r="S33" s="172"/>
-      <c r="T33" s="172"/>
-      <c r="U33" s="172"/>
-      <c r="V33" s="172"/>
-      <c r="W33" s="172"/>
-      <c r="X33" s="172"/>
-      <c r="Y33" s="172"/>
-      <c r="Z33" s="172"/>
-      <c r="AA33" s="172"/>
-      <c r="AB33" s="172"/>
-      <c r="AC33" s="173"/>
-      <c r="AD33" s="173"/>
-      <c r="AE33" s="173"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="195"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="198"/>
+      <c r="K33" s="199"/>
+      <c r="L33" s="199"/>
+      <c r="M33" s="199"/>
+      <c r="N33" s="199"/>
+      <c r="O33" s="199"/>
+      <c r="P33" s="199"/>
+      <c r="Q33" s="199"/>
+      <c r="R33" s="199"/>
+      <c r="S33" s="199"/>
+      <c r="T33" s="199"/>
+      <c r="U33" s="199"/>
+      <c r="V33" s="199"/>
+      <c r="W33" s="199"/>
+      <c r="X33" s="199"/>
+      <c r="Y33" s="199"/>
+      <c r="Z33" s="199"/>
+      <c r="AA33" s="199"/>
+      <c r="AB33" s="199"/>
+      <c r="AC33" s="204"/>
+      <c r="AD33" s="204"/>
+      <c r="AE33" s="204"/>
       <c r="AF33" s="142"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -4722,6 +4726,51 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:AE3"/>
     <mergeCell ref="F7:Q7"/>
@@ -4733,51 +4782,6 @@
     <mergeCell ref="W9:Y12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="AC9:AE12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -4796,22 +4800,22 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="41.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.25" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.125" style="4"/>
+    <col min="2" max="2" width="20.09765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="41.59765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.19921875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.09765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.899999999999999">
+    <row r="1" spans="1:6" ht="19.8">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -4822,10 +4826,10 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="213"/>
+      <c r="B2" s="218"/>
       <c r="C2" s="130" t="s">
         <v>6</v>
       </c>
@@ -4838,10 +4842,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="213"/>
+      <c r="B3" s="218"/>
       <c r="C3" s="122" t="s">
         <v>25</v>
       </c>
@@ -4854,10 +4858,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="212" t="s">
+      <c r="A4" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="213"/>
+      <c r="B4" s="218"/>
       <c r="C4" s="130" t="s">
         <v>28</v>
       </c>
@@ -4870,24 +4874,24 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="217" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="213"/>
+      <c r="B5" s="218"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="123" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="212" t="s">
+      <c r="A6" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="213"/>
+      <c r="B6" s="218"/>
       <c r="C6" s="130" t="s">
         <v>33</v>
       </c>
@@ -4896,7 +4900,7 @@
         <v>34</v>
       </c>
       <c r="F6" s="124">
-        <v>45040</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
@@ -4930,10 +4934,10 @@
       <c r="D9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="210" t="s">
+      <c r="E9" s="215" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="211"/>
+      <c r="F9" s="216"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="16">
@@ -4948,10 +4952,10 @@
       <c r="D10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="299" t="s">
+      <c r="E10" s="212" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="300"/>
+      <c r="F10" s="213"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="16">
@@ -4966,10 +4970,10 @@
       <c r="D11" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="299" t="s">
+      <c r="E11" s="212" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="300"/>
+      <c r="F11" s="213"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="16">
@@ -4984,50 +4988,50 @@
       <c r="D12" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="299" t="s">
+      <c r="E12" s="212" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="300"/>
+      <c r="F12" s="213"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="128"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="301"/>
+      <c r="E13" s="212"/>
+      <c r="F13" s="214"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="125"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="299"/>
-      <c r="F14" s="301"/>
+      <c r="E14" s="212"/>
+      <c r="F14" s="214"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="106"/>
       <c r="B15" s="106"/>
       <c r="C15" s="106"/>
       <c r="D15" s="106"/>
-      <c r="E15" s="214"/>
-      <c r="F15" s="215"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="211"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="106"/>
       <c r="B16" s="106"/>
       <c r="C16" s="106"/>
       <c r="D16" s="106"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="215"/>
+      <c r="E16" s="210"/>
+      <c r="F16" s="211"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="106"/>
       <c r="B17" s="106"/>
       <c r="C17" s="106"/>
       <c r="D17" s="106"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="215"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="211"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="18" t="s">
@@ -5269,6 +5273,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E10:F10"/>
@@ -5277,12 +5287,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5298,23 +5302,23 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="31.25" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="31.19921875" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.899999999999999">
+    <row r="1" spans="1:8" ht="19.8">
       <c r="A1" s="26" t="s">
         <v>53</v>
       </c>
@@ -5361,13 +5365,13 @@
         <v>31</v>
       </c>
       <c r="F3" s="121" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="120">
-        <v>45041</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1">
@@ -5385,7 +5389,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="119" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
@@ -5400,49 +5404,49 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="253" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="218" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="220"/>
+      <c r="D6" s="254"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
+      <c r="G6" s="254"/>
+      <c r="H6" s="255"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="33"/>
-      <c r="C7" s="218" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="C7" s="253" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="255"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="253" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="218" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="220"/>
+      <c r="D8" s="254"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
+      <c r="G8" s="254"/>
+      <c r="H8" s="255"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -5454,26 +5458,26 @@
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="C10" s="237" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="221" t="s">
+      <c r="D10" s="256"/>
+      <c r="E10" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="222"/>
-      <c r="E10" s="36" t="s">
+      <c r="F10" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="G10" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="H10" s="37" t="s">
         <v>67</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -5481,21 +5485,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="257" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="223" t="s">
+      <c r="D11" s="258"/>
+      <c r="E11" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="224"/>
-      <c r="E11" s="40" t="s">
+      <c r="F11" s="40" t="s">
         <v>71</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>72</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -5503,17 +5507,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="251" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="216" t="s">
+      <c r="D12" s="252"/>
+      <c r="E12" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="217"/>
-      <c r="E12" s="40" t="s">
-        <v>76</v>
-      </c>
       <c r="F12" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="42"/>
@@ -5523,17 +5527,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="247" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="225" t="s">
+      <c r="D13" s="248"/>
+      <c r="E13" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="226"/>
-      <c r="E13" s="45" t="s">
-        <v>79</v>
-      </c>
       <c r="F13" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="46"/>
       <c r="H13" s="47"/>
@@ -5543,17 +5547,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="247" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="225" t="s">
+      <c r="D14" s="248"/>
+      <c r="E14" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="226"/>
-      <c r="E14" s="45" t="s">
-        <v>82</v>
-      </c>
       <c r="F14" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="46"/>
       <c r="H14" s="47"/>
@@ -5563,17 +5567,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="247" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="225" t="s">
+      <c r="D15" s="248"/>
+      <c r="E15" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="226"/>
-      <c r="E15" s="45" t="s">
-        <v>85</v>
-      </c>
       <c r="F15" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="46"/>
       <c r="H15" s="47"/>
@@ -5583,17 +5587,17 @@
         <v>6</v>
       </c>
       <c r="B16" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="247" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="225" t="s">
+      <c r="D16" s="248"/>
+      <c r="E16" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="226"/>
-      <c r="E16" s="50" t="s">
-        <v>88</v>
-      </c>
       <c r="F16" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="51"/>
       <c r="H16" s="52"/>
@@ -5603,17 +5607,17 @@
         <v>7</v>
       </c>
       <c r="B17" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="247" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="225" t="s">
+      <c r="D17" s="248"/>
+      <c r="E17" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="226"/>
-      <c r="E17" s="50" t="s">
-        <v>91</v>
-      </c>
       <c r="F17" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="51"/>
       <c r="H17" s="52"/>
@@ -5623,17 +5627,17 @@
         <v>8</v>
       </c>
       <c r="B18" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="247" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="225" t="s">
+      <c r="D18" s="248"/>
+      <c r="E18" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="226"/>
-      <c r="E18" s="50" t="s">
-        <v>94</v>
-      </c>
       <c r="F18" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="51"/>
       <c r="H18" s="52"/>
@@ -5641,8 +5645,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="226"/>
+      <c r="C19" s="247"/>
+      <c r="D19" s="248"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
@@ -5651,8 +5655,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="225"/>
-      <c r="D20" s="226"/>
+      <c r="C20" s="247"/>
+      <c r="D20" s="248"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
@@ -5661,8 +5665,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="225"/>
-      <c r="D21" s="226"/>
+      <c r="C21" s="247"/>
+      <c r="D21" s="248"/>
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
       <c r="G21" s="51"/>
@@ -5671,8 +5675,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="226"/>
+      <c r="C22" s="247"/>
+      <c r="D22" s="248"/>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
       <c r="G22" s="51"/>
@@ -5681,8 +5685,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="226"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="248"/>
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="51"/>
@@ -5691,8 +5695,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="225"/>
-      <c r="D24" s="226"/>
+      <c r="C24" s="247"/>
+      <c r="D24" s="248"/>
       <c r="E24" s="50"/>
       <c r="F24" s="50"/>
       <c r="G24" s="51"/>
@@ -5701,8 +5705,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="225"/>
-      <c r="D25" s="226"/>
+      <c r="C25" s="247"/>
+      <c r="D25" s="248"/>
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
       <c r="G25" s="51"/>
@@ -5711,8 +5715,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="225"/>
-      <c r="D26" s="226"/>
+      <c r="C26" s="247"/>
+      <c r="D26" s="248"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="51"/>
@@ -5721,8 +5725,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="49"/>
-      <c r="C27" s="225"/>
-      <c r="D27" s="226"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="248"/>
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="51"/>
@@ -5731,8 +5735,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="225"/>
-      <c r="D28" s="226"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="248"/>
       <c r="E28" s="50"/>
       <c r="F28" s="50"/>
       <c r="G28" s="51"/>
@@ -5741,8 +5745,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="225"/>
-      <c r="D29" s="226"/>
+      <c r="C29" s="247"/>
+      <c r="D29" s="248"/>
       <c r="E29" s="50"/>
       <c r="F29" s="50"/>
       <c r="G29" s="51"/>
@@ -5751,8 +5755,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="53"/>
       <c r="B30" s="54"/>
-      <c r="C30" s="232"/>
-      <c r="D30" s="233"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="224"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
       <c r="G30" s="56"/>
@@ -5770,7 +5774,7 @@
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="60"/>
@@ -5782,71 +5786,71 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="234" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="236"/>
+      <c r="D33" s="62" t="s">
         <v>96</v>
-      </c>
-      <c r="C33" s="235"/>
-      <c r="D33" s="62" t="s">
-        <v>97</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="63"/>
       <c r="G33" s="65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H33" s="66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="38"/>
-      <c r="B34" s="236"/>
-      <c r="C34" s="237"/>
-      <c r="D34" s="238"/>
-      <c r="E34" s="239"/>
-      <c r="F34" s="240"/>
+      <c r="B34" s="249"/>
+      <c r="C34" s="250"/>
+      <c r="D34" s="239"/>
+      <c r="E34" s="240"/>
+      <c r="F34" s="241"/>
       <c r="G34" s="41"/>
       <c r="H34" s="42"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="43"/>
-      <c r="B35" s="227"/>
-      <c r="C35" s="228"/>
-      <c r="D35" s="229"/>
-      <c r="E35" s="230"/>
-      <c r="F35" s="231"/>
+      <c r="B35" s="242"/>
+      <c r="C35" s="243"/>
+      <c r="D35" s="231"/>
+      <c r="E35" s="232"/>
+      <c r="F35" s="233"/>
       <c r="G35" s="46"/>
       <c r="H35" s="47"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="43"/>
-      <c r="B36" s="227"/>
-      <c r="C36" s="228"/>
-      <c r="D36" s="229"/>
-      <c r="E36" s="230"/>
-      <c r="F36" s="231"/>
+      <c r="B36" s="242"/>
+      <c r="C36" s="243"/>
+      <c r="D36" s="231"/>
+      <c r="E36" s="232"/>
+      <c r="F36" s="233"/>
       <c r="G36" s="46"/>
       <c r="H36" s="47"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="43"/>
-      <c r="B37" s="227"/>
-      <c r="C37" s="228"/>
-      <c r="D37" s="229"/>
-      <c r="E37" s="230"/>
-      <c r="F37" s="231"/>
+      <c r="B37" s="242"/>
+      <c r="C37" s="243"/>
+      <c r="D37" s="231"/>
+      <c r="E37" s="232"/>
+      <c r="F37" s="233"/>
       <c r="G37" s="46"/>
       <c r="H37" s="47"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="53"/>
-      <c r="B38" s="241"/>
-      <c r="C38" s="242"/>
-      <c r="D38" s="232"/>
-      <c r="E38" s="243"/>
-      <c r="F38" s="233"/>
+      <c r="B38" s="244"/>
+      <c r="C38" s="245"/>
+      <c r="D38" s="222"/>
+      <c r="E38" s="223"/>
+      <c r="F38" s="224"/>
       <c r="G38" s="56"/>
       <c r="H38" s="57"/>
     </row>
@@ -5862,7 +5866,7 @@
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
       <c r="A40" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="60"/>
@@ -5874,72 +5878,72 @@
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="234" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="235"/>
+      <c r="E41" s="236"/>
+      <c r="F41" s="234" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="234" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="244"/>
-      <c r="E41" s="235"/>
-      <c r="F41" s="234" t="s">
+      <c r="G41" s="246"/>
+      <c r="H41" s="66" t="s">
         <v>101</v>
-      </c>
-      <c r="G41" s="245"/>
-      <c r="H41" s="66" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="67"/>
       <c r="B42" s="68"/>
-      <c r="C42" s="238"/>
-      <c r="D42" s="239"/>
-      <c r="E42" s="240"/>
-      <c r="F42" s="238"/>
-      <c r="G42" s="240"/>
+      <c r="C42" s="239"/>
+      <c r="D42" s="240"/>
+      <c r="E42" s="241"/>
+      <c r="F42" s="239"/>
+      <c r="G42" s="241"/>
       <c r="H42" s="69"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="70"/>
       <c r="B43" s="71"/>
-      <c r="C43" s="229"/>
-      <c r="D43" s="230"/>
-      <c r="E43" s="231"/>
-      <c r="F43" s="229"/>
-      <c r="G43" s="231"/>
+      <c r="C43" s="231"/>
+      <c r="D43" s="232"/>
+      <c r="E43" s="233"/>
+      <c r="F43" s="231"/>
+      <c r="G43" s="233"/>
       <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="70"/>
       <c r="B44" s="71"/>
-      <c r="C44" s="229"/>
-      <c r="D44" s="230"/>
-      <c r="E44" s="231"/>
-      <c r="F44" s="229"/>
-      <c r="G44" s="231"/>
+      <c r="C44" s="231"/>
+      <c r="D44" s="232"/>
+      <c r="E44" s="233"/>
+      <c r="F44" s="231"/>
+      <c r="G44" s="233"/>
       <c r="H44" s="72"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="70"/>
       <c r="B45" s="71"/>
-      <c r="C45" s="229"/>
-      <c r="D45" s="230"/>
-      <c r="E45" s="231"/>
-      <c r="F45" s="229"/>
-      <c r="G45" s="231"/>
+      <c r="C45" s="231"/>
+      <c r="D45" s="232"/>
+      <c r="E45" s="233"/>
+      <c r="F45" s="231"/>
+      <c r="G45" s="233"/>
       <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="73"/>
       <c r="B46" s="74"/>
-      <c r="C46" s="232"/>
-      <c r="D46" s="243"/>
-      <c r="E46" s="233"/>
-      <c r="F46" s="246"/>
-      <c r="G46" s="247"/>
+      <c r="C46" s="222"/>
+      <c r="D46" s="223"/>
+      <c r="E46" s="224"/>
+      <c r="F46" s="225"/>
+      <c r="G46" s="226"/>
       <c r="H46" s="75"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -5954,7 +5958,7 @@
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
       <c r="A48" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48" s="34"/>
       <c r="C48" s="60"/>
@@ -5966,122 +5970,112 @@
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="234" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="244"/>
-      <c r="E49" s="235"/>
-      <c r="F49" s="221" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="235"/>
+      <c r="E49" s="236"/>
+      <c r="F49" s="237" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49" s="238"/>
+      <c r="H49" s="37" t="s">
         <v>104</v>
-      </c>
-      <c r="G49" s="248"/>
-      <c r="H49" s="37" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="76"/>
       <c r="B50" s="77"/>
-      <c r="C50" s="252" t="s">
+      <c r="C50" s="227" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="228"/>
+      <c r="E50" s="229"/>
+      <c r="F50" s="227" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="253"/>
-      <c r="E50" s="254"/>
-      <c r="F50" s="252" t="s">
-        <v>107</v>
-      </c>
-      <c r="G50" s="254"/>
+      <c r="G50" s="229"/>
       <c r="H50" s="78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="103"/>
       <c r="B51" s="104"/>
-      <c r="C51" s="255" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="250"/>
-      <c r="E51" s="251"/>
-      <c r="F51" s="249" t="s">
+      <c r="C51" s="230" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="220"/>
+      <c r="E51" s="221"/>
+      <c r="F51" s="219" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" s="221"/>
+      <c r="H51" s="105" t="s">
         <v>108</v>
-      </c>
-      <c r="G51" s="251"/>
-      <c r="H51" s="105" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="103"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="255" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="250"/>
-      <c r="E52" s="251"/>
-      <c r="F52" s="249" t="s">
-        <v>110</v>
-      </c>
-      <c r="G52" s="251"/>
+      <c r="C52" s="230" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="220"/>
+      <c r="E52" s="221"/>
+      <c r="F52" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="221"/>
       <c r="H52" s="105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="103"/>
       <c r="B53" s="104"/>
-      <c r="C53" s="249"/>
-      <c r="D53" s="250"/>
-      <c r="E53" s="251"/>
-      <c r="F53" s="249"/>
-      <c r="G53" s="251"/>
+      <c r="C53" s="219"/>
+      <c r="D53" s="220"/>
+      <c r="E53" s="221"/>
+      <c r="F53" s="219"/>
+      <c r="G53" s="221"/>
       <c r="H53" s="105"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="73"/>
       <c r="B54" s="74"/>
-      <c r="C54" s="232"/>
-      <c r="D54" s="243"/>
-      <c r="E54" s="233"/>
-      <c r="F54" s="246"/>
-      <c r="G54" s="247"/>
+      <c r="C54" s="222"/>
+      <c r="D54" s="223"/>
+      <c r="E54" s="224"/>
+      <c r="F54" s="225"/>
+      <c r="G54" s="226"/>
       <c r="H54" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -6095,24 +6089,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6128,22 +6132,22 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" customWidth="1"/>
+    <col min="8" max="8" width="22.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.899999999999999">
+    <row r="1" spans="1:8" ht="19.8">
       <c r="A1" s="26" t="s">
         <v>53</v>
       </c>
@@ -6190,13 +6194,13 @@
         <v>31</v>
       </c>
       <c r="F3" s="121" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="120">
-        <v>45041</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1">
@@ -6214,7 +6218,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="119" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
@@ -6229,49 +6233,49 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="33"/>
-      <c r="C6" s="218" t="s">
+      <c r="C6" s="253" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="220"/>
+      <c r="D6" s="254"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
+      <c r="G6" s="254"/>
+      <c r="H6" s="255"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="33"/>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="253" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="255"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="33"/>
-      <c r="C8" s="218" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="220"/>
+      <c r="C8" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="254"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
+      <c r="G8" s="254"/>
+      <c r="H8" s="255"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -6283,26 +6287,26 @@
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="C10" s="237" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="221" t="s">
+      <c r="D10" s="256"/>
+      <c r="E10" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="222"/>
-      <c r="E10" s="36" t="s">
+      <c r="F10" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="G10" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="H10" s="37" t="s">
         <v>67</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -6310,21 +6314,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="277" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="258" t="s">
+      <c r="D11" s="278"/>
+      <c r="E11" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="259"/>
-      <c r="E11" s="40" t="s">
-        <v>114</v>
-      </c>
       <c r="F11" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -6332,17 +6336,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="270" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="256" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="257"/>
+      <c r="D12" s="271"/>
       <c r="E12" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="46"/>
       <c r="H12" s="47"/>
@@ -6352,21 +6356,21 @@
         <v>3</v>
       </c>
       <c r="B13" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="270" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="256" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="257"/>
+      <c r="D13" s="271"/>
       <c r="E13" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="50" t="s">
         <v>71</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>72</v>
       </c>
       <c r="G13" s="46"/>
       <c r="H13" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
@@ -6376,15 +6380,15 @@
       <c r="B14" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="260" t="s">
+      <c r="C14" s="272" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="273"/>
+      <c r="E14" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="261"/>
-      <c r="E14" s="50" t="s">
-        <v>121</v>
-      </c>
       <c r="F14" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="50"/>
       <c r="H14" s="107"/>
@@ -6392,8 +6396,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
-      <c r="C15" s="262"/>
-      <c r="D15" s="263"/>
+      <c r="C15" s="274"/>
+      <c r="D15" s="275"/>
       <c r="E15" s="162"/>
       <c r="F15" s="161"/>
       <c r="G15" s="46"/>
@@ -6402,8 +6406,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="225"/>
-      <c r="D16" s="264"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="276"/>
       <c r="E16" s="102"/>
       <c r="F16" s="100"/>
       <c r="G16" s="51"/>
@@ -6412,8 +6416,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="225"/>
-      <c r="D17" s="226"/>
+      <c r="C17" s="247"/>
+      <c r="D17" s="248"/>
       <c r="E17" s="101"/>
       <c r="F17" s="50"/>
       <c r="G17" s="51"/>
@@ -6422,8 +6426,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="225"/>
-      <c r="D18" s="226"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="248"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
       <c r="G18" s="51"/>
@@ -6432,8 +6436,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="226"/>
+      <c r="C19" s="247"/>
+      <c r="D19" s="248"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
@@ -6442,8 +6446,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="225"/>
-      <c r="D20" s="226"/>
+      <c r="C20" s="247"/>
+      <c r="D20" s="248"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
@@ -6452,8 +6456,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="225"/>
-      <c r="D21" s="226"/>
+      <c r="C21" s="247"/>
+      <c r="D21" s="248"/>
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
       <c r="G21" s="51"/>
@@ -6462,8 +6466,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="226"/>
+      <c r="C22" s="247"/>
+      <c r="D22" s="248"/>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
       <c r="G22" s="51"/>
@@ -6472,8 +6476,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="226"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="248"/>
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="51"/>
@@ -6482,8 +6486,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="225"/>
-      <c r="D24" s="226"/>
+      <c r="C24" s="247"/>
+      <c r="D24" s="248"/>
       <c r="E24" s="50"/>
       <c r="F24" s="50"/>
       <c r="G24" s="51"/>
@@ -6492,8 +6496,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="225"/>
-      <c r="D25" s="226"/>
+      <c r="C25" s="247"/>
+      <c r="D25" s="248"/>
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
       <c r="G25" s="51"/>
@@ -6502,8 +6506,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="225"/>
-      <c r="D26" s="226"/>
+      <c r="C26" s="247"/>
+      <c r="D26" s="248"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="51"/>
@@ -6512,8 +6516,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="49"/>
-      <c r="C27" s="225"/>
-      <c r="D27" s="226"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="248"/>
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="51"/>
@@ -6522,8 +6526,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="225"/>
-      <c r="D28" s="226"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="248"/>
       <c r="E28" s="50"/>
       <c r="F28" s="50"/>
       <c r="G28" s="51"/>
@@ -6532,8 +6536,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="225"/>
-      <c r="D29" s="226"/>
+      <c r="C29" s="247"/>
+      <c r="D29" s="248"/>
       <c r="E29" s="50"/>
       <c r="F29" s="50"/>
       <c r="G29" s="51"/>
@@ -6542,8 +6546,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="53"/>
       <c r="B30" s="54"/>
-      <c r="C30" s="232"/>
-      <c r="D30" s="233"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="224"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
       <c r="G30" s="56"/>
@@ -6561,7 +6565,7 @@
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="60"/>
@@ -6573,71 +6577,71 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="234" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="236"/>
+      <c r="D33" s="62" t="s">
         <v>96</v>
-      </c>
-      <c r="C33" s="235"/>
-      <c r="D33" s="62" t="s">
-        <v>97</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="63"/>
       <c r="G33" s="65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H33" s="66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="38"/>
-      <c r="B34" s="236"/>
-      <c r="C34" s="237"/>
-      <c r="D34" s="238"/>
-      <c r="E34" s="239"/>
-      <c r="F34" s="240"/>
+      <c r="B34" s="249"/>
+      <c r="C34" s="250"/>
+      <c r="D34" s="239"/>
+      <c r="E34" s="240"/>
+      <c r="F34" s="241"/>
       <c r="G34" s="41"/>
       <c r="H34" s="42"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="43"/>
-      <c r="B35" s="227"/>
-      <c r="C35" s="228"/>
-      <c r="D35" s="229"/>
-      <c r="E35" s="230"/>
-      <c r="F35" s="231"/>
+      <c r="B35" s="242"/>
+      <c r="C35" s="243"/>
+      <c r="D35" s="231"/>
+      <c r="E35" s="232"/>
+      <c r="F35" s="233"/>
       <c r="G35" s="46"/>
       <c r="H35" s="47"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="43"/>
-      <c r="B36" s="227"/>
-      <c r="C36" s="228"/>
-      <c r="D36" s="229"/>
-      <c r="E36" s="230"/>
-      <c r="F36" s="231"/>
+      <c r="B36" s="242"/>
+      <c r="C36" s="243"/>
+      <c r="D36" s="231"/>
+      <c r="E36" s="232"/>
+      <c r="F36" s="233"/>
       <c r="G36" s="46"/>
       <c r="H36" s="47"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="43"/>
-      <c r="B37" s="227"/>
-      <c r="C37" s="228"/>
-      <c r="D37" s="229"/>
-      <c r="E37" s="230"/>
-      <c r="F37" s="231"/>
+      <c r="B37" s="242"/>
+      <c r="C37" s="243"/>
+      <c r="D37" s="231"/>
+      <c r="E37" s="232"/>
+      <c r="F37" s="233"/>
       <c r="G37" s="46"/>
       <c r="H37" s="47"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="53"/>
-      <c r="B38" s="241"/>
-      <c r="C38" s="242"/>
-      <c r="D38" s="232"/>
-      <c r="E38" s="243"/>
-      <c r="F38" s="233"/>
+      <c r="B38" s="244"/>
+      <c r="C38" s="245"/>
+      <c r="D38" s="222"/>
+      <c r="E38" s="223"/>
+      <c r="F38" s="224"/>
       <c r="G38" s="56"/>
       <c r="H38" s="57"/>
     </row>
@@ -6653,7 +6657,7 @@
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
       <c r="A40" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="60"/>
@@ -6665,90 +6669,90 @@
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="234" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="235"/>
+      <c r="E41" s="236"/>
+      <c r="F41" s="234" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="234" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="244"/>
-      <c r="E41" s="235"/>
-      <c r="F41" s="234" t="s">
+      <c r="G41" s="246"/>
+      <c r="H41" s="66" t="s">
         <v>101</v>
-      </c>
-      <c r="G41" s="245"/>
-      <c r="H41" s="66" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="111"/>
       <c r="B42" s="108"/>
-      <c r="C42" s="265" t="s">
+      <c r="C42" s="267" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="268"/>
+      <c r="E42" s="269"/>
+      <c r="F42" s="267" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="266"/>
-      <c r="E42" s="267"/>
-      <c r="F42" s="265" t="s">
-        <v>107</v>
-      </c>
-      <c r="G42" s="267"/>
+      <c r="G42" s="269"/>
       <c r="H42" s="112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="109"/>
       <c r="B43" s="110"/>
-      <c r="C43" s="255" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="268"/>
-      <c r="E43" s="269"/>
-      <c r="F43" s="270" t="s">
-        <v>110</v>
-      </c>
-      <c r="G43" s="269"/>
+      <c r="C43" s="230" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="260"/>
+      <c r="E43" s="261"/>
+      <c r="F43" s="259" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="261"/>
       <c r="H43" s="160" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="109"/>
       <c r="B44" s="110"/>
-      <c r="C44" s="255" t="s">
+      <c r="C44" s="230" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="260"/>
+      <c r="E44" s="261"/>
+      <c r="F44" s="259" t="s">
+        <v>106</v>
+      </c>
+      <c r="G44" s="261"/>
+      <c r="H44" s="160" t="s">
         <v>122</v>
-      </c>
-      <c r="D44" s="268"/>
-      <c r="E44" s="269"/>
-      <c r="F44" s="270" t="s">
-        <v>107</v>
-      </c>
-      <c r="G44" s="269"/>
-      <c r="H44" s="160" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="109"/>
       <c r="B45" s="110"/>
-      <c r="C45" s="270"/>
-      <c r="D45" s="268"/>
-      <c r="E45" s="269"/>
-      <c r="F45" s="270"/>
-      <c r="G45" s="269"/>
+      <c r="C45" s="259"/>
+      <c r="D45" s="260"/>
+      <c r="E45" s="261"/>
+      <c r="F45" s="259"/>
+      <c r="G45" s="261"/>
       <c r="H45" s="113"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="114"/>
       <c r="B46" s="115"/>
-      <c r="C46" s="271"/>
-      <c r="D46" s="272"/>
-      <c r="E46" s="273"/>
-      <c r="F46" s="274"/>
-      <c r="G46" s="275"/>
+      <c r="C46" s="262"/>
+      <c r="D46" s="263"/>
+      <c r="E46" s="264"/>
+      <c r="F46" s="265"/>
+      <c r="G46" s="266"/>
       <c r="H46" s="116"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -6763,7 +6767,7 @@
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
       <c r="A48" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48" s="34"/>
       <c r="C48" s="60"/>
@@ -6775,110 +6779,100 @@
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="234" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="244"/>
-      <c r="E49" s="235"/>
-      <c r="F49" s="221" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="235"/>
+      <c r="E49" s="236"/>
+      <c r="F49" s="237" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49" s="238"/>
+      <c r="H49" s="37" t="s">
         <v>104</v>
-      </c>
-      <c r="G49" s="248"/>
-      <c r="H49" s="37" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="76"/>
       <c r="B50" s="77"/>
-      <c r="C50" s="252" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" s="253"/>
-      <c r="E50" s="254"/>
-      <c r="F50" s="252" t="s">
-        <v>107</v>
-      </c>
-      <c r="G50" s="254"/>
+      <c r="C50" s="227" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="228"/>
+      <c r="E50" s="229"/>
+      <c r="F50" s="227" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" s="229"/>
       <c r="H50" s="78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="103"/>
       <c r="B51" s="104"/>
-      <c r="C51" s="249"/>
-      <c r="D51" s="250"/>
-      <c r="E51" s="251"/>
-      <c r="F51" s="249"/>
-      <c r="G51" s="251"/>
+      <c r="C51" s="219"/>
+      <c r="D51" s="220"/>
+      <c r="E51" s="221"/>
+      <c r="F51" s="219"/>
+      <c r="G51" s="221"/>
       <c r="H51" s="105"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="103"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="249"/>
-      <c r="D52" s="250"/>
-      <c r="E52" s="251"/>
-      <c r="F52" s="249"/>
-      <c r="G52" s="251"/>
+      <c r="C52" s="219"/>
+      <c r="D52" s="220"/>
+      <c r="E52" s="221"/>
+      <c r="F52" s="219"/>
+      <c r="G52" s="221"/>
       <c r="H52" s="105"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="103"/>
       <c r="B53" s="104"/>
-      <c r="C53" s="249"/>
-      <c r="D53" s="250"/>
-      <c r="E53" s="251"/>
-      <c r="F53" s="249"/>
-      <c r="G53" s="251"/>
+      <c r="C53" s="219"/>
+      <c r="D53" s="220"/>
+      <c r="E53" s="221"/>
+      <c r="F53" s="219"/>
+      <c r="G53" s="221"/>
       <c r="H53" s="105"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="73"/>
       <c r="B54" s="74"/>
-      <c r="C54" s="232"/>
-      <c r="D54" s="243"/>
-      <c r="E54" s="233"/>
-      <c r="F54" s="246"/>
-      <c r="G54" s="247"/>
+      <c r="C54" s="222"/>
+      <c r="D54" s="223"/>
+      <c r="E54" s="224"/>
+      <c r="F54" s="225"/>
+      <c r="G54" s="226"/>
       <c r="H54" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -6892,24 +6886,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6924,23 +6928,23 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="30.75" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="30.69921875" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.899999999999999">
+    <row r="1" spans="1:8" ht="19.8">
       <c r="A1" s="26" t="s">
         <v>53</v>
       </c>
@@ -6987,13 +6991,13 @@
         <v>31</v>
       </c>
       <c r="F3" s="121" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="120">
-        <v>45041</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1">
@@ -7011,7 +7015,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="119" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
@@ -7026,49 +7030,49 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="33"/>
-      <c r="C6" s="218" t="s">
+      <c r="C6" s="253" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="220"/>
+      <c r="D6" s="254"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
+      <c r="G6" s="254"/>
+      <c r="H6" s="255"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="33"/>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="253" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="255"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="33"/>
-      <c r="C8" s="218" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="220"/>
+      <c r="C8" s="253" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="254"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
+      <c r="G8" s="254"/>
+      <c r="H8" s="255"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -7080,26 +7084,26 @@
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="C10" s="286" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="278" t="s">
+      <c r="D10" s="287"/>
+      <c r="E10" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="279"/>
-      <c r="E10" s="36" t="s">
+      <c r="F10" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="G10" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="H10" s="37" t="s">
         <v>67</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -7107,21 +7111,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="134" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="285" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="286"/>
+        <v>122</v>
+      </c>
+      <c r="C11" s="281" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="282"/>
       <c r="E11" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="133" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -7129,21 +7133,21 @@
         <v>2</v>
       </c>
       <c r="B12" s="135" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="288" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="280" t="s">
+      <c r="D12" s="289"/>
+      <c r="E12" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="281"/>
-      <c r="E12" s="40" t="s">
-        <v>114</v>
-      </c>
       <c r="F12" s="129" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="40"/>
       <c r="H12" s="52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -7151,21 +7155,21 @@
         <v>3</v>
       </c>
       <c r="B13" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="284" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="276" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="277"/>
+      <c r="D13" s="285"/>
       <c r="E13" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="133" t="s">
         <v>71</v>
-      </c>
-      <c r="F13" s="133" t="s">
-        <v>72</v>
       </c>
       <c r="G13" s="46"/>
       <c r="H13" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
@@ -7173,17 +7177,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="130" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="279" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="283" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="284"/>
+      <c r="D14" s="280"/>
       <c r="E14" s="131" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F14" s="130" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="46"/>
       <c r="H14" s="47"/>
@@ -7193,17 +7197,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="247" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="225" t="s">
+      <c r="D15" s="248"/>
+      <c r="E15" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="226"/>
-      <c r="E15" s="50" t="s">
-        <v>131</v>
-      </c>
       <c r="F15" s="132" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="51"/>
       <c r="H15" s="52"/>
@@ -7211,8 +7215,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="225"/>
-      <c r="D16" s="226"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="248"/>
       <c r="E16" s="50"/>
       <c r="F16" s="50"/>
       <c r="G16" s="51"/>
@@ -7221,8 +7225,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="225"/>
-      <c r="D17" s="226"/>
+      <c r="C17" s="247"/>
+      <c r="D17" s="248"/>
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
       <c r="G17" s="51"/>
@@ -7231,8 +7235,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="225"/>
-      <c r="D18" s="226"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="248"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
       <c r="G18" s="51"/>
@@ -7241,8 +7245,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="226"/>
+      <c r="C19" s="247"/>
+      <c r="D19" s="248"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
@@ -7251,8 +7255,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="225"/>
-      <c r="D20" s="226"/>
+      <c r="C20" s="247"/>
+      <c r="D20" s="248"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
@@ -7261,8 +7265,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="225"/>
-      <c r="D21" s="226"/>
+      <c r="C21" s="247"/>
+      <c r="D21" s="248"/>
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
       <c r="G21" s="51"/>
@@ -7271,8 +7275,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="226"/>
+      <c r="C22" s="247"/>
+      <c r="D22" s="248"/>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
       <c r="G22" s="51"/>
@@ -7281,8 +7285,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="226"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="248"/>
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="51"/>
@@ -7291,8 +7295,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="225"/>
-      <c r="D24" s="226"/>
+      <c r="C24" s="247"/>
+      <c r="D24" s="248"/>
       <c r="E24" s="50"/>
       <c r="F24" s="50"/>
       <c r="G24" s="51"/>
@@ -7301,8 +7305,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="225"/>
-      <c r="D25" s="226"/>
+      <c r="C25" s="247"/>
+      <c r="D25" s="248"/>
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
       <c r="G25" s="51"/>
@@ -7311,8 +7315,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="225"/>
-      <c r="D26" s="226"/>
+      <c r="C26" s="247"/>
+      <c r="D26" s="248"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="51"/>
@@ -7321,8 +7325,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="49"/>
-      <c r="C27" s="225"/>
-      <c r="D27" s="226"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="248"/>
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="51"/>
@@ -7331,8 +7335,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="225"/>
-      <c r="D28" s="226"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="248"/>
       <c r="E28" s="50"/>
       <c r="F28" s="50"/>
       <c r="G28" s="51"/>
@@ -7341,8 +7345,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="53"/>
       <c r="B29" s="54"/>
-      <c r="C29" s="232"/>
-      <c r="D29" s="233"/>
+      <c r="C29" s="222"/>
+      <c r="D29" s="224"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
       <c r="G29" s="56"/>
@@ -7360,7 +7364,7 @@
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A31" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" s="34"/>
       <c r="C31" s="60"/>
@@ -7372,71 +7376,71 @@
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="234" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="236"/>
+      <c r="D32" s="62" t="s">
         <v>96</v>
-      </c>
-      <c r="C32" s="235"/>
-      <c r="D32" s="62" t="s">
-        <v>97</v>
       </c>
       <c r="E32" s="64"/>
       <c r="F32" s="63"/>
       <c r="G32" s="65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H32" s="66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="38"/>
-      <c r="B33" s="236"/>
-      <c r="C33" s="237"/>
-      <c r="D33" s="238"/>
-      <c r="E33" s="239"/>
-      <c r="F33" s="240"/>
+      <c r="B33" s="249"/>
+      <c r="C33" s="250"/>
+      <c r="D33" s="239"/>
+      <c r="E33" s="240"/>
+      <c r="F33" s="241"/>
       <c r="G33" s="41"/>
       <c r="H33" s="42"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="43"/>
-      <c r="B34" s="227"/>
-      <c r="C34" s="228"/>
-      <c r="D34" s="229"/>
-      <c r="E34" s="230"/>
-      <c r="F34" s="231"/>
+      <c r="B34" s="242"/>
+      <c r="C34" s="243"/>
+      <c r="D34" s="231"/>
+      <c r="E34" s="232"/>
+      <c r="F34" s="233"/>
       <c r="G34" s="46"/>
       <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="43"/>
-      <c r="B35" s="227"/>
-      <c r="C35" s="228"/>
-      <c r="D35" s="229"/>
-      <c r="E35" s="230"/>
-      <c r="F35" s="231"/>
+      <c r="B35" s="242"/>
+      <c r="C35" s="243"/>
+      <c r="D35" s="231"/>
+      <c r="E35" s="232"/>
+      <c r="F35" s="233"/>
       <c r="G35" s="46"/>
       <c r="H35" s="47"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="43"/>
-      <c r="B36" s="227"/>
-      <c r="C36" s="228"/>
-      <c r="D36" s="229"/>
-      <c r="E36" s="230"/>
-      <c r="F36" s="231"/>
+      <c r="B36" s="242"/>
+      <c r="C36" s="243"/>
+      <c r="D36" s="231"/>
+      <c r="E36" s="232"/>
+      <c r="F36" s="233"/>
       <c r="G36" s="46"/>
       <c r="H36" s="47"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="53"/>
-      <c r="B37" s="241"/>
-      <c r="C37" s="242"/>
-      <c r="D37" s="232"/>
-      <c r="E37" s="243"/>
-      <c r="F37" s="233"/>
+      <c r="B37" s="244"/>
+      <c r="C37" s="245"/>
+      <c r="D37" s="222"/>
+      <c r="E37" s="223"/>
+      <c r="F37" s="224"/>
       <c r="G37" s="56"/>
       <c r="H37" s="57"/>
     </row>
@@ -7452,7 +7456,7 @@
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A39" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" s="34"/>
       <c r="C39" s="60"/>
@@ -7464,90 +7468,90 @@
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="234" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="235"/>
+      <c r="E40" s="236"/>
+      <c r="F40" s="234" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="234" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="244"/>
-      <c r="E40" s="235"/>
-      <c r="F40" s="234" t="s">
+      <c r="G40" s="246"/>
+      <c r="H40" s="66" t="s">
         <v>101</v>
-      </c>
-      <c r="G40" s="245"/>
-      <c r="H40" s="66" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="76"/>
       <c r="B41" s="77"/>
-      <c r="C41" s="252" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="253"/>
-      <c r="E41" s="254"/>
-      <c r="F41" s="252" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41" s="254"/>
+      <c r="C41" s="227" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="228"/>
+      <c r="E41" s="229"/>
+      <c r="F41" s="227" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="229"/>
       <c r="H41" s="78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="103"/>
       <c r="B42" s="104"/>
-      <c r="C42" s="249" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="250"/>
-      <c r="E42" s="251"/>
-      <c r="F42" s="255" t="s">
-        <v>108</v>
-      </c>
-      <c r="G42" s="251"/>
+      <c r="C42" s="219" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="220"/>
+      <c r="E42" s="221"/>
+      <c r="F42" s="230" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="221"/>
       <c r="H42" s="160" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="103"/>
       <c r="B43" s="104"/>
-      <c r="C43" s="255" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="250"/>
-      <c r="E43" s="251"/>
-      <c r="F43" s="282" t="s">
-        <v>110</v>
-      </c>
-      <c r="G43" s="269"/>
+      <c r="C43" s="230" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="220"/>
+      <c r="E43" s="221"/>
+      <c r="F43" s="283" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="261"/>
       <c r="H43" s="163" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="103"/>
       <c r="B44" s="104"/>
-      <c r="C44" s="249"/>
-      <c r="D44" s="250"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="249"/>
-      <c r="G44" s="251"/>
+      <c r="C44" s="219"/>
+      <c r="D44" s="220"/>
+      <c r="E44" s="221"/>
+      <c r="F44" s="219"/>
+      <c r="G44" s="221"/>
       <c r="H44" s="164"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A45" s="73"/>
       <c r="B45" s="74"/>
-      <c r="C45" s="232"/>
-      <c r="D45" s="243"/>
-      <c r="E45" s="233"/>
-      <c r="F45" s="246"/>
-      <c r="G45" s="247"/>
+      <c r="C45" s="222"/>
+      <c r="D45" s="223"/>
+      <c r="E45" s="224"/>
+      <c r="F45" s="225"/>
+      <c r="G45" s="226"/>
       <c r="H45" s="75"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
@@ -7562,7 +7566,7 @@
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B47" s="34"/>
       <c r="C47" s="60"/>
@@ -7574,82 +7578,124 @@
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="234" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="244"/>
-      <c r="E48" s="235"/>
-      <c r="F48" s="221" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="235"/>
+      <c r="E48" s="236"/>
+      <c r="F48" s="237" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" s="238"/>
+      <c r="H48" s="37" t="s">
         <v>104</v>
-      </c>
-      <c r="G48" s="248"/>
-      <c r="H48" s="37" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="76"/>
       <c r="B49" s="77"/>
-      <c r="C49" s="252" t="s">
+      <c r="C49" s="227" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="228"/>
+      <c r="E49" s="229"/>
+      <c r="F49" s="227" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="229"/>
+      <c r="H49" s="78" t="s">
         <v>122</v>
-      </c>
-      <c r="D49" s="253"/>
-      <c r="E49" s="254"/>
-      <c r="F49" s="252" t="s">
-        <v>108</v>
-      </c>
-      <c r="G49" s="254"/>
-      <c r="H49" s="78" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="70"/>
       <c r="B50" s="71"/>
-      <c r="C50" s="229"/>
-      <c r="D50" s="230"/>
-      <c r="E50" s="231"/>
-      <c r="F50" s="229"/>
-      <c r="G50" s="231"/>
+      <c r="C50" s="231"/>
+      <c r="D50" s="232"/>
+      <c r="E50" s="233"/>
+      <c r="F50" s="231"/>
+      <c r="G50" s="233"/>
       <c r="H50" s="72"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="70"/>
       <c r="B51" s="71"/>
-      <c r="C51" s="229"/>
-      <c r="D51" s="230"/>
-      <c r="E51" s="231"/>
-      <c r="F51" s="229"/>
-      <c r="G51" s="231"/>
+      <c r="C51" s="231"/>
+      <c r="D51" s="232"/>
+      <c r="E51" s="233"/>
+      <c r="F51" s="231"/>
+      <c r="G51" s="233"/>
       <c r="H51" s="72"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="70"/>
       <c r="B52" s="71"/>
-      <c r="C52" s="229"/>
-      <c r="D52" s="230"/>
-      <c r="E52" s="231"/>
-      <c r="F52" s="229"/>
-      <c r="G52" s="231"/>
+      <c r="C52" s="231"/>
+      <c r="D52" s="232"/>
+      <c r="E52" s="233"/>
+      <c r="F52" s="231"/>
+      <c r="G52" s="233"/>
       <c r="H52" s="72"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A53" s="73"/>
       <c r="B53" s="74"/>
-      <c r="C53" s="232"/>
-      <c r="D53" s="243"/>
-      <c r="E53" s="233"/>
-      <c r="F53" s="246"/>
-      <c r="G53" s="247"/>
+      <c r="C53" s="222"/>
+      <c r="D53" s="223"/>
+      <c r="E53" s="224"/>
+      <c r="F53" s="225"/>
+      <c r="G53" s="226"/>
       <c r="H53" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C11:D11"/>
@@ -7666,48 +7712,6 @@
     <mergeCell ref="C42:E42"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7720,29 +7724,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="5.625" customWidth="1"/>
-    <col min="3" max="5" width="9.125" customWidth="1"/>
-    <col min="6" max="6" width="6.75" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="13.19921875" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" customWidth="1"/>
+    <col min="3" max="5" width="9.09765625" customWidth="1"/>
+    <col min="6" max="6" width="6.69921875" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" customWidth="1"/>
+    <col min="8" max="8" width="11.8984375" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" customWidth="1"/>
+    <col min="10" max="10" width="9.09765625" customWidth="1"/>
+    <col min="11" max="11" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -7773,16 +7777,16 @@
         <v>22</v>
       </c>
       <c r="I2" s="139" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="290">
+      <c r="L2" s="296">
         <v>45040</v>
       </c>
-      <c r="M2" s="291"/>
+      <c r="M2" s="297"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="84" t="s">
@@ -7800,16 +7804,16 @@
         <v>31</v>
       </c>
       <c r="I3" s="139" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="290">
-        <v>45043</v>
-      </c>
-      <c r="M3" s="291"/>
+      <c r="L3" s="296">
+        <v>45072</v>
+      </c>
+      <c r="M3" s="297"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="82" t="s">
@@ -7829,10 +7833,10 @@
       <c r="K4" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="292" t="s">
+      <c r="L4" s="298" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="291"/>
+      <c r="M4" s="297"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="9"/>
@@ -7850,10 +7854,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="85" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B6" s="130" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -7869,10 +7873,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="137" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -7893,14 +7897,14 @@
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
       <c r="A9" s="88"/>
       <c r="F9" s="89"/>
-      <c r="G9" s="293" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="294"/>
-      <c r="I9" s="294"/>
-      <c r="J9" s="294"/>
-      <c r="K9" s="294"/>
-      <c r="L9" s="295"/>
+      <c r="G9" s="299" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="300"/>
+      <c r="I9" s="300"/>
+      <c r="J9" s="300"/>
+      <c r="K9" s="300"/>
+      <c r="L9" s="301"/>
       <c r="M9" s="89"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
@@ -7920,7 +7924,7 @@
         <v>49</v>
       </c>
       <c r="J10" s="93" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K10" s="93"/>
       <c r="L10" s="93"/>
@@ -7928,26 +7932,26 @@
     </row>
     <row r="11" spans="1:13" ht="21.75" customHeight="1">
       <c r="A11" s="88"/>
-      <c r="B11" s="296" t="s">
+      <c r="B11" s="293" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="290" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="291"/>
+      <c r="E11" s="291"/>
+      <c r="F11" s="292"/>
+      <c r="G11" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="287" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="288"/>
-      <c r="E11" s="288"/>
-      <c r="F11" s="289"/>
-      <c r="G11" s="90" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="93" t="s">
-        <v>143</v>
-      </c>
       <c r="I11" s="93" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J11" s="93" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K11" s="93"/>
       <c r="L11" s="93"/>
@@ -7955,24 +7959,24 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="88"/>
-      <c r="B12" s="297"/>
-      <c r="C12" s="287" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="288"/>
-      <c r="E12" s="288"/>
-      <c r="F12" s="289"/>
+      <c r="B12" s="294"/>
+      <c r="C12" s="290" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="291"/>
+      <c r="E12" s="291"/>
+      <c r="F12" s="292"/>
       <c r="G12" s="93" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H12" s="93" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I12" s="93" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J12" s="117" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K12" s="117"/>
       <c r="L12" s="93"/>
@@ -7980,24 +7984,24 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="88"/>
-      <c r="B13" s="297"/>
-      <c r="C13" s="287" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="288"/>
-      <c r="E13" s="288"/>
-      <c r="F13" s="289"/>
+      <c r="B13" s="294"/>
+      <c r="C13" s="290" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="291"/>
+      <c r="E13" s="291"/>
+      <c r="F13" s="292"/>
       <c r="G13" s="93" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H13" s="93" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I13" s="93" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J13" s="93" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K13" s="93"/>
       <c r="L13" s="93"/>
@@ -8005,24 +8009,24 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="88"/>
-      <c r="B14" s="297"/>
-      <c r="C14" s="287" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="288"/>
-      <c r="E14" s="288"/>
-      <c r="F14" s="289"/>
+      <c r="B14" s="294"/>
+      <c r="C14" s="290" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="291"/>
+      <c r="E14" s="291"/>
+      <c r="F14" s="292"/>
       <c r="G14" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="93" t="s">
+      <c r="J14" s="93" t="s">
         <v>145</v>
-      </c>
-      <c r="I14" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="J14" s="93" t="s">
-        <v>148</v>
       </c>
       <c r="K14" s="93"/>
       <c r="L14" s="93"/>
@@ -8030,24 +8034,24 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="88"/>
-      <c r="B15" s="297"/>
-      <c r="C15" s="287" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="288"/>
-      <c r="E15" s="288"/>
-      <c r="F15" s="289"/>
+      <c r="B15" s="294"/>
+      <c r="C15" s="290" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="291"/>
+      <c r="E15" s="291"/>
+      <c r="F15" s="292"/>
       <c r="G15" s="93" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H15" s="93" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I15" s="93" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J15" s="93" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K15" s="93"/>
       <c r="L15" s="93"/>
@@ -8055,24 +8059,24 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="88"/>
-      <c r="B16" s="297"/>
-      <c r="C16" s="287" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="288"/>
-      <c r="E16" s="288"/>
-      <c r="F16" s="289"/>
+      <c r="B16" s="294"/>
+      <c r="C16" s="290" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="291"/>
+      <c r="E16" s="291"/>
+      <c r="F16" s="292"/>
       <c r="G16" s="93" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H16" s="93" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I16" s="93" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J16" s="93" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K16" s="93"/>
       <c r="L16" s="93"/>
@@ -8080,24 +8084,24 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="88"/>
-      <c r="B17" s="297"/>
-      <c r="C17" s="287" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="288"/>
-      <c r="E17" s="288"/>
-      <c r="F17" s="289"/>
+      <c r="B17" s="294"/>
+      <c r="C17" s="290" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="291"/>
+      <c r="E17" s="291"/>
+      <c r="F17" s="292"/>
       <c r="G17" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" s="93" t="s">
         <v>145</v>
-      </c>
-      <c r="H17" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="I17" s="93" t="s">
-        <v>143</v>
-      </c>
-      <c r="J17" s="93" t="s">
-        <v>148</v>
       </c>
       <c r="K17" s="93"/>
       <c r="L17" s="93"/>
@@ -8105,11 +8109,11 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="88"/>
-      <c r="B18" s="297"/>
-      <c r="C18" s="287"/>
-      <c r="D18" s="288"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="289"/>
+      <c r="B18" s="294"/>
+      <c r="C18" s="290"/>
+      <c r="D18" s="291"/>
+      <c r="E18" s="291"/>
+      <c r="F18" s="292"/>
       <c r="G18" s="93"/>
       <c r="H18" s="93"/>
       <c r="I18" s="93"/>
@@ -8120,11 +8124,11 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="88"/>
-      <c r="B19" s="297"/>
-      <c r="C19" s="287"/>
-      <c r="D19" s="288"/>
-      <c r="E19" s="288"/>
-      <c r="F19" s="289"/>
+      <c r="B19" s="294"/>
+      <c r="C19" s="290"/>
+      <c r="D19" s="291"/>
+      <c r="E19" s="291"/>
+      <c r="F19" s="292"/>
       <c r="G19" s="93"/>
       <c r="H19" s="93"/>
       <c r="I19" s="93"/>
@@ -8135,11 +8139,11 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="88"/>
-      <c r="B20" s="297"/>
-      <c r="C20" s="287"/>
-      <c r="D20" s="288"/>
-      <c r="E20" s="288"/>
-      <c r="F20" s="289"/>
+      <c r="B20" s="294"/>
+      <c r="C20" s="290"/>
+      <c r="D20" s="291"/>
+      <c r="E20" s="291"/>
+      <c r="F20" s="292"/>
       <c r="G20" s="93"/>
       <c r="H20" s="93"/>
       <c r="I20" s="93"/>
@@ -8150,11 +8154,11 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="88"/>
-      <c r="B21" s="297"/>
-      <c r="C21" s="287"/>
-      <c r="D21" s="288"/>
-      <c r="E21" s="288"/>
-      <c r="F21" s="289"/>
+      <c r="B21" s="294"/>
+      <c r="C21" s="290"/>
+      <c r="D21" s="291"/>
+      <c r="E21" s="291"/>
+      <c r="F21" s="292"/>
       <c r="G21" s="93"/>
       <c r="H21" s="93"/>
       <c r="I21" s="93"/>
@@ -8165,11 +8169,11 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="88"/>
-      <c r="B22" s="297"/>
-      <c r="C22" s="287"/>
-      <c r="D22" s="288"/>
-      <c r="E22" s="288"/>
-      <c r="F22" s="289"/>
+      <c r="B22" s="294"/>
+      <c r="C22" s="290"/>
+      <c r="D22" s="291"/>
+      <c r="E22" s="291"/>
+      <c r="F22" s="292"/>
       <c r="G22" s="93"/>
       <c r="H22" s="93"/>
       <c r="I22" s="93"/>
@@ -8180,11 +8184,11 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="88"/>
-      <c r="B23" s="297"/>
-      <c r="C23" s="287"/>
-      <c r="D23" s="288"/>
-      <c r="E23" s="288"/>
-      <c r="F23" s="289"/>
+      <c r="B23" s="294"/>
+      <c r="C23" s="290"/>
+      <c r="D23" s="291"/>
+      <c r="E23" s="291"/>
+      <c r="F23" s="292"/>
       <c r="G23" s="93"/>
       <c r="H23" s="93"/>
       <c r="I23" s="93"/>
@@ -8195,11 +8199,11 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="88"/>
-      <c r="B24" s="297"/>
-      <c r="C24" s="287"/>
-      <c r="D24" s="288"/>
-      <c r="E24" s="288"/>
-      <c r="F24" s="289"/>
+      <c r="B24" s="294"/>
+      <c r="C24" s="290"/>
+      <c r="D24" s="291"/>
+      <c r="E24" s="291"/>
+      <c r="F24" s="292"/>
       <c r="G24" s="93"/>
       <c r="H24" s="93"/>
       <c r="I24" s="93"/>
@@ -8210,11 +8214,11 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="88"/>
-      <c r="B25" s="297"/>
-      <c r="C25" s="287"/>
-      <c r="D25" s="288"/>
-      <c r="E25" s="288"/>
-      <c r="F25" s="289"/>
+      <c r="B25" s="294"/>
+      <c r="C25" s="290"/>
+      <c r="D25" s="291"/>
+      <c r="E25" s="291"/>
+      <c r="F25" s="292"/>
       <c r="G25" s="93"/>
       <c r="H25" s="93"/>
       <c r="I25" s="93"/>
@@ -8225,11 +8229,11 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="88"/>
-      <c r="B26" s="297"/>
-      <c r="C26" s="287"/>
-      <c r="D26" s="288"/>
-      <c r="E26" s="288"/>
-      <c r="F26" s="289"/>
+      <c r="B26" s="294"/>
+      <c r="C26" s="290"/>
+      <c r="D26" s="291"/>
+      <c r="E26" s="291"/>
+      <c r="F26" s="292"/>
       <c r="G26" s="93"/>
       <c r="H26" s="93"/>
       <c r="I26" s="93"/>
@@ -8240,11 +8244,11 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="88"/>
-      <c r="B27" s="297"/>
-      <c r="C27" s="287"/>
-      <c r="D27" s="288"/>
-      <c r="E27" s="288"/>
-      <c r="F27" s="289"/>
+      <c r="B27" s="294"/>
+      <c r="C27" s="290"/>
+      <c r="D27" s="291"/>
+      <c r="E27" s="291"/>
+      <c r="F27" s="292"/>
       <c r="G27" s="93"/>
       <c r="H27" s="93"/>
       <c r="I27" s="93"/>
@@ -8255,11 +8259,11 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="88"/>
-      <c r="B28" s="297"/>
-      <c r="C28" s="287"/>
-      <c r="D28" s="288"/>
-      <c r="E28" s="288"/>
-      <c r="F28" s="289"/>
+      <c r="B28" s="294"/>
+      <c r="C28" s="290"/>
+      <c r="D28" s="291"/>
+      <c r="E28" s="291"/>
+      <c r="F28" s="292"/>
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
       <c r="I28" s="93"/>
@@ -8270,11 +8274,11 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="88"/>
-      <c r="B29" s="297"/>
-      <c r="C29" s="287"/>
-      <c r="D29" s="288"/>
-      <c r="E29" s="288"/>
-      <c r="F29" s="289"/>
+      <c r="B29" s="294"/>
+      <c r="C29" s="290"/>
+      <c r="D29" s="291"/>
+      <c r="E29" s="291"/>
+      <c r="F29" s="292"/>
       <c r="G29" s="93"/>
       <c r="H29" s="93"/>
       <c r="I29" s="93"/>
@@ -8285,11 +8289,11 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="88"/>
-      <c r="B30" s="297"/>
-      <c r="C30" s="287"/>
-      <c r="D30" s="288"/>
-      <c r="E30" s="288"/>
-      <c r="F30" s="289"/>
+      <c r="B30" s="294"/>
+      <c r="C30" s="290"/>
+      <c r="D30" s="291"/>
+      <c r="E30" s="291"/>
+      <c r="F30" s="292"/>
       <c r="G30" s="93"/>
       <c r="H30" s="93"/>
       <c r="I30" s="93"/>
@@ -8300,11 +8304,11 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="88"/>
-      <c r="B31" s="297"/>
-      <c r="C31" s="287"/>
-      <c r="D31" s="288"/>
-      <c r="E31" s="288"/>
-      <c r="F31" s="289"/>
+      <c r="B31" s="294"/>
+      <c r="C31" s="290"/>
+      <c r="D31" s="291"/>
+      <c r="E31" s="291"/>
+      <c r="F31" s="292"/>
       <c r="G31" s="93"/>
       <c r="H31" s="93"/>
       <c r="I31" s="93"/>
@@ -8315,11 +8319,11 @@
     </row>
     <row r="32" spans="1:13" ht="23.25" customHeight="1">
       <c r="A32" s="88"/>
-      <c r="B32" s="297"/>
-      <c r="C32" s="287"/>
-      <c r="D32" s="288"/>
-      <c r="E32" s="288"/>
-      <c r="F32" s="289"/>
+      <c r="B32" s="294"/>
+      <c r="C32" s="290"/>
+      <c r="D32" s="291"/>
+      <c r="E32" s="291"/>
+      <c r="F32" s="292"/>
       <c r="G32" s="93"/>
       <c r="H32" s="93"/>
       <c r="I32" s="93"/>
@@ -8330,11 +8334,11 @@
     </row>
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="297"/>
-      <c r="C33" s="287"/>
-      <c r="D33" s="288"/>
-      <c r="E33" s="288"/>
-      <c r="F33" s="289"/>
+      <c r="B33" s="294"/>
+      <c r="C33" s="290"/>
+      <c r="D33" s="291"/>
+      <c r="E33" s="291"/>
+      <c r="F33" s="292"/>
       <c r="G33" s="93"/>
       <c r="H33" s="93"/>
       <c r="I33" s="93"/>
@@ -8345,11 +8349,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="298"/>
-      <c r="C34" s="287"/>
-      <c r="D34" s="288"/>
-      <c r="E34" s="288"/>
-      <c r="F34" s="289"/>
+      <c r="B34" s="295"/>
+      <c r="C34" s="290"/>
+      <c r="D34" s="291"/>
+      <c r="E34" s="291"/>
+      <c r="F34" s="292"/>
       <c r="G34" s="93"/>
       <c r="H34" s="93"/>
       <c r="I34" s="93"/>
@@ -8358,7 +8362,7 @@
       <c r="L34" s="93"/>
       <c r="M34" s="89"/>
     </row>
-    <row r="35" spans="1:13" ht="18.75">
+    <row r="35" spans="1:13">
       <c r="A35" s="88"/>
       <c r="M35" s="89"/>
     </row>
@@ -8377,17 +8381,14 @@
       <c r="L36" s="95"/>
       <c r="M36" s="96"/>
     </row>
-    <row r="37" spans="1:13" ht="18.75"/>
-    <row r="38" spans="1:13" ht="18.75"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B11:B34"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
@@ -8404,12 +8405,13 @@
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8418,25 +8420,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006CA8BB7AF5A5B141B60E23C89B396D11" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="62746eb1d78ebc3451d4db4eb7c635bd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8a424a7-50d7-4cd5-819d-65031445e48f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38d8a6a4b62d5c94138e82bba83eb1ac" ns2:_="">
     <xsd:import namespace="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
@@ -8608,14 +8591,57 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DACE7C-D4CB-4A9F-B252-0392A2615F01}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDDB0ACD-FB8E-4AF9-85EA-3D8834B6FB26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64BD5AB1-8588-4240-B7B1-347039029B2F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64BD5AB1-8588-4240-B7B1-347039029B2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDDB0ACD-FB8E-4AF9-85EA-3D8834B6FB26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DACE7C-D4CB-4A9F-B252-0392A2615F01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/03_DB設計書/データモデル設計書2023_Aチーム.xlsx
+++ b/03_DB設計書/データモデル設計書2023_Aチーム.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asojukustudent.sharepoint.com/sites/ASE3E_abcc23-2/Shared Documents/チームＡ(諌山L)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\abcc_system_sd3e_grpA\abcc_system_sd3e_grpA\03_DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="392" documentId="13_ncr:1_{3CE16138-56C3-4672-8798-B9DEB42229F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64D8B3BC-2F19-4513-9536-85B691648F66}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E06C722-62C9-48AB-83E3-94B63D1D8863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{158BE383-CCB0-48EA-A963-29248D96480F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{158BE383-CCB0-48EA-A963-29248D96480F}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -23,9 +23,9 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'CRUD図 '!$A$1:$M$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'E-Rモデル　　エンティティ一覧'!$A$1:$F$74</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'エンティティ定義書 (スレッド情報)'!$A$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'エンティティ定義書 (スレッド情報)'!$A$1:$H$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'エンティティ定義書 (ユーザー情報)'!$A$1:$H$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'エンティティ定義書（コメント情報）'!$A$1:$H$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'エンティティ定義書（コメント情報）'!$A$1:$H$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="162">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -176,9 +176,6 @@
     <t>渡邊</t>
   </si>
   <si>
-    <t>エンティティ一覧、エンティティ定義書　作成</t>
-  </si>
-  <si>
     <t>ER図（仮）作成</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>情報共有掲示板　データベース設計書</t>
   </si>
   <si>
-    <t>v1.0</t>
-  </si>
-  <si>
     <t>E-R図ID</t>
     <rPh sb="3" eb="4">
       <t>ズ</t>
@@ -373,10 +367,6 @@
     <t>松崎</t>
   </si>
   <si>
-    <t>v1.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>論理エンティティ名</t>
     <rPh sb="0" eb="2">
       <t>ロンリ</t>
@@ -560,9 +550,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>投稿履歴(history)</t>
-  </si>
-  <si>
     <t>スレッド情報を格納する情報</t>
   </si>
   <si>
@@ -590,13 +577,7 @@
     <t>FK</t>
   </si>
   <si>
-    <t>threads_date</t>
-  </si>
-  <si>
     <t>DATE</t>
-  </si>
-  <si>
-    <t>コメントID(comments_id)</t>
   </si>
   <si>
     <t>コメントID</t>
@@ -705,14 +686,109 @@
   <si>
     <t>スレッド作成機能</t>
   </si>
+  <si>
+    <t>諌山</t>
+    <rPh sb="0" eb="2">
+      <t>イサヤマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>桑野</t>
+    <rPh sb="0" eb="2">
+      <t>クワノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>渡邊</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>松崎</t>
+    <rPh sb="0" eb="2">
+      <t>マツザキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>thread_date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スレッド作成日</t>
+    <rPh sb="4" eb="7">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>v2.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.1.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.2.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.2.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エンティティ一覧、エンティティ定義書　CRUD図作成</t>
+    <rPh sb="23" eb="24">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2.0.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ER図、エンティティ一覧、エンティティ定義書、CRUD図修正</t>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1944,7 +2020,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2388,19 +2464,97 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2418,135 +2572,159 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="71" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2562,9 +2740,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2574,97 +2749,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2673,58 +2788,37 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2745,21 +2839,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2768,6 +2847,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2787,23 +2875,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="183" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="22" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="22" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2832,22 +2911,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>586154</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>71146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1917212</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>34338</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DDE687A-E648-C524-71C2-C67B32C0E92E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A10D2BA-FA0E-13D0-5D4E-0049AB766A13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2856,15 +2935,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857250" y="6343650"/>
-          <a:ext cx="7419975" cy="4181475"/>
+          <a:off x="928077" y="6396723"/>
+          <a:ext cx="4591539" cy="4457038"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2877,7 +2962,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3178,204 +3263,204 @@
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="3.75" style="140" customWidth="1"/>
     <col min="5" max="6" width="3.75" style="141" customWidth="1"/>
     <col min="7" max="32" width="3.75" style="140" customWidth="1"/>
-    <col min="33" max="36" width="3.625" style="140" customWidth="1"/>
-    <col min="37" max="256" width="8.125" style="140"/>
+    <col min="33" max="36" width="3.58203125" style="140" customWidth="1"/>
+    <col min="37" max="256" width="8.08203125" style="140"/>
     <col min="257" max="288" width="3.75" style="140" customWidth="1"/>
-    <col min="289" max="292" width="3.625" style="140" customWidth="1"/>
-    <col min="293" max="512" width="8.125" style="140"/>
+    <col min="289" max="292" width="3.58203125" style="140" customWidth="1"/>
+    <col min="293" max="512" width="8.08203125" style="140"/>
     <col min="513" max="544" width="3.75" style="140" customWidth="1"/>
-    <col min="545" max="548" width="3.625" style="140" customWidth="1"/>
-    <col min="549" max="768" width="8.125" style="140"/>
+    <col min="545" max="548" width="3.58203125" style="140" customWidth="1"/>
+    <col min="549" max="768" width="8.08203125" style="140"/>
     <col min="769" max="800" width="3.75" style="140" customWidth="1"/>
-    <col min="801" max="804" width="3.625" style="140" customWidth="1"/>
-    <col min="805" max="1024" width="8.125" style="140"/>
+    <col min="801" max="804" width="3.58203125" style="140" customWidth="1"/>
+    <col min="805" max="1024" width="8.08203125" style="140"/>
     <col min="1025" max="1056" width="3.75" style="140" customWidth="1"/>
-    <col min="1057" max="1060" width="3.625" style="140" customWidth="1"/>
-    <col min="1061" max="1280" width="8.125" style="140"/>
+    <col min="1057" max="1060" width="3.58203125" style="140" customWidth="1"/>
+    <col min="1061" max="1280" width="8.08203125" style="140"/>
     <col min="1281" max="1312" width="3.75" style="140" customWidth="1"/>
-    <col min="1313" max="1316" width="3.625" style="140" customWidth="1"/>
-    <col min="1317" max="1536" width="8.125" style="140"/>
+    <col min="1313" max="1316" width="3.58203125" style="140" customWidth="1"/>
+    <col min="1317" max="1536" width="8.08203125" style="140"/>
     <col min="1537" max="1568" width="3.75" style="140" customWidth="1"/>
-    <col min="1569" max="1572" width="3.625" style="140" customWidth="1"/>
-    <col min="1573" max="1792" width="8.125" style="140"/>
+    <col min="1569" max="1572" width="3.58203125" style="140" customWidth="1"/>
+    <col min="1573" max="1792" width="8.08203125" style="140"/>
     <col min="1793" max="1824" width="3.75" style="140" customWidth="1"/>
-    <col min="1825" max="1828" width="3.625" style="140" customWidth="1"/>
-    <col min="1829" max="2048" width="8.125" style="140"/>
+    <col min="1825" max="1828" width="3.58203125" style="140" customWidth="1"/>
+    <col min="1829" max="2048" width="8.08203125" style="140"/>
     <col min="2049" max="2080" width="3.75" style="140" customWidth="1"/>
-    <col min="2081" max="2084" width="3.625" style="140" customWidth="1"/>
-    <col min="2085" max="2304" width="8.125" style="140"/>
+    <col min="2081" max="2084" width="3.58203125" style="140" customWidth="1"/>
+    <col min="2085" max="2304" width="8.08203125" style="140"/>
     <col min="2305" max="2336" width="3.75" style="140" customWidth="1"/>
-    <col min="2337" max="2340" width="3.625" style="140" customWidth="1"/>
-    <col min="2341" max="2560" width="8.125" style="140"/>
+    <col min="2337" max="2340" width="3.58203125" style="140" customWidth="1"/>
+    <col min="2341" max="2560" width="8.08203125" style="140"/>
     <col min="2561" max="2592" width="3.75" style="140" customWidth="1"/>
-    <col min="2593" max="2596" width="3.625" style="140" customWidth="1"/>
-    <col min="2597" max="2816" width="8.125" style="140"/>
+    <col min="2593" max="2596" width="3.58203125" style="140" customWidth="1"/>
+    <col min="2597" max="2816" width="8.08203125" style="140"/>
     <col min="2817" max="2848" width="3.75" style="140" customWidth="1"/>
-    <col min="2849" max="2852" width="3.625" style="140" customWidth="1"/>
-    <col min="2853" max="3072" width="8.125" style="140"/>
+    <col min="2849" max="2852" width="3.58203125" style="140" customWidth="1"/>
+    <col min="2853" max="3072" width="8.08203125" style="140"/>
     <col min="3073" max="3104" width="3.75" style="140" customWidth="1"/>
-    <col min="3105" max="3108" width="3.625" style="140" customWidth="1"/>
-    <col min="3109" max="3328" width="8.125" style="140"/>
+    <col min="3105" max="3108" width="3.58203125" style="140" customWidth="1"/>
+    <col min="3109" max="3328" width="8.08203125" style="140"/>
     <col min="3329" max="3360" width="3.75" style="140" customWidth="1"/>
-    <col min="3361" max="3364" width="3.625" style="140" customWidth="1"/>
-    <col min="3365" max="3584" width="8.125" style="140"/>
+    <col min="3361" max="3364" width="3.58203125" style="140" customWidth="1"/>
+    <col min="3365" max="3584" width="8.08203125" style="140"/>
     <col min="3585" max="3616" width="3.75" style="140" customWidth="1"/>
-    <col min="3617" max="3620" width="3.625" style="140" customWidth="1"/>
-    <col min="3621" max="3840" width="8.125" style="140"/>
+    <col min="3617" max="3620" width="3.58203125" style="140" customWidth="1"/>
+    <col min="3621" max="3840" width="8.08203125" style="140"/>
     <col min="3841" max="3872" width="3.75" style="140" customWidth="1"/>
-    <col min="3873" max="3876" width="3.625" style="140" customWidth="1"/>
-    <col min="3877" max="4096" width="8.125" style="140"/>
+    <col min="3873" max="3876" width="3.58203125" style="140" customWidth="1"/>
+    <col min="3877" max="4096" width="8.08203125" style="140"/>
     <col min="4097" max="4128" width="3.75" style="140" customWidth="1"/>
-    <col min="4129" max="4132" width="3.625" style="140" customWidth="1"/>
-    <col min="4133" max="4352" width="8.125" style="140"/>
+    <col min="4129" max="4132" width="3.58203125" style="140" customWidth="1"/>
+    <col min="4133" max="4352" width="8.08203125" style="140"/>
     <col min="4353" max="4384" width="3.75" style="140" customWidth="1"/>
-    <col min="4385" max="4388" width="3.625" style="140" customWidth="1"/>
-    <col min="4389" max="4608" width="8.125" style="140"/>
+    <col min="4385" max="4388" width="3.58203125" style="140" customWidth="1"/>
+    <col min="4389" max="4608" width="8.08203125" style="140"/>
     <col min="4609" max="4640" width="3.75" style="140" customWidth="1"/>
-    <col min="4641" max="4644" width="3.625" style="140" customWidth="1"/>
-    <col min="4645" max="4864" width="8.125" style="140"/>
+    <col min="4641" max="4644" width="3.58203125" style="140" customWidth="1"/>
+    <col min="4645" max="4864" width="8.08203125" style="140"/>
     <col min="4865" max="4896" width="3.75" style="140" customWidth="1"/>
-    <col min="4897" max="4900" width="3.625" style="140" customWidth="1"/>
-    <col min="4901" max="5120" width="8.125" style="140"/>
+    <col min="4897" max="4900" width="3.58203125" style="140" customWidth="1"/>
+    <col min="4901" max="5120" width="8.08203125" style="140"/>
     <col min="5121" max="5152" width="3.75" style="140" customWidth="1"/>
-    <col min="5153" max="5156" width="3.625" style="140" customWidth="1"/>
-    <col min="5157" max="5376" width="8.125" style="140"/>
+    <col min="5153" max="5156" width="3.58203125" style="140" customWidth="1"/>
+    <col min="5157" max="5376" width="8.08203125" style="140"/>
     <col min="5377" max="5408" width="3.75" style="140" customWidth="1"/>
-    <col min="5409" max="5412" width="3.625" style="140" customWidth="1"/>
-    <col min="5413" max="5632" width="8.125" style="140"/>
+    <col min="5409" max="5412" width="3.58203125" style="140" customWidth="1"/>
+    <col min="5413" max="5632" width="8.08203125" style="140"/>
     <col min="5633" max="5664" width="3.75" style="140" customWidth="1"/>
-    <col min="5665" max="5668" width="3.625" style="140" customWidth="1"/>
-    <col min="5669" max="5888" width="8.125" style="140"/>
+    <col min="5665" max="5668" width="3.58203125" style="140" customWidth="1"/>
+    <col min="5669" max="5888" width="8.08203125" style="140"/>
     <col min="5889" max="5920" width="3.75" style="140" customWidth="1"/>
-    <col min="5921" max="5924" width="3.625" style="140" customWidth="1"/>
-    <col min="5925" max="6144" width="8.125" style="140"/>
+    <col min="5921" max="5924" width="3.58203125" style="140" customWidth="1"/>
+    <col min="5925" max="6144" width="8.08203125" style="140"/>
     <col min="6145" max="6176" width="3.75" style="140" customWidth="1"/>
-    <col min="6177" max="6180" width="3.625" style="140" customWidth="1"/>
-    <col min="6181" max="6400" width="8.125" style="140"/>
+    <col min="6177" max="6180" width="3.58203125" style="140" customWidth="1"/>
+    <col min="6181" max="6400" width="8.08203125" style="140"/>
     <col min="6401" max="6432" width="3.75" style="140" customWidth="1"/>
-    <col min="6433" max="6436" width="3.625" style="140" customWidth="1"/>
-    <col min="6437" max="6656" width="8.125" style="140"/>
+    <col min="6433" max="6436" width="3.58203125" style="140" customWidth="1"/>
+    <col min="6437" max="6656" width="8.08203125" style="140"/>
     <col min="6657" max="6688" width="3.75" style="140" customWidth="1"/>
-    <col min="6689" max="6692" width="3.625" style="140" customWidth="1"/>
-    <col min="6693" max="6912" width="8.125" style="140"/>
+    <col min="6689" max="6692" width="3.58203125" style="140" customWidth="1"/>
+    <col min="6693" max="6912" width="8.08203125" style="140"/>
     <col min="6913" max="6944" width="3.75" style="140" customWidth="1"/>
-    <col min="6945" max="6948" width="3.625" style="140" customWidth="1"/>
-    <col min="6949" max="7168" width="8.125" style="140"/>
+    <col min="6945" max="6948" width="3.58203125" style="140" customWidth="1"/>
+    <col min="6949" max="7168" width="8.08203125" style="140"/>
     <col min="7169" max="7200" width="3.75" style="140" customWidth="1"/>
-    <col min="7201" max="7204" width="3.625" style="140" customWidth="1"/>
-    <col min="7205" max="7424" width="8.125" style="140"/>
+    <col min="7201" max="7204" width="3.58203125" style="140" customWidth="1"/>
+    <col min="7205" max="7424" width="8.08203125" style="140"/>
     <col min="7425" max="7456" width="3.75" style="140" customWidth="1"/>
-    <col min="7457" max="7460" width="3.625" style="140" customWidth="1"/>
-    <col min="7461" max="7680" width="8.125" style="140"/>
+    <col min="7457" max="7460" width="3.58203125" style="140" customWidth="1"/>
+    <col min="7461" max="7680" width="8.08203125" style="140"/>
     <col min="7681" max="7712" width="3.75" style="140" customWidth="1"/>
-    <col min="7713" max="7716" width="3.625" style="140" customWidth="1"/>
-    <col min="7717" max="7936" width="8.125" style="140"/>
+    <col min="7713" max="7716" width="3.58203125" style="140" customWidth="1"/>
+    <col min="7717" max="7936" width="8.08203125" style="140"/>
     <col min="7937" max="7968" width="3.75" style="140" customWidth="1"/>
-    <col min="7969" max="7972" width="3.625" style="140" customWidth="1"/>
-    <col min="7973" max="8192" width="8.125" style="140"/>
+    <col min="7969" max="7972" width="3.58203125" style="140" customWidth="1"/>
+    <col min="7973" max="8192" width="8.08203125" style="140"/>
     <col min="8193" max="8224" width="3.75" style="140" customWidth="1"/>
-    <col min="8225" max="8228" width="3.625" style="140" customWidth="1"/>
-    <col min="8229" max="8448" width="8.125" style="140"/>
+    <col min="8225" max="8228" width="3.58203125" style="140" customWidth="1"/>
+    <col min="8229" max="8448" width="8.08203125" style="140"/>
     <col min="8449" max="8480" width="3.75" style="140" customWidth="1"/>
-    <col min="8481" max="8484" width="3.625" style="140" customWidth="1"/>
-    <col min="8485" max="8704" width="8.125" style="140"/>
+    <col min="8481" max="8484" width="3.58203125" style="140" customWidth="1"/>
+    <col min="8485" max="8704" width="8.08203125" style="140"/>
     <col min="8705" max="8736" width="3.75" style="140" customWidth="1"/>
-    <col min="8737" max="8740" width="3.625" style="140" customWidth="1"/>
-    <col min="8741" max="8960" width="8.125" style="140"/>
+    <col min="8737" max="8740" width="3.58203125" style="140" customWidth="1"/>
+    <col min="8741" max="8960" width="8.08203125" style="140"/>
     <col min="8961" max="8992" width="3.75" style="140" customWidth="1"/>
-    <col min="8993" max="8996" width="3.625" style="140" customWidth="1"/>
-    <col min="8997" max="9216" width="8.125" style="140"/>
+    <col min="8993" max="8996" width="3.58203125" style="140" customWidth="1"/>
+    <col min="8997" max="9216" width="8.08203125" style="140"/>
     <col min="9217" max="9248" width="3.75" style="140" customWidth="1"/>
-    <col min="9249" max="9252" width="3.625" style="140" customWidth="1"/>
-    <col min="9253" max="9472" width="8.125" style="140"/>
+    <col min="9249" max="9252" width="3.58203125" style="140" customWidth="1"/>
+    <col min="9253" max="9472" width="8.08203125" style="140"/>
     <col min="9473" max="9504" width="3.75" style="140" customWidth="1"/>
-    <col min="9505" max="9508" width="3.625" style="140" customWidth="1"/>
-    <col min="9509" max="9728" width="8.125" style="140"/>
+    <col min="9505" max="9508" width="3.58203125" style="140" customWidth="1"/>
+    <col min="9509" max="9728" width="8.08203125" style="140"/>
     <col min="9729" max="9760" width="3.75" style="140" customWidth="1"/>
-    <col min="9761" max="9764" width="3.625" style="140" customWidth="1"/>
-    <col min="9765" max="9984" width="8.125" style="140"/>
+    <col min="9761" max="9764" width="3.58203125" style="140" customWidth="1"/>
+    <col min="9765" max="9984" width="8.08203125" style="140"/>
     <col min="9985" max="10016" width="3.75" style="140" customWidth="1"/>
-    <col min="10017" max="10020" width="3.625" style="140" customWidth="1"/>
-    <col min="10021" max="10240" width="8.125" style="140"/>
+    <col min="10017" max="10020" width="3.58203125" style="140" customWidth="1"/>
+    <col min="10021" max="10240" width="8.08203125" style="140"/>
     <col min="10241" max="10272" width="3.75" style="140" customWidth="1"/>
-    <col min="10273" max="10276" width="3.625" style="140" customWidth="1"/>
-    <col min="10277" max="10496" width="8.125" style="140"/>
+    <col min="10273" max="10276" width="3.58203125" style="140" customWidth="1"/>
+    <col min="10277" max="10496" width="8.08203125" style="140"/>
     <col min="10497" max="10528" width="3.75" style="140" customWidth="1"/>
-    <col min="10529" max="10532" width="3.625" style="140" customWidth="1"/>
-    <col min="10533" max="10752" width="8.125" style="140"/>
+    <col min="10529" max="10532" width="3.58203125" style="140" customWidth="1"/>
+    <col min="10533" max="10752" width="8.08203125" style="140"/>
     <col min="10753" max="10784" width="3.75" style="140" customWidth="1"/>
-    <col min="10785" max="10788" width="3.625" style="140" customWidth="1"/>
-    <col min="10789" max="11008" width="8.125" style="140"/>
+    <col min="10785" max="10788" width="3.58203125" style="140" customWidth="1"/>
+    <col min="10789" max="11008" width="8.08203125" style="140"/>
     <col min="11009" max="11040" width="3.75" style="140" customWidth="1"/>
-    <col min="11041" max="11044" width="3.625" style="140" customWidth="1"/>
-    <col min="11045" max="11264" width="8.125" style="140"/>
+    <col min="11041" max="11044" width="3.58203125" style="140" customWidth="1"/>
+    <col min="11045" max="11264" width="8.08203125" style="140"/>
     <col min="11265" max="11296" width="3.75" style="140" customWidth="1"/>
-    <col min="11297" max="11300" width="3.625" style="140" customWidth="1"/>
-    <col min="11301" max="11520" width="8.125" style="140"/>
+    <col min="11297" max="11300" width="3.58203125" style="140" customWidth="1"/>
+    <col min="11301" max="11520" width="8.08203125" style="140"/>
     <col min="11521" max="11552" width="3.75" style="140" customWidth="1"/>
-    <col min="11553" max="11556" width="3.625" style="140" customWidth="1"/>
-    <col min="11557" max="11776" width="8.125" style="140"/>
+    <col min="11553" max="11556" width="3.58203125" style="140" customWidth="1"/>
+    <col min="11557" max="11776" width="8.08203125" style="140"/>
     <col min="11777" max="11808" width="3.75" style="140" customWidth="1"/>
-    <col min="11809" max="11812" width="3.625" style="140" customWidth="1"/>
-    <col min="11813" max="12032" width="8.125" style="140"/>
+    <col min="11809" max="11812" width="3.58203125" style="140" customWidth="1"/>
+    <col min="11813" max="12032" width="8.08203125" style="140"/>
     <col min="12033" max="12064" width="3.75" style="140" customWidth="1"/>
-    <col min="12065" max="12068" width="3.625" style="140" customWidth="1"/>
-    <col min="12069" max="12288" width="8.125" style="140"/>
+    <col min="12065" max="12068" width="3.58203125" style="140" customWidth="1"/>
+    <col min="12069" max="12288" width="8.08203125" style="140"/>
     <col min="12289" max="12320" width="3.75" style="140" customWidth="1"/>
-    <col min="12321" max="12324" width="3.625" style="140" customWidth="1"/>
-    <col min="12325" max="12544" width="8.125" style="140"/>
+    <col min="12321" max="12324" width="3.58203125" style="140" customWidth="1"/>
+    <col min="12325" max="12544" width="8.08203125" style="140"/>
     <col min="12545" max="12576" width="3.75" style="140" customWidth="1"/>
-    <col min="12577" max="12580" width="3.625" style="140" customWidth="1"/>
-    <col min="12581" max="12800" width="8.125" style="140"/>
+    <col min="12577" max="12580" width="3.58203125" style="140" customWidth="1"/>
+    <col min="12581" max="12800" width="8.08203125" style="140"/>
     <col min="12801" max="12832" width="3.75" style="140" customWidth="1"/>
-    <col min="12833" max="12836" width="3.625" style="140" customWidth="1"/>
-    <col min="12837" max="13056" width="8.125" style="140"/>
+    <col min="12833" max="12836" width="3.58203125" style="140" customWidth="1"/>
+    <col min="12837" max="13056" width="8.08203125" style="140"/>
     <col min="13057" max="13088" width="3.75" style="140" customWidth="1"/>
-    <col min="13089" max="13092" width="3.625" style="140" customWidth="1"/>
-    <col min="13093" max="13312" width="8.125" style="140"/>
+    <col min="13089" max="13092" width="3.58203125" style="140" customWidth="1"/>
+    <col min="13093" max="13312" width="8.08203125" style="140"/>
     <col min="13313" max="13344" width="3.75" style="140" customWidth="1"/>
-    <col min="13345" max="13348" width="3.625" style="140" customWidth="1"/>
-    <col min="13349" max="13568" width="8.125" style="140"/>
+    <col min="13345" max="13348" width="3.58203125" style="140" customWidth="1"/>
+    <col min="13349" max="13568" width="8.08203125" style="140"/>
     <col min="13569" max="13600" width="3.75" style="140" customWidth="1"/>
-    <col min="13601" max="13604" width="3.625" style="140" customWidth="1"/>
-    <col min="13605" max="13824" width="8.125" style="140"/>
+    <col min="13601" max="13604" width="3.58203125" style="140" customWidth="1"/>
+    <col min="13605" max="13824" width="8.08203125" style="140"/>
     <col min="13825" max="13856" width="3.75" style="140" customWidth="1"/>
-    <col min="13857" max="13860" width="3.625" style="140" customWidth="1"/>
-    <col min="13861" max="14080" width="8.125" style="140"/>
+    <col min="13857" max="13860" width="3.58203125" style="140" customWidth="1"/>
+    <col min="13861" max="14080" width="8.08203125" style="140"/>
     <col min="14081" max="14112" width="3.75" style="140" customWidth="1"/>
-    <col min="14113" max="14116" width="3.625" style="140" customWidth="1"/>
-    <col min="14117" max="14336" width="8.125" style="140"/>
+    <col min="14113" max="14116" width="3.58203125" style="140" customWidth="1"/>
+    <col min="14117" max="14336" width="8.08203125" style="140"/>
     <col min="14337" max="14368" width="3.75" style="140" customWidth="1"/>
-    <col min="14369" max="14372" width="3.625" style="140" customWidth="1"/>
-    <col min="14373" max="14592" width="8.125" style="140"/>
+    <col min="14369" max="14372" width="3.58203125" style="140" customWidth="1"/>
+    <col min="14373" max="14592" width="8.08203125" style="140"/>
     <col min="14593" max="14624" width="3.75" style="140" customWidth="1"/>
-    <col min="14625" max="14628" width="3.625" style="140" customWidth="1"/>
-    <col min="14629" max="14848" width="8.125" style="140"/>
+    <col min="14625" max="14628" width="3.58203125" style="140" customWidth="1"/>
+    <col min="14629" max="14848" width="8.08203125" style="140"/>
     <col min="14849" max="14880" width="3.75" style="140" customWidth="1"/>
-    <col min="14881" max="14884" width="3.625" style="140" customWidth="1"/>
-    <col min="14885" max="15104" width="8.125" style="140"/>
+    <col min="14881" max="14884" width="3.58203125" style="140" customWidth="1"/>
+    <col min="14885" max="15104" width="8.08203125" style="140"/>
     <col min="15105" max="15136" width="3.75" style="140" customWidth="1"/>
-    <col min="15137" max="15140" width="3.625" style="140" customWidth="1"/>
-    <col min="15141" max="15360" width="8.125" style="140"/>
+    <col min="15137" max="15140" width="3.58203125" style="140" customWidth="1"/>
+    <col min="15141" max="15360" width="8.08203125" style="140"/>
     <col min="15361" max="15392" width="3.75" style="140" customWidth="1"/>
-    <col min="15393" max="15396" width="3.625" style="140" customWidth="1"/>
-    <col min="15397" max="15616" width="8.125" style="140"/>
+    <col min="15393" max="15396" width="3.58203125" style="140" customWidth="1"/>
+    <col min="15397" max="15616" width="8.08203125" style="140"/>
     <col min="15617" max="15648" width="3.75" style="140" customWidth="1"/>
-    <col min="15649" max="15652" width="3.625" style="140" customWidth="1"/>
-    <col min="15653" max="15872" width="8.125" style="140"/>
+    <col min="15649" max="15652" width="3.58203125" style="140" customWidth="1"/>
+    <col min="15653" max="15872" width="8.08203125" style="140"/>
     <col min="15873" max="15904" width="3.75" style="140" customWidth="1"/>
-    <col min="15905" max="15908" width="3.625" style="140" customWidth="1"/>
-    <col min="15909" max="16128" width="8.125" style="140"/>
+    <col min="15905" max="15908" width="3.58203125" style="140" customWidth="1"/>
+    <col min="15909" max="16128" width="8.08203125" style="140"/>
     <col min="16129" max="16160" width="3.75" style="140" customWidth="1"/>
-    <col min="16161" max="16164" width="3.625" style="140" customWidth="1"/>
-    <col min="16165" max="16384" width="8.125" style="140"/>
+    <col min="16161" max="16164" width="3.58203125" style="140" customWidth="1"/>
+    <col min="16165" max="16384" width="8.08203125" style="140"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:176" ht="15.75" customHeight="1">
@@ -3610,21 +3695,21 @@
       <c r="R3" s="142"/>
       <c r="S3" s="142"/>
       <c r="T3" s="142"/>
-      <c r="U3" s="165" t="s">
+      <c r="U3" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="167"/>
-      <c r="W3" s="187">
+      <c r="V3" s="165"/>
+      <c r="W3" s="166">
         <v>45040</v>
       </c>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="166"/>
-      <c r="AB3" s="166"/>
-      <c r="AC3" s="166"/>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="167"/>
+      <c r="X3" s="167"/>
+      <c r="Y3" s="167"/>
+      <c r="Z3" s="167"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="167"/>
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="165"/>
       <c r="AF3" s="142"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -3736,20 +3821,20 @@
       <c r="C7" s="149"/>
       <c r="D7" s="149"/>
       <c r="E7" s="148"/>
-      <c r="F7" s="188" t="s">
+      <c r="F7" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="189"/>
-      <c r="L7" s="189"/>
-      <c r="M7" s="189"/>
-      <c r="N7" s="189"/>
-      <c r="O7" s="189"/>
-      <c r="P7" s="189"/>
-      <c r="Q7" s="190"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="170"/>
       <c r="R7" s="142"/>
       <c r="S7" s="142"/>
       <c r="T7" s="142"/>
@@ -3767,78 +3852,84 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="142"/>
-      <c r="B8" s="191" t="s">
+      <c r="B8" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="197" t="s">
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="198"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="198"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="198"/>
-      <c r="N8" s="198"/>
-      <c r="O8" s="198"/>
-      <c r="P8" s="198"/>
-      <c r="Q8" s="199"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="178"/>
+      <c r="M8" s="178"/>
+      <c r="N8" s="178"/>
+      <c r="O8" s="178"/>
+      <c r="P8" s="178"/>
+      <c r="Q8" s="179"/>
       <c r="R8" s="142"/>
       <c r="S8" s="142"/>
       <c r="T8" s="142"/>
       <c r="U8" s="142"/>
       <c r="V8" s="142"/>
-      <c r="W8" s="203" t="s">
+      <c r="W8" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="203"/>
-      <c r="Y8" s="203"/>
-      <c r="Z8" s="203" t="s">
+      <c r="X8" s="183"/>
+      <c r="Y8" s="183"/>
+      <c r="Z8" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="203"/>
-      <c r="AB8" s="203"/>
-      <c r="AC8" s="203" t="s">
+      <c r="AA8" s="183"/>
+      <c r="AB8" s="183"/>
+      <c r="AC8" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="203"/>
-      <c r="AE8" s="203"/>
+      <c r="AD8" s="183"/>
+      <c r="AE8" s="183"/>
       <c r="AF8" s="142"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="142"/>
-      <c r="B9" s="194"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="201"/>
-      <c r="H9" s="201"/>
-      <c r="I9" s="201"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
-      <c r="L9" s="201"/>
-      <c r="M9" s="201"/>
-      <c r="N9" s="201"/>
-      <c r="O9" s="201"/>
-      <c r="P9" s="201"/>
-      <c r="Q9" s="202"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="182"/>
       <c r="R9" s="142"/>
       <c r="S9" s="142"/>
       <c r="T9" s="142"/>
       <c r="U9" s="142"/>
       <c r="V9" s="142"/>
-      <c r="W9" s="184"/>
+      <c r="W9" s="184" t="s">
+        <v>146</v>
+      </c>
       <c r="X9" s="185"/>
       <c r="Y9" s="186"/>
-      <c r="Z9" s="184"/>
+      <c r="Z9" s="184" t="s">
+        <v>147</v>
+      </c>
       <c r="AA9" s="185"/>
       <c r="AB9" s="186"/>
-      <c r="AC9" s="184"/>
+      <c r="AC9" s="184" t="s">
+        <v>148</v>
+      </c>
       <c r="AD9" s="185"/>
       <c r="AE9" s="186"/>
       <c r="AF9" s="142"/>
@@ -3866,15 +3957,15 @@
       <c r="T10" s="142"/>
       <c r="U10" s="142"/>
       <c r="V10" s="142"/>
-      <c r="W10" s="204"/>
-      <c r="X10" s="205"/>
-      <c r="Y10" s="206"/>
-      <c r="Z10" s="204"/>
-      <c r="AA10" s="205"/>
-      <c r="AB10" s="206"/>
-      <c r="AC10" s="204"/>
-      <c r="AD10" s="205"/>
-      <c r="AE10" s="206"/>
+      <c r="W10" s="187"/>
+      <c r="X10" s="188"/>
+      <c r="Y10" s="189"/>
+      <c r="Z10" s="187"/>
+      <c r="AA10" s="188"/>
+      <c r="AB10" s="189"/>
+      <c r="AC10" s="187"/>
+      <c r="AD10" s="188"/>
+      <c r="AE10" s="189"/>
       <c r="AF10" s="142"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -3900,15 +3991,15 @@
       <c r="T11" s="142"/>
       <c r="U11" s="142"/>
       <c r="V11" s="142"/>
-      <c r="W11" s="204"/>
-      <c r="X11" s="205"/>
-      <c r="Y11" s="206"/>
-      <c r="Z11" s="204"/>
-      <c r="AA11" s="205"/>
-      <c r="AB11" s="206"/>
-      <c r="AC11" s="204"/>
-      <c r="AD11" s="205"/>
-      <c r="AE11" s="206"/>
+      <c r="W11" s="187"/>
+      <c r="X11" s="188"/>
+      <c r="Y11" s="189"/>
+      <c r="Z11" s="187"/>
+      <c r="AA11" s="188"/>
+      <c r="AB11" s="189"/>
+      <c r="AC11" s="187"/>
+      <c r="AD11" s="188"/>
+      <c r="AE11" s="189"/>
       <c r="AF11" s="142"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -3934,15 +4025,15 @@
       <c r="T12" s="146"/>
       <c r="U12" s="146"/>
       <c r="V12" s="146"/>
-      <c r="W12" s="207"/>
-      <c r="X12" s="208"/>
-      <c r="Y12" s="209"/>
-      <c r="Z12" s="207"/>
-      <c r="AA12" s="208"/>
-      <c r="AB12" s="209"/>
-      <c r="AC12" s="207"/>
-      <c r="AD12" s="208"/>
-      <c r="AE12" s="209"/>
+      <c r="W12" s="190"/>
+      <c r="X12" s="191"/>
+      <c r="Y12" s="192"/>
+      <c r="Z12" s="190"/>
+      <c r="AA12" s="191"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="190"/>
+      <c r="AD12" s="191"/>
+      <c r="AE12" s="192"/>
       <c r="AF12" s="142"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -4037,106 +4128,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="142"/>
-      <c r="B16" s="183" t="s">
+      <c r="B16" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="183"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="183"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="183"/>
-      <c r="P16" s="183"/>
-      <c r="Q16" s="183"/>
-      <c r="R16" s="183"/>
-      <c r="S16" s="183"/>
-      <c r="T16" s="183"/>
-      <c r="U16" s="183"/>
-      <c r="V16" s="183"/>
-      <c r="W16" s="183"/>
-      <c r="X16" s="183"/>
-      <c r="Y16" s="183"/>
-      <c r="Z16" s="183"/>
-      <c r="AA16" s="183"/>
-      <c r="AB16" s="183"/>
-      <c r="AC16" s="183"/>
-      <c r="AD16" s="183"/>
-      <c r="AE16" s="183"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="193"/>
+      <c r="L16" s="193"/>
+      <c r="M16" s="193"/>
+      <c r="N16" s="193"/>
+      <c r="O16" s="193"/>
+      <c r="P16" s="193"/>
+      <c r="Q16" s="193"/>
+      <c r="R16" s="193"/>
+      <c r="S16" s="193"/>
+      <c r="T16" s="193"/>
+      <c r="U16" s="193"/>
+      <c r="V16" s="193"/>
+      <c r="W16" s="193"/>
+      <c r="X16" s="193"/>
+      <c r="Y16" s="193"/>
+      <c r="Z16" s="193"/>
+      <c r="AA16" s="193"/>
+      <c r="AB16" s="193"/>
+      <c r="AC16" s="193"/>
+      <c r="AD16" s="193"/>
+      <c r="AE16" s="193"/>
       <c r="AF16" s="142"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="142"/>
-      <c r="B17" s="183"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="183"/>
-      <c r="M17" s="183"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="183"/>
-      <c r="P17" s="183"/>
-      <c r="Q17" s="183"/>
-      <c r="R17" s="183"/>
-      <c r="S17" s="183"/>
-      <c r="T17" s="183"/>
-      <c r="U17" s="183"/>
-      <c r="V17" s="183"/>
-      <c r="W17" s="183"/>
-      <c r="X17" s="183"/>
-      <c r="Y17" s="183"/>
-      <c r="Z17" s="183"/>
-      <c r="AA17" s="183"/>
-      <c r="AB17" s="183"/>
-      <c r="AC17" s="183"/>
-      <c r="AD17" s="183"/>
-      <c r="AE17" s="183"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="193"/>
+      <c r="M17" s="193"/>
+      <c r="N17" s="193"/>
+      <c r="O17" s="193"/>
+      <c r="P17" s="193"/>
+      <c r="Q17" s="193"/>
+      <c r="R17" s="193"/>
+      <c r="S17" s="193"/>
+      <c r="T17" s="193"/>
+      <c r="U17" s="193"/>
+      <c r="V17" s="193"/>
+      <c r="W17" s="193"/>
+      <c r="X17" s="193"/>
+      <c r="Y17" s="193"/>
+      <c r="Z17" s="193"/>
+      <c r="AA17" s="193"/>
+      <c r="AB17" s="193"/>
+      <c r="AC17" s="193"/>
+      <c r="AD17" s="193"/>
+      <c r="AE17" s="193"/>
       <c r="AF17" s="142"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="142"/>
-      <c r="B18" s="183"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="183"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="183"/>
-      <c r="O18" s="183"/>
-      <c r="P18" s="183"/>
-      <c r="Q18" s="183"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="183"/>
-      <c r="T18" s="183"/>
-      <c r="U18" s="183"/>
-      <c r="V18" s="183"/>
-      <c r="W18" s="183"/>
-      <c r="X18" s="183"/>
-      <c r="Y18" s="183"/>
-      <c r="Z18" s="183"/>
-      <c r="AA18" s="183"/>
-      <c r="AB18" s="183"/>
-      <c r="AC18" s="183"/>
-      <c r="AD18" s="183"/>
-      <c r="AE18" s="183"/>
+      <c r="B18" s="193"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="193"/>
+      <c r="L18" s="193"/>
+      <c r="M18" s="193"/>
+      <c r="N18" s="193"/>
+      <c r="O18" s="193"/>
+      <c r="P18" s="193"/>
+      <c r="Q18" s="193"/>
+      <c r="R18" s="193"/>
+      <c r="S18" s="193"/>
+      <c r="T18" s="193"/>
+      <c r="U18" s="193"/>
+      <c r="V18" s="193"/>
+      <c r="W18" s="193"/>
+      <c r="X18" s="193"/>
+      <c r="Y18" s="193"/>
+      <c r="Z18" s="193"/>
+      <c r="AA18" s="193"/>
+      <c r="AB18" s="193"/>
+      <c r="AC18" s="193"/>
+      <c r="AD18" s="193"/>
+      <c r="AE18" s="193"/>
       <c r="AF18" s="142"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -4275,39 +4366,39 @@
     </row>
     <row r="23" spans="1:32" s="143" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="144"/>
-      <c r="B23" s="165" t="s">
+      <c r="B23" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="165" t="s">
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="166"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="165" t="s">
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="166"/>
-      <c r="L23" s="166"/>
-      <c r="M23" s="166"/>
-      <c r="N23" s="166"/>
-      <c r="O23" s="166"/>
-      <c r="P23" s="166"/>
-      <c r="Q23" s="166"/>
-      <c r="R23" s="166"/>
-      <c r="S23" s="166"/>
-      <c r="T23" s="166"/>
-      <c r="U23" s="166"/>
-      <c r="V23" s="166"/>
-      <c r="W23" s="166"/>
-      <c r="X23" s="166"/>
-      <c r="Y23" s="166"/>
-      <c r="Z23" s="166"/>
-      <c r="AA23" s="166"/>
-      <c r="AB23" s="167"/>
+      <c r="K23" s="167"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="167"/>
+      <c r="P23" s="167"/>
+      <c r="Q23" s="167"/>
+      <c r="R23" s="167"/>
+      <c r="S23" s="167"/>
+      <c r="T23" s="167"/>
+      <c r="U23" s="167"/>
+      <c r="V23" s="167"/>
+      <c r="W23" s="167"/>
+      <c r="X23" s="167"/>
+      <c r="Y23" s="167"/>
+      <c r="Z23" s="167"/>
+      <c r="AA23" s="167"/>
+      <c r="AB23" s="165"/>
       <c r="AC23" s="184" t="s">
         <v>9</v>
       </c>
@@ -4317,374 +4408,382 @@
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="142"/>
-      <c r="B24" s="165">
-        <v>1</v>
-      </c>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="168">
+      <c r="B24" s="300" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="301"/>
+      <c r="D24" s="301"/>
+      <c r="E24" s="302"/>
+      <c r="F24" s="194">
         <v>45040</v>
       </c>
-      <c r="G24" s="169"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="171" t="s">
+      <c r="G24" s="195"/>
+      <c r="H24" s="195"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="172"/>
-      <c r="L24" s="172"/>
-      <c r="M24" s="172"/>
-      <c r="N24" s="172"/>
-      <c r="O24" s="172"/>
-      <c r="P24" s="172"/>
-      <c r="Q24" s="172"/>
-      <c r="R24" s="172"/>
-      <c r="S24" s="172"/>
-      <c r="T24" s="172"/>
-      <c r="U24" s="172"/>
-      <c r="V24" s="172"/>
-      <c r="W24" s="172"/>
-      <c r="X24" s="172"/>
-      <c r="Y24" s="172"/>
-      <c r="Z24" s="172"/>
-      <c r="AA24" s="172"/>
-      <c r="AB24" s="172"/>
-      <c r="AC24" s="179" t="s">
+      <c r="K24" s="198"/>
+      <c r="L24" s="198"/>
+      <c r="M24" s="198"/>
+      <c r="N24" s="198"/>
+      <c r="O24" s="198"/>
+      <c r="P24" s="198"/>
+      <c r="Q24" s="198"/>
+      <c r="R24" s="198"/>
+      <c r="S24" s="198"/>
+      <c r="T24" s="198"/>
+      <c r="U24" s="198"/>
+      <c r="V24" s="198"/>
+      <c r="W24" s="198"/>
+      <c r="X24" s="198"/>
+      <c r="Y24" s="198"/>
+      <c r="Z24" s="198"/>
+      <c r="AA24" s="198"/>
+      <c r="AB24" s="198"/>
+      <c r="AC24" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="AD24" s="179"/>
-      <c r="AE24" s="179"/>
+      <c r="AD24" s="199"/>
+      <c r="AE24" s="199"/>
       <c r="AF24" s="142"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="142"/>
-      <c r="B25" s="165">
-        <v>2</v>
-      </c>
-      <c r="C25" s="166"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="175">
+      <c r="B25" s="164" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="167"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="200">
         <v>45041</v>
       </c>
-      <c r="G25" s="176"/>
-      <c r="H25" s="176"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="171" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="172"/>
-      <c r="L25" s="172"/>
-      <c r="M25" s="172"/>
-      <c r="N25" s="172"/>
-      <c r="O25" s="172"/>
-      <c r="P25" s="172"/>
-      <c r="Q25" s="172"/>
-      <c r="R25" s="172"/>
-      <c r="S25" s="172"/>
-      <c r="T25" s="172"/>
-      <c r="U25" s="172"/>
-      <c r="V25" s="172"/>
-      <c r="W25" s="172"/>
-      <c r="X25" s="172"/>
-      <c r="Y25" s="172"/>
-      <c r="Z25" s="172"/>
-      <c r="AA25" s="172"/>
-      <c r="AB25" s="172"/>
-      <c r="AC25" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD25" s="173"/>
-      <c r="AE25" s="173"/>
+      <c r="G25" s="201"/>
+      <c r="H25" s="201"/>
+      <c r="I25" s="202"/>
+      <c r="J25" s="197" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="198"/>
+      <c r="L25" s="198"/>
+      <c r="M25" s="198"/>
+      <c r="N25" s="198"/>
+      <c r="O25" s="198"/>
+      <c r="P25" s="198"/>
+      <c r="Q25" s="198"/>
+      <c r="R25" s="198"/>
+      <c r="S25" s="198"/>
+      <c r="T25" s="198"/>
+      <c r="U25" s="198"/>
+      <c r="V25" s="198"/>
+      <c r="W25" s="198"/>
+      <c r="X25" s="198"/>
+      <c r="Y25" s="198"/>
+      <c r="Z25" s="198"/>
+      <c r="AA25" s="198"/>
+      <c r="AB25" s="198"/>
+      <c r="AC25" s="203" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD25" s="203"/>
+      <c r="AE25" s="203"/>
       <c r="AF25" s="142"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="142"/>
-      <c r="B26" s="165">
-        <v>3</v>
-      </c>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="175">
+      <c r="B26" s="164" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="167"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="200">
         <v>45042</v>
       </c>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="177"/>
-      <c r="L26" s="177"/>
-      <c r="M26" s="177"/>
-      <c r="N26" s="177"/>
-      <c r="O26" s="177"/>
-      <c r="P26" s="177"/>
-      <c r="Q26" s="177"/>
-      <c r="R26" s="177"/>
-      <c r="S26" s="177"/>
-      <c r="T26" s="177"/>
-      <c r="U26" s="177"/>
-      <c r="V26" s="177"/>
-      <c r="W26" s="177"/>
-      <c r="X26" s="177"/>
-      <c r="Y26" s="177"/>
-      <c r="Z26" s="177"/>
-      <c r="AA26" s="177"/>
-      <c r="AB26" s="177"/>
-      <c r="AC26" s="178" t="s">
+      <c r="G26" s="201"/>
+      <c r="H26" s="201"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="204" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="204"/>
+      <c r="L26" s="204"/>
+      <c r="M26" s="204"/>
+      <c r="N26" s="204"/>
+      <c r="O26" s="204"/>
+      <c r="P26" s="204"/>
+      <c r="Q26" s="204"/>
+      <c r="R26" s="204"/>
+      <c r="S26" s="204"/>
+      <c r="T26" s="204"/>
+      <c r="U26" s="204"/>
+      <c r="V26" s="204"/>
+      <c r="W26" s="204"/>
+      <c r="X26" s="204"/>
+      <c r="Y26" s="204"/>
+      <c r="Z26" s="204"/>
+      <c r="AA26" s="204"/>
+      <c r="AB26" s="204"/>
+      <c r="AC26" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="AD26" s="179"/>
-      <c r="AE26" s="179"/>
+      <c r="AD26" s="199"/>
+      <c r="AE26" s="199"/>
       <c r="AF26" s="142"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="142"/>
-      <c r="B27" s="165">
-        <v>4</v>
-      </c>
-      <c r="C27" s="166"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="175">
+      <c r="B27" s="164" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="200">
         <v>45043</v>
       </c>
-      <c r="G27" s="176"/>
-      <c r="H27" s="176"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="181" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="182"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="182"/>
-      <c r="O27" s="182"/>
-      <c r="P27" s="182"/>
-      <c r="Q27" s="182"/>
-      <c r="R27" s="182"/>
-      <c r="S27" s="182"/>
-      <c r="T27" s="182"/>
-      <c r="U27" s="182"/>
-      <c r="V27" s="182"/>
-      <c r="W27" s="182"/>
-      <c r="X27" s="182"/>
-      <c r="Y27" s="182"/>
-      <c r="Z27" s="182"/>
-      <c r="AA27" s="182"/>
-      <c r="AB27" s="182"/>
-      <c r="AC27" s="179" t="s">
+      <c r="G27" s="201"/>
+      <c r="H27" s="201"/>
+      <c r="I27" s="202"/>
+      <c r="J27" s="206" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="207"/>
+      <c r="L27" s="207"/>
+      <c r="M27" s="207"/>
+      <c r="N27" s="207"/>
+      <c r="O27" s="207"/>
+      <c r="P27" s="207"/>
+      <c r="Q27" s="207"/>
+      <c r="R27" s="207"/>
+      <c r="S27" s="207"/>
+      <c r="T27" s="207"/>
+      <c r="U27" s="207"/>
+      <c r="V27" s="207"/>
+      <c r="W27" s="207"/>
+      <c r="X27" s="207"/>
+      <c r="Y27" s="207"/>
+      <c r="Z27" s="207"/>
+      <c r="AA27" s="207"/>
+      <c r="AB27" s="207"/>
+      <c r="AC27" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="AD27" s="179"/>
-      <c r="AE27" s="179"/>
+      <c r="AD27" s="199"/>
+      <c r="AE27" s="199"/>
       <c r="AF27" s="142"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="142"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="171"/>
-      <c r="K28" s="172"/>
-      <c r="L28" s="172"/>
-      <c r="M28" s="172"/>
-      <c r="N28" s="172"/>
-      <c r="O28" s="172"/>
-      <c r="P28" s="172"/>
-      <c r="Q28" s="172"/>
-      <c r="R28" s="172"/>
-      <c r="S28" s="172"/>
-      <c r="T28" s="172"/>
-      <c r="U28" s="172"/>
-      <c r="V28" s="172"/>
-      <c r="W28" s="172"/>
-      <c r="X28" s="172"/>
-      <c r="Y28" s="172"/>
-      <c r="Z28" s="172"/>
-      <c r="AA28" s="172"/>
-      <c r="AB28" s="172"/>
-      <c r="AC28" s="173"/>
-      <c r="AD28" s="173"/>
-      <c r="AE28" s="173"/>
+      <c r="B28" s="164" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="194">
+        <v>45077</v>
+      </c>
+      <c r="G28" s="195"/>
+      <c r="H28" s="195"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="197" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="198"/>
+      <c r="N28" s="198"/>
+      <c r="O28" s="198"/>
+      <c r="P28" s="198"/>
+      <c r="Q28" s="198"/>
+      <c r="R28" s="198"/>
+      <c r="S28" s="198"/>
+      <c r="T28" s="198"/>
+      <c r="U28" s="198"/>
+      <c r="V28" s="198"/>
+      <c r="W28" s="198"/>
+      <c r="X28" s="198"/>
+      <c r="Y28" s="198"/>
+      <c r="Z28" s="198"/>
+      <c r="AA28" s="198"/>
+      <c r="AB28" s="198"/>
+      <c r="AC28" s="203" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD28" s="203"/>
+      <c r="AE28" s="203"/>
       <c r="AF28" s="142"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="142"/>
-      <c r="B29" s="165"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="172"/>
-      <c r="L29" s="172"/>
-      <c r="M29" s="172"/>
-      <c r="N29" s="172"/>
-      <c r="O29" s="172"/>
-      <c r="P29" s="172"/>
-      <c r="Q29" s="172"/>
-      <c r="R29" s="172"/>
-      <c r="S29" s="172"/>
-      <c r="T29" s="172"/>
-      <c r="U29" s="172"/>
-      <c r="V29" s="172"/>
-      <c r="W29" s="172"/>
-      <c r="X29" s="172"/>
-      <c r="Y29" s="172"/>
-      <c r="Z29" s="172"/>
-      <c r="AA29" s="172"/>
-      <c r="AB29" s="172"/>
-      <c r="AC29" s="173"/>
-      <c r="AD29" s="173"/>
-      <c r="AE29" s="173"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="195"/>
+      <c r="H29" s="195"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="197"/>
+      <c r="K29" s="198"/>
+      <c r="L29" s="198"/>
+      <c r="M29" s="198"/>
+      <c r="N29" s="198"/>
+      <c r="O29" s="198"/>
+      <c r="P29" s="198"/>
+      <c r="Q29" s="198"/>
+      <c r="R29" s="198"/>
+      <c r="S29" s="198"/>
+      <c r="T29" s="198"/>
+      <c r="U29" s="198"/>
+      <c r="V29" s="198"/>
+      <c r="W29" s="198"/>
+      <c r="X29" s="198"/>
+      <c r="Y29" s="198"/>
+      <c r="Z29" s="198"/>
+      <c r="AA29" s="198"/>
+      <c r="AB29" s="198"/>
+      <c r="AC29" s="203"/>
+      <c r="AD29" s="203"/>
+      <c r="AE29" s="203"/>
       <c r="AF29" s="142"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="142"/>
-      <c r="B30" s="165"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="172"/>
-      <c r="L30" s="172"/>
-      <c r="M30" s="172"/>
-      <c r="N30" s="172"/>
-      <c r="O30" s="172"/>
-      <c r="P30" s="172"/>
-      <c r="Q30" s="172"/>
-      <c r="R30" s="172"/>
-      <c r="S30" s="172"/>
-      <c r="T30" s="172"/>
-      <c r="U30" s="172"/>
-      <c r="V30" s="172"/>
-      <c r="W30" s="172"/>
-      <c r="X30" s="172"/>
-      <c r="Y30" s="172"/>
-      <c r="Z30" s="172"/>
-      <c r="AA30" s="172"/>
-      <c r="AB30" s="172"/>
-      <c r="AC30" s="174"/>
-      <c r="AD30" s="174"/>
-      <c r="AE30" s="174"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="195"/>
+      <c r="H30" s="195"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="198"/>
+      <c r="L30" s="198"/>
+      <c r="M30" s="198"/>
+      <c r="N30" s="198"/>
+      <c r="O30" s="198"/>
+      <c r="P30" s="198"/>
+      <c r="Q30" s="198"/>
+      <c r="R30" s="198"/>
+      <c r="S30" s="198"/>
+      <c r="T30" s="198"/>
+      <c r="U30" s="198"/>
+      <c r="V30" s="198"/>
+      <c r="W30" s="198"/>
+      <c r="X30" s="198"/>
+      <c r="Y30" s="198"/>
+      <c r="Z30" s="198"/>
+      <c r="AA30" s="198"/>
+      <c r="AB30" s="198"/>
+      <c r="AC30" s="208"/>
+      <c r="AD30" s="208"/>
+      <c r="AE30" s="208"/>
       <c r="AF30" s="142"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="142"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="169"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="171"/>
-      <c r="K31" s="172"/>
-      <c r="L31" s="172"/>
-      <c r="M31" s="172"/>
-      <c r="N31" s="172"/>
-      <c r="O31" s="172"/>
-      <c r="P31" s="172"/>
-      <c r="Q31" s="172"/>
-      <c r="R31" s="172"/>
-      <c r="S31" s="172"/>
-      <c r="T31" s="172"/>
-      <c r="U31" s="172"/>
-      <c r="V31" s="172"/>
-      <c r="W31" s="172"/>
-      <c r="X31" s="172"/>
-      <c r="Y31" s="172"/>
-      <c r="Z31" s="172"/>
-      <c r="AA31" s="172"/>
-      <c r="AB31" s="172"/>
-      <c r="AC31" s="173"/>
-      <c r="AD31" s="173"/>
-      <c r="AE31" s="173"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="195"/>
+      <c r="H31" s="195"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="197"/>
+      <c r="K31" s="198"/>
+      <c r="L31" s="198"/>
+      <c r="M31" s="198"/>
+      <c r="N31" s="198"/>
+      <c r="O31" s="198"/>
+      <c r="P31" s="198"/>
+      <c r="Q31" s="198"/>
+      <c r="R31" s="198"/>
+      <c r="S31" s="198"/>
+      <c r="T31" s="198"/>
+      <c r="U31" s="198"/>
+      <c r="V31" s="198"/>
+      <c r="W31" s="198"/>
+      <c r="X31" s="198"/>
+      <c r="Y31" s="198"/>
+      <c r="Z31" s="198"/>
+      <c r="AA31" s="198"/>
+      <c r="AB31" s="198"/>
+      <c r="AC31" s="203"/>
+      <c r="AD31" s="203"/>
+      <c r="AE31" s="203"/>
       <c r="AF31" s="142"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="142"/>
-      <c r="B32" s="165"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="171"/>
-      <c r="K32" s="172"/>
-      <c r="L32" s="172"/>
-      <c r="M32" s="172"/>
-      <c r="N32" s="172"/>
-      <c r="O32" s="172"/>
-      <c r="P32" s="172"/>
-      <c r="Q32" s="172"/>
-      <c r="R32" s="172"/>
-      <c r="S32" s="172"/>
-      <c r="T32" s="172"/>
-      <c r="U32" s="172"/>
-      <c r="V32" s="172"/>
-      <c r="W32" s="172"/>
-      <c r="X32" s="172"/>
-      <c r="Y32" s="172"/>
-      <c r="Z32" s="172"/>
-      <c r="AA32" s="172"/>
-      <c r="AB32" s="172"/>
-      <c r="AC32" s="173"/>
-      <c r="AD32" s="173"/>
-      <c r="AE32" s="173"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="194"/>
+      <c r="G32" s="195"/>
+      <c r="H32" s="195"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="197"/>
+      <c r="K32" s="198"/>
+      <c r="L32" s="198"/>
+      <c r="M32" s="198"/>
+      <c r="N32" s="198"/>
+      <c r="O32" s="198"/>
+      <c r="P32" s="198"/>
+      <c r="Q32" s="198"/>
+      <c r="R32" s="198"/>
+      <c r="S32" s="198"/>
+      <c r="T32" s="198"/>
+      <c r="U32" s="198"/>
+      <c r="V32" s="198"/>
+      <c r="W32" s="198"/>
+      <c r="X32" s="198"/>
+      <c r="Y32" s="198"/>
+      <c r="Z32" s="198"/>
+      <c r="AA32" s="198"/>
+      <c r="AB32" s="198"/>
+      <c r="AC32" s="203"/>
+      <c r="AD32" s="203"/>
+      <c r="AE32" s="203"/>
       <c r="AF32" s="142"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="142"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="166"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="171"/>
-      <c r="K33" s="172"/>
-      <c r="L33" s="172"/>
-      <c r="M33" s="172"/>
-      <c r="N33" s="172"/>
-      <c r="O33" s="172"/>
-      <c r="P33" s="172"/>
-      <c r="Q33" s="172"/>
-      <c r="R33" s="172"/>
-      <c r="S33" s="172"/>
-      <c r="T33" s="172"/>
-      <c r="U33" s="172"/>
-      <c r="V33" s="172"/>
-      <c r="W33" s="172"/>
-      <c r="X33" s="172"/>
-      <c r="Y33" s="172"/>
-      <c r="Z33" s="172"/>
-      <c r="AA33" s="172"/>
-      <c r="AB33" s="172"/>
-      <c r="AC33" s="173"/>
-      <c r="AD33" s="173"/>
-      <c r="AE33" s="173"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="195"/>
+      <c r="H33" s="195"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="198"/>
+      <c r="L33" s="198"/>
+      <c r="M33" s="198"/>
+      <c r="N33" s="198"/>
+      <c r="O33" s="198"/>
+      <c r="P33" s="198"/>
+      <c r="Q33" s="198"/>
+      <c r="R33" s="198"/>
+      <c r="S33" s="198"/>
+      <c r="T33" s="198"/>
+      <c r="U33" s="198"/>
+      <c r="V33" s="198"/>
+      <c r="W33" s="198"/>
+      <c r="X33" s="198"/>
+      <c r="Y33" s="198"/>
+      <c r="Z33" s="198"/>
+      <c r="AA33" s="198"/>
+      <c r="AB33" s="198"/>
+      <c r="AC33" s="203"/>
+      <c r="AD33" s="203"/>
+      <c r="AE33" s="203"/>
       <c r="AF33" s="142"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -4722,6 +4821,51 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:AE3"/>
     <mergeCell ref="F7:Q7"/>
@@ -4733,51 +4877,6 @@
     <mergeCell ref="W9:Y12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="AC9:AE12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -4796,24 +4895,22 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
-    </sheetView>
+    <sheetView topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.08203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="41.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="41.58203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="24.25" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.125" style="4"/>
+    <col min="7" max="16384" width="8.08203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.899999999999999">
+    <row r="1" spans="1:6" ht="20">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4822,81 +4919,81 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="212" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="213"/>
+      <c r="A2" s="216" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="217"/>
       <c r="C2" s="130" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="123" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1">
+      <c r="A3" s="216" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="212" t="s">
+      <c r="B3" s="217"/>
+      <c r="C3" s="122" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="122" t="s">
-        <v>25</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="124">
         <v>45040</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="212" t="s">
+      <c r="A4" s="216" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="217"/>
+      <c r="C4" s="130" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="213"/>
-      <c r="C4" s="130" t="s">
-        <v>28</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="123" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="212" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="213"/>
+      <c r="A5" s="216" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="217"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="123" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1">
+      <c r="A6" s="216" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="217"/>
+      <c r="C6" s="130" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" s="123" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="212" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="130" t="s">
-        <v>33</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="124">
-        <v>45040</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
@@ -4909,7 +5006,7 @@
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -4919,119 +5016,119 @@
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1">
       <c r="A9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="D9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="E9" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="210" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="211"/>
+      <c r="F9" s="215"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="16">
         <v>1</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="E10" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="299" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="300"/>
+      <c r="F10" s="212"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="16">
         <v>2</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="126" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="E11" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="299" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="300"/>
+      <c r="F11" s="212"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="16">
         <v>3</v>
       </c>
       <c r="B12" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="127" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="211" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="127" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="299" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="300"/>
+      <c r="F12" s="212"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="128"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="301"/>
+      <c r="E13" s="211"/>
+      <c r="F13" s="213"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="125"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="299"/>
-      <c r="F14" s="301"/>
+      <c r="E14" s="211"/>
+      <c r="F14" s="213"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="106"/>
       <c r="B15" s="106"/>
       <c r="C15" s="106"/>
       <c r="D15" s="106"/>
-      <c r="E15" s="214"/>
-      <c r="F15" s="215"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="210"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="106"/>
       <c r="B16" s="106"/>
       <c r="C16" s="106"/>
       <c r="D16" s="106"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="215"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="210"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="106"/>
       <c r="B17" s="106"/>
       <c r="C17" s="106"/>
       <c r="D17" s="106"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="215"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="210"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -5269,6 +5366,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E10:F10"/>
@@ -5277,12 +5380,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5298,9 +5395,7 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="18"/>
   <cols>
@@ -5309,14 +5404,14 @@
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="31.25" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.899999999999999">
+    <row r="1" spans="1:8" ht="20">
       <c r="A1" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -5328,7 +5423,7 @@
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="130" t="s">
@@ -5336,13 +5431,13 @@
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="121" t="s">
-        <v>23</v>
-      </c>
       <c r="G2" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="120">
         <v>45040</v>
@@ -5350,33 +5445,33 @@
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="121" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="120">
-        <v>45041</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="30"/>
@@ -5385,7 +5480,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="119" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
@@ -5400,49 +5495,49 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="33"/>
-      <c r="C6" s="218" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="220"/>
+      <c r="C6" s="252" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253"/>
+      <c r="G6" s="253"/>
+      <c r="H6" s="254"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="33"/>
-      <c r="C7" s="218" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="C7" s="252" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="253"/>
+      <c r="E7" s="253"/>
+      <c r="F7" s="253"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="254"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B8" s="33"/>
-      <c r="C8" s="218" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="220"/>
+      <c r="C8" s="252" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="253"/>
+      <c r="E8" s="253"/>
+      <c r="F8" s="253"/>
+      <c r="G8" s="253"/>
+      <c r="H8" s="254"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -5454,26 +5549,26 @@
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="236" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="255"/>
+      <c r="E10" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="F10" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="221" t="s">
+      <c r="G10" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="222"/>
-      <c r="E10" s="36" t="s">
+      <c r="H10" s="37" t="s">
         <v>65</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -5481,21 +5576,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="256" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="257"/>
+      <c r="E11" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>69</v>
-      </c>
-      <c r="C11" s="223" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="224"/>
-      <c r="E11" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>72</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -5503,17 +5598,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="216" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="217"/>
+        <v>71</v>
+      </c>
+      <c r="C12" s="250" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="251"/>
       <c r="E12" s="40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="42"/>
@@ -5523,17 +5618,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="225" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="226"/>
+        <v>74</v>
+      </c>
+      <c r="C13" s="246" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="247"/>
       <c r="E13" s="45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G13" s="46"/>
       <c r="H13" s="47"/>
@@ -5543,17 +5638,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="225" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="226"/>
+        <v>77</v>
+      </c>
+      <c r="C14" s="246" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="247"/>
       <c r="E14" s="45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G14" s="46"/>
       <c r="H14" s="47"/>
@@ -5563,17 +5658,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="225" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="226"/>
+        <v>80</v>
+      </c>
+      <c r="C15" s="246" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="247"/>
       <c r="E15" s="45" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G15" s="46"/>
       <c r="H15" s="47"/>
@@ -5583,17 +5678,17 @@
         <v>6</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="225" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="226"/>
+        <v>83</v>
+      </c>
+      <c r="C16" s="246" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="247"/>
       <c r="E16" s="50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G16" s="51"/>
       <c r="H16" s="52"/>
@@ -5603,17 +5698,17 @@
         <v>7</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="225" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="226"/>
+        <v>86</v>
+      </c>
+      <c r="C17" s="246" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="247"/>
       <c r="E17" s="50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G17" s="51"/>
       <c r="H17" s="52"/>
@@ -5623,17 +5718,17 @@
         <v>8</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="225" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="226"/>
+        <v>89</v>
+      </c>
+      <c r="C18" s="246" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="247"/>
       <c r="E18" s="50" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G18" s="51"/>
       <c r="H18" s="52"/>
@@ -5641,8 +5736,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="226"/>
+      <c r="C19" s="246"/>
+      <c r="D19" s="247"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
@@ -5651,8 +5746,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="225"/>
-      <c r="D20" s="226"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="247"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
@@ -5661,8 +5756,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="225"/>
-      <c r="D21" s="226"/>
+      <c r="C21" s="246"/>
+      <c r="D21" s="247"/>
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
       <c r="G21" s="51"/>
@@ -5671,8 +5766,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="226"/>
+      <c r="C22" s="246"/>
+      <c r="D22" s="247"/>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
       <c r="G22" s="51"/>
@@ -5681,8 +5776,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="226"/>
+      <c r="C23" s="246"/>
+      <c r="D23" s="247"/>
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="51"/>
@@ -5691,8 +5786,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="225"/>
-      <c r="D24" s="226"/>
+      <c r="C24" s="246"/>
+      <c r="D24" s="247"/>
       <c r="E24" s="50"/>
       <c r="F24" s="50"/>
       <c r="G24" s="51"/>
@@ -5701,8 +5796,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="225"/>
-      <c r="D25" s="226"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="247"/>
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
       <c r="G25" s="51"/>
@@ -5711,8 +5806,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="225"/>
-      <c r="D26" s="226"/>
+      <c r="C26" s="246"/>
+      <c r="D26" s="247"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="51"/>
@@ -5721,8 +5816,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="49"/>
-      <c r="C27" s="225"/>
-      <c r="D27" s="226"/>
+      <c r="C27" s="246"/>
+      <c r="D27" s="247"/>
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="51"/>
@@ -5731,8 +5826,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="225"/>
-      <c r="D28" s="226"/>
+      <c r="C28" s="246"/>
+      <c r="D28" s="247"/>
       <c r="E28" s="50"/>
       <c r="F28" s="50"/>
       <c r="G28" s="51"/>
@@ -5741,8 +5836,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="225"/>
-      <c r="D29" s="226"/>
+      <c r="C29" s="246"/>
+      <c r="D29" s="247"/>
       <c r="E29" s="50"/>
       <c r="F29" s="50"/>
       <c r="G29" s="51"/>
@@ -5751,8 +5846,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="53"/>
       <c r="B30" s="54"/>
-      <c r="C30" s="232"/>
-      <c r="D30" s="233"/>
+      <c r="C30" s="221"/>
+      <c r="D30" s="223"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
       <c r="G30" s="56"/>
@@ -5770,7 +5865,7 @@
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="60"/>
@@ -5782,28 +5877,28 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="234" t="s">
-        <v>96</v>
+        <v>59</v>
+      </c>
+      <c r="B33" s="233" t="s">
+        <v>93</v>
       </c>
       <c r="C33" s="235"/>
       <c r="D33" s="62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="63"/>
       <c r="G33" s="65" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H33" s="66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="38"/>
-      <c r="B34" s="236"/>
-      <c r="C34" s="237"/>
+      <c r="B34" s="248"/>
+      <c r="C34" s="249"/>
       <c r="D34" s="238"/>
       <c r="E34" s="239"/>
       <c r="F34" s="240"/>
@@ -5812,41 +5907,41 @@
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="43"/>
-      <c r="B35" s="227"/>
-      <c r="C35" s="228"/>
-      <c r="D35" s="229"/>
-      <c r="E35" s="230"/>
-      <c r="F35" s="231"/>
+      <c r="B35" s="241"/>
+      <c r="C35" s="242"/>
+      <c r="D35" s="230"/>
+      <c r="E35" s="231"/>
+      <c r="F35" s="232"/>
       <c r="G35" s="46"/>
       <c r="H35" s="47"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="43"/>
-      <c r="B36" s="227"/>
-      <c r="C36" s="228"/>
-      <c r="D36" s="229"/>
-      <c r="E36" s="230"/>
-      <c r="F36" s="231"/>
+      <c r="B36" s="241"/>
+      <c r="C36" s="242"/>
+      <c r="D36" s="230"/>
+      <c r="E36" s="231"/>
+      <c r="F36" s="232"/>
       <c r="G36" s="46"/>
       <c r="H36" s="47"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="43"/>
-      <c r="B37" s="227"/>
-      <c r="C37" s="228"/>
-      <c r="D37" s="229"/>
-      <c r="E37" s="230"/>
-      <c r="F37" s="231"/>
+      <c r="B37" s="241"/>
+      <c r="C37" s="242"/>
+      <c r="D37" s="230"/>
+      <c r="E37" s="231"/>
+      <c r="F37" s="232"/>
       <c r="G37" s="46"/>
       <c r="H37" s="47"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="53"/>
-      <c r="B38" s="241"/>
-      <c r="C38" s="242"/>
-      <c r="D38" s="232"/>
-      <c r="E38" s="243"/>
-      <c r="F38" s="233"/>
+      <c r="B38" s="243"/>
+      <c r="C38" s="244"/>
+      <c r="D38" s="221"/>
+      <c r="E38" s="222"/>
+      <c r="F38" s="223"/>
       <c r="G38" s="56"/>
       <c r="H38" s="57"/>
     </row>
@@ -5862,7 +5957,7 @@
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
       <c r="A40" s="34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="60"/>
@@ -5874,22 +5969,22 @@
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B41" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="234" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="244"/>
+      <c r="C41" s="233" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="234"/>
       <c r="E41" s="235"/>
-      <c r="F41" s="234" t="s">
-        <v>101</v>
+      <c r="F41" s="233" t="s">
+        <v>98</v>
       </c>
       <c r="G41" s="245"/>
       <c r="H41" s="66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
@@ -5905,41 +6000,41 @@
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="70"/>
       <c r="B43" s="71"/>
-      <c r="C43" s="229"/>
-      <c r="D43" s="230"/>
-      <c r="E43" s="231"/>
-      <c r="F43" s="229"/>
-      <c r="G43" s="231"/>
+      <c r="C43" s="230"/>
+      <c r="D43" s="231"/>
+      <c r="E43" s="232"/>
+      <c r="F43" s="230"/>
+      <c r="G43" s="232"/>
       <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="70"/>
       <c r="B44" s="71"/>
-      <c r="C44" s="229"/>
-      <c r="D44" s="230"/>
-      <c r="E44" s="231"/>
-      <c r="F44" s="229"/>
-      <c r="G44" s="231"/>
+      <c r="C44" s="230"/>
+      <c r="D44" s="231"/>
+      <c r="E44" s="232"/>
+      <c r="F44" s="230"/>
+      <c r="G44" s="232"/>
       <c r="H44" s="72"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="70"/>
       <c r="B45" s="71"/>
-      <c r="C45" s="229"/>
-      <c r="D45" s="230"/>
-      <c r="E45" s="231"/>
-      <c r="F45" s="229"/>
-      <c r="G45" s="231"/>
+      <c r="C45" s="230"/>
+      <c r="D45" s="231"/>
+      <c r="E45" s="232"/>
+      <c r="F45" s="230"/>
+      <c r="G45" s="232"/>
       <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="73"/>
       <c r="B46" s="74"/>
-      <c r="C46" s="232"/>
-      <c r="D46" s="243"/>
-      <c r="E46" s="233"/>
-      <c r="F46" s="246"/>
-      <c r="G46" s="247"/>
+      <c r="C46" s="221"/>
+      <c r="D46" s="222"/>
+      <c r="E46" s="223"/>
+      <c r="F46" s="224"/>
+      <c r="G46" s="225"/>
       <c r="H46" s="75"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -5954,7 +6049,7 @@
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
       <c r="A48" s="34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B48" s="34"/>
       <c r="C48" s="60"/>
@@ -5966,122 +6061,106 @@
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B49" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="234" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="244"/>
+      <c r="C49" s="233" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="234"/>
       <c r="E49" s="235"/>
-      <c r="F49" s="221" t="s">
-        <v>104</v>
-      </c>
-      <c r="G49" s="248"/>
+      <c r="F49" s="236" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="237"/>
       <c r="H49" s="37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="76"/>
       <c r="B50" s="77"/>
-      <c r="C50" s="252" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="253"/>
-      <c r="E50" s="254"/>
-      <c r="F50" s="252" t="s">
-        <v>107</v>
-      </c>
-      <c r="G50" s="254"/>
+      <c r="C50" s="226" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="227"/>
+      <c r="E50" s="228"/>
+      <c r="F50" s="226" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="228"/>
       <c r="H50" s="78" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="103"/>
       <c r="B51" s="104"/>
-      <c r="C51" s="255" t="s">
+      <c r="C51" s="229" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="219"/>
+      <c r="E51" s="220"/>
+      <c r="F51" s="218" t="s">
+        <v>105</v>
+      </c>
+      <c r="G51" s="220"/>
+      <c r="H51" s="105" t="s">
         <v>106</v>
-      </c>
-      <c r="D51" s="250"/>
-      <c r="E51" s="251"/>
-      <c r="F51" s="249" t="s">
-        <v>108</v>
-      </c>
-      <c r="G51" s="251"/>
-      <c r="H51" s="105" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="103"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="255" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="250"/>
-      <c r="E52" s="251"/>
-      <c r="F52" s="249" t="s">
-        <v>110</v>
-      </c>
-      <c r="G52" s="251"/>
-      <c r="H52" s="105" t="s">
-        <v>109</v>
-      </c>
+      <c r="C52" s="229"/>
+      <c r="D52" s="219"/>
+      <c r="E52" s="220"/>
+      <c r="F52" s="218"/>
+      <c r="G52" s="220"/>
+      <c r="H52" s="105"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="103"/>
       <c r="B53" s="104"/>
-      <c r="C53" s="249"/>
-      <c r="D53" s="250"/>
-      <c r="E53" s="251"/>
-      <c r="F53" s="249"/>
-      <c r="G53" s="251"/>
+      <c r="C53" s="218"/>
+      <c r="D53" s="219"/>
+      <c r="E53" s="220"/>
+      <c r="F53" s="218"/>
+      <c r="G53" s="220"/>
       <c r="H53" s="105"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="73"/>
       <c r="B54" s="74"/>
-      <c r="C54" s="232"/>
-      <c r="D54" s="243"/>
-      <c r="E54" s="233"/>
-      <c r="F54" s="246"/>
-      <c r="G54" s="247"/>
+      <c r="C54" s="221"/>
+      <c r="D54" s="222"/>
+      <c r="E54" s="223"/>
+      <c r="F54" s="224"/>
+      <c r="G54" s="225"/>
       <c r="H54" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -6095,6 +6174,744 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705FB06E-BC2E-4DBE-9125-E76CA6748102}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20">
+      <c r="A1" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="120">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="120">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="119" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="252" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253"/>
+      <c r="G6" s="253"/>
+      <c r="H6" s="254"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="252" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="253"/>
+      <c r="E7" s="253"/>
+      <c r="F7" s="253"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="254"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="252" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="253"/>
+      <c r="E8" s="253"/>
+      <c r="F8" s="253"/>
+      <c r="G8" s="253"/>
+      <c r="H8" s="254"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A9" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="236" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="255"/>
+      <c r="E10" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="38">
+        <v>1</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="276" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="277"/>
+      <c r="E11" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="43">
+        <v>2</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="269" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="270"/>
+      <c r="E12" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="43">
+        <v>3</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="269" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="270"/>
+      <c r="E13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="48">
+        <v>4</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="271" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="272"/>
+      <c r="E14" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="50"/>
+      <c r="H14" s="107"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="273"/>
+      <c r="D15" s="274"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="246"/>
+      <c r="D16" s="275"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="246"/>
+      <c r="D17" s="247"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="246"/>
+      <c r="D18" s="247"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="246"/>
+      <c r="D19" s="247"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="247"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="246"/>
+      <c r="D21" s="247"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="52"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="246"/>
+      <c r="D22" s="247"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="52"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="246"/>
+      <c r="D23" s="247"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="48"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="246"/>
+      <c r="D24" s="247"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="247"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="246"/>
+      <c r="D26" s="247"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="246"/>
+      <c r="D27" s="247"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="52"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="246"/>
+      <c r="D28" s="247"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="246"/>
+      <c r="D29" s="247"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A30" s="53"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="221"/>
+      <c r="D30" s="223"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="57"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A32" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A33" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="233" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="235"/>
+      <c r="D33" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="64"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="38"/>
+      <c r="B34" s="248"/>
+      <c r="C34" s="249"/>
+      <c r="D34" s="238"/>
+      <c r="E34" s="239"/>
+      <c r="F34" s="240"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="42"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A35" s="43"/>
+      <c r="B35" s="241"/>
+      <c r="C35" s="242"/>
+      <c r="D35" s="230"/>
+      <c r="E35" s="231"/>
+      <c r="F35" s="232"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="47"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A36" s="43"/>
+      <c r="B36" s="241"/>
+      <c r="C36" s="242"/>
+      <c r="D36" s="230"/>
+      <c r="E36" s="231"/>
+      <c r="F36" s="232"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="47"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A37" s="43"/>
+      <c r="B37" s="241"/>
+      <c r="C37" s="242"/>
+      <c r="D37" s="230"/>
+      <c r="E37" s="231"/>
+      <c r="F37" s="232"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="47"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A38" s="53"/>
+      <c r="B38" s="243"/>
+      <c r="C38" s="244"/>
+      <c r="D38" s="221"/>
+      <c r="E38" s="222"/>
+      <c r="F38" s="223"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="57"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A40" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="34"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A41" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="233" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="234"/>
+      <c r="E41" s="235"/>
+      <c r="F41" s="233" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="245"/>
+      <c r="H41" s="66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="111"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="266" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="267"/>
+      <c r="E42" s="268"/>
+      <c r="F42" s="266" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="268"/>
+      <c r="H42" s="112" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="109"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="258"/>
+      <c r="D43" s="259"/>
+      <c r="E43" s="260"/>
+      <c r="F43" s="258"/>
+      <c r="G43" s="260"/>
+      <c r="H43" s="113"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="114"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="261"/>
+      <c r="D44" s="262"/>
+      <c r="E44" s="263"/>
+      <c r="F44" s="264"/>
+      <c r="G44" s="265"/>
+      <c r="H44" s="116"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A46" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="34"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A47" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="233" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="234"/>
+      <c r="E47" s="235"/>
+      <c r="F47" s="236" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="237"/>
+      <c r="H47" s="37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A48" s="76"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="226" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="227"/>
+      <c r="E48" s="228"/>
+      <c r="F48" s="226" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="228"/>
+      <c r="H48" s="78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A49" s="103"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="218"/>
+      <c r="D49" s="219"/>
+      <c r="E49" s="220"/>
+      <c r="F49" s="218"/>
+      <c r="G49" s="220"/>
+      <c r="H49" s="105"/>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A50" s="103"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="218"/>
+      <c r="D50" s="219"/>
+      <c r="E50" s="220"/>
+      <c r="F50" s="218"/>
+      <c r="G50" s="220"/>
+      <c r="H50" s="105"/>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A51" s="103"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="218"/>
+      <c r="D51" s="219"/>
+      <c r="E51" s="220"/>
+      <c r="F51" s="218"/>
+      <c r="G51" s="220"/>
+      <c r="H51" s="105"/>
+    </row>
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A52" s="73"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="222"/>
+      <c r="E52" s="223"/>
+      <c r="F52" s="224"/>
+      <c r="G52" s="225"/>
+      <c r="H52" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="55">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -6107,778 +6924,6 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705FB06E-BC2E-4DBE-9125-E76CA6748102}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="22.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="19.899999999999999">
-      <c r="A1" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="121" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="120">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="121" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="120">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="130" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="119" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="218" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="220"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="218" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="218" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="220"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A9" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A10" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="221" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="222"/>
-      <c r="E10" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="38">
-        <v>1</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="258" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="259"/>
-      <c r="E11" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="43">
-        <v>2</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="256" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="257"/>
-      <c r="E12" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="43">
-        <v>3</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="256" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="257"/>
-      <c r="E13" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="48">
-        <v>4</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="260" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="261"/>
-      <c r="E14" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="107"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="262"/>
-      <c r="D15" s="263"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="225"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="52"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="225"/>
-      <c r="D17" s="226"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="52"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="225"/>
-      <c r="D18" s="226"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="226"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="225"/>
-      <c r="D20" s="226"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="52"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="225"/>
-      <c r="D21" s="226"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="52"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="226"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="52"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="226"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="52"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="225"/>
-      <c r="D24" s="226"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="52"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A25" s="48"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="225"/>
-      <c r="D25" s="226"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="225"/>
-      <c r="D26" s="226"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="52"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="225"/>
-      <c r="D27" s="226"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="52"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="225"/>
-      <c r="D28" s="226"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="52"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A29" s="48"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="225"/>
-      <c r="D29" s="226"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="52"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A30" s="53"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="232"/>
-      <c r="D30" s="233"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="57"/>
-    </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A32" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A33" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="234" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="235"/>
-      <c r="D33" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A34" s="38"/>
-      <c r="B34" s="236"/>
-      <c r="C34" s="237"/>
-      <c r="D34" s="238"/>
-      <c r="E34" s="239"/>
-      <c r="F34" s="240"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="42"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A35" s="43"/>
-      <c r="B35" s="227"/>
-      <c r="C35" s="228"/>
-      <c r="D35" s="229"/>
-      <c r="E35" s="230"/>
-      <c r="F35" s="231"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="47"/>
-    </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A36" s="43"/>
-      <c r="B36" s="227"/>
-      <c r="C36" s="228"/>
-      <c r="D36" s="229"/>
-      <c r="E36" s="230"/>
-      <c r="F36" s="231"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="47"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A37" s="43"/>
-      <c r="B37" s="227"/>
-      <c r="C37" s="228"/>
-      <c r="D37" s="229"/>
-      <c r="E37" s="230"/>
-      <c r="F37" s="231"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="47"/>
-    </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A38" s="53"/>
-      <c r="B38" s="241"/>
-      <c r="C38" s="242"/>
-      <c r="D38" s="232"/>
-      <c r="E38" s="243"/>
-      <c r="F38" s="233"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="57"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A40" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A41" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="234" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="244"/>
-      <c r="E41" s="235"/>
-      <c r="F41" s="234" t="s">
-        <v>101</v>
-      </c>
-      <c r="G41" s="245"/>
-      <c r="H41" s="66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A42" s="111"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="265" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="266"/>
-      <c r="E42" s="267"/>
-      <c r="F42" s="265" t="s">
-        <v>107</v>
-      </c>
-      <c r="G42" s="267"/>
-      <c r="H42" s="112" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A43" s="109"/>
-      <c r="B43" s="110"/>
-      <c r="C43" s="255" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="268"/>
-      <c r="E43" s="269"/>
-      <c r="F43" s="270" t="s">
-        <v>110</v>
-      </c>
-      <c r="G43" s="269"/>
-      <c r="H43" s="160" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A44" s="109"/>
-      <c r="B44" s="110"/>
-      <c r="C44" s="255" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="268"/>
-      <c r="E44" s="269"/>
-      <c r="F44" s="270" t="s">
-        <v>107</v>
-      </c>
-      <c r="G44" s="269"/>
-      <c r="H44" s="160" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A45" s="109"/>
-      <c r="B45" s="110"/>
-      <c r="C45" s="270"/>
-      <c r="D45" s="268"/>
-      <c r="E45" s="269"/>
-      <c r="F45" s="270"/>
-      <c r="G45" s="269"/>
-      <c r="H45" s="113"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A46" s="114"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="271"/>
-      <c r="D46" s="272"/>
-      <c r="E46" s="273"/>
-      <c r="F46" s="274"/>
-      <c r="G46" s="275"/>
-      <c r="H46" s="116"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A48" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-    </row>
-    <row r="49" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A49" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="234" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="244"/>
-      <c r="E49" s="235"/>
-      <c r="F49" s="221" t="s">
-        <v>104</v>
-      </c>
-      <c r="G49" s="248"/>
-      <c r="H49" s="37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A50" s="76"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="252" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" s="253"/>
-      <c r="E50" s="254"/>
-      <c r="F50" s="252" t="s">
-        <v>107</v>
-      </c>
-      <c r="G50" s="254"/>
-      <c r="H50" s="78" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A51" s="103"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="249"/>
-      <c r="D51" s="250"/>
-      <c r="E51" s="251"/>
-      <c r="F51" s="249"/>
-      <c r="G51" s="251"/>
-      <c r="H51" s="105"/>
-    </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A52" s="103"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="249"/>
-      <c r="D52" s="250"/>
-      <c r="E52" s="251"/>
-      <c r="F52" s="249"/>
-      <c r="G52" s="251"/>
-      <c r="H52" s="105"/>
-    </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A53" s="103"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="249"/>
-      <c r="D53" s="250"/>
-      <c r="E53" s="251"/>
-      <c r="F53" s="249"/>
-      <c r="G53" s="251"/>
-      <c r="H53" s="105"/>
-    </row>
-    <row r="54" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A54" s="73"/>
-      <c r="B54" s="74"/>
-      <c r="C54" s="232"/>
-      <c r="D54" s="243"/>
-      <c r="E54" s="233"/>
-      <c r="F54" s="246"/>
-      <c r="G54" s="247"/>
-      <c r="H54" s="75"/>
-    </row>
-  </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -6892,24 +6937,30 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6922,11 +6973,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="18"/>
   <cols>
@@ -6935,14 +6984,14 @@
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="30.75" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.899999999999999">
+    <row r="1" spans="1:8" ht="20">
       <c r="A1" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -6954,7 +7003,7 @@
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="130" t="s">
@@ -6962,13 +7011,13 @@
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="121" t="s">
-        <v>23</v>
-      </c>
       <c r="G2" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="120">
         <v>45040</v>
@@ -6976,33 +7025,33 @@
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="121" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="120">
-        <v>45041</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="30"/>
@@ -7011,7 +7060,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="119" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
@@ -7026,49 +7075,49 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="33"/>
-      <c r="C6" s="218" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="220"/>
+      <c r="C6" s="252" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253"/>
+      <c r="G6" s="253"/>
+      <c r="H6" s="254"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="33"/>
-      <c r="C7" s="218" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="C7" s="252" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="253"/>
+      <c r="E7" s="253"/>
+      <c r="F7" s="253"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="254"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B8" s="33"/>
-      <c r="C8" s="218" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="220"/>
+      <c r="C8" s="252" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="253"/>
+      <c r="E8" s="253"/>
+      <c r="F8" s="253"/>
+      <c r="G8" s="253"/>
+      <c r="H8" s="254"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -7080,26 +7129,26 @@
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="284" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="285"/>
+      <c r="E10" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="F10" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="278" t="s">
+      <c r="G10" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="279"/>
-      <c r="E10" s="36" t="s">
+      <c r="H10" s="37" t="s">
         <v>65</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -7107,21 +7156,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="134" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="285" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="286"/>
+        <v>117</v>
+      </c>
+      <c r="C11" s="280" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="281"/>
       <c r="E11" s="40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F11" s="133" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -7129,21 +7178,21 @@
         <v>2</v>
       </c>
       <c r="B12" s="135" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="280" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="281"/>
+        <v>108</v>
+      </c>
+      <c r="C12" s="286" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="287"/>
       <c r="E12" s="40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F12" s="129" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G12" s="40"/>
       <c r="H12" s="52" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -7151,21 +7200,21 @@
         <v>3</v>
       </c>
       <c r="B13" s="136" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="276" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="277"/>
+        <v>113</v>
+      </c>
+      <c r="C13" s="282" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="283"/>
       <c r="E13" s="129" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G13" s="46"/>
       <c r="H13" s="47" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
@@ -7173,17 +7222,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="283" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="284"/>
+        <v>121</v>
+      </c>
+      <c r="C14" s="278" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="279"/>
       <c r="E14" s="131" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F14" s="130" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G14" s="46"/>
       <c r="H14" s="47"/>
@@ -7193,17 +7242,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="225" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="226"/>
+        <v>123</v>
+      </c>
+      <c r="C15" s="246" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="247"/>
       <c r="E15" s="50" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F15" s="132" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G15" s="51"/>
       <c r="H15" s="52"/>
@@ -7211,8 +7260,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="225"/>
-      <c r="D16" s="226"/>
+      <c r="C16" s="246"/>
+      <c r="D16" s="247"/>
       <c r="E16" s="50"/>
       <c r="F16" s="50"/>
       <c r="G16" s="51"/>
@@ -7221,8 +7270,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="225"/>
-      <c r="D17" s="226"/>
+      <c r="C17" s="246"/>
+      <c r="D17" s="247"/>
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
       <c r="G17" s="51"/>
@@ -7231,8 +7280,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="225"/>
-      <c r="D18" s="226"/>
+      <c r="C18" s="246"/>
+      <c r="D18" s="247"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
       <c r="G18" s="51"/>
@@ -7241,8 +7290,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="226"/>
+      <c r="C19" s="246"/>
+      <c r="D19" s="247"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
@@ -7251,8 +7300,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="225"/>
-      <c r="D20" s="226"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="247"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
@@ -7261,8 +7310,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="225"/>
-      <c r="D21" s="226"/>
+      <c r="C21" s="246"/>
+      <c r="D21" s="247"/>
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
       <c r="G21" s="51"/>
@@ -7271,8 +7320,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="226"/>
+      <c r="C22" s="246"/>
+      <c r="D22" s="247"/>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
       <c r="G22" s="51"/>
@@ -7281,8 +7330,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="226"/>
+      <c r="C23" s="246"/>
+      <c r="D23" s="247"/>
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="51"/>
@@ -7291,8 +7340,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="225"/>
-      <c r="D24" s="226"/>
+      <c r="C24" s="246"/>
+      <c r="D24" s="247"/>
       <c r="E24" s="50"/>
       <c r="F24" s="50"/>
       <c r="G24" s="51"/>
@@ -7301,8 +7350,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="225"/>
-      <c r="D25" s="226"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="247"/>
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
       <c r="G25" s="51"/>
@@ -7311,8 +7360,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="225"/>
-      <c r="D26" s="226"/>
+      <c r="C26" s="246"/>
+      <c r="D26" s="247"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="51"/>
@@ -7321,8 +7370,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="49"/>
-      <c r="C27" s="225"/>
-      <c r="D27" s="226"/>
+      <c r="C27" s="246"/>
+      <c r="D27" s="247"/>
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="51"/>
@@ -7331,8 +7380,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="225"/>
-      <c r="D28" s="226"/>
+      <c r="C28" s="246"/>
+      <c r="D28" s="247"/>
       <c r="E28" s="50"/>
       <c r="F28" s="50"/>
       <c r="G28" s="51"/>
@@ -7341,8 +7390,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="53"/>
       <c r="B29" s="54"/>
-      <c r="C29" s="232"/>
-      <c r="D29" s="233"/>
+      <c r="C29" s="221"/>
+      <c r="D29" s="223"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
       <c r="G29" s="56"/>
@@ -7360,7 +7409,7 @@
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A31" s="34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B31" s="34"/>
       <c r="C31" s="60"/>
@@ -7372,28 +7421,28 @@
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="234" t="s">
-        <v>96</v>
+        <v>59</v>
+      </c>
+      <c r="B32" s="233" t="s">
+        <v>93</v>
       </c>
       <c r="C32" s="235"/>
       <c r="D32" s="62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E32" s="64"/>
       <c r="F32" s="63"/>
       <c r="G32" s="65" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H32" s="66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="38"/>
-      <c r="B33" s="236"/>
-      <c r="C33" s="237"/>
+      <c r="B33" s="248"/>
+      <c r="C33" s="249"/>
       <c r="D33" s="238"/>
       <c r="E33" s="239"/>
       <c r="F33" s="240"/>
@@ -7402,41 +7451,41 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="43"/>
-      <c r="B34" s="227"/>
-      <c r="C34" s="228"/>
-      <c r="D34" s="229"/>
-      <c r="E34" s="230"/>
-      <c r="F34" s="231"/>
+      <c r="B34" s="241"/>
+      <c r="C34" s="242"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="231"/>
+      <c r="F34" s="232"/>
       <c r="G34" s="46"/>
       <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="43"/>
-      <c r="B35" s="227"/>
-      <c r="C35" s="228"/>
-      <c r="D35" s="229"/>
-      <c r="E35" s="230"/>
-      <c r="F35" s="231"/>
+      <c r="B35" s="241"/>
+      <c r="C35" s="242"/>
+      <c r="D35" s="230"/>
+      <c r="E35" s="231"/>
+      <c r="F35" s="232"/>
       <c r="G35" s="46"/>
       <c r="H35" s="47"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="43"/>
-      <c r="B36" s="227"/>
-      <c r="C36" s="228"/>
-      <c r="D36" s="229"/>
-      <c r="E36" s="230"/>
-      <c r="F36" s="231"/>
+      <c r="B36" s="241"/>
+      <c r="C36" s="242"/>
+      <c r="D36" s="230"/>
+      <c r="E36" s="231"/>
+      <c r="F36" s="232"/>
       <c r="G36" s="46"/>
       <c r="H36" s="47"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="53"/>
-      <c r="B37" s="241"/>
-      <c r="C37" s="242"/>
-      <c r="D37" s="232"/>
-      <c r="E37" s="243"/>
-      <c r="F37" s="233"/>
+      <c r="B37" s="243"/>
+      <c r="C37" s="244"/>
+      <c r="D37" s="221"/>
+      <c r="E37" s="222"/>
+      <c r="F37" s="223"/>
       <c r="G37" s="56"/>
       <c r="H37" s="57"/>
     </row>
@@ -7452,7 +7501,7 @@
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A39" s="34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B39" s="34"/>
       <c r="C39" s="60"/>
@@ -7464,223 +7513,174 @@
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B40" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="234" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="244"/>
+      <c r="C40" s="233" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="234"/>
       <c r="E40" s="235"/>
-      <c r="F40" s="234" t="s">
-        <v>101</v>
+      <c r="F40" s="233" t="s">
+        <v>98</v>
       </c>
       <c r="G40" s="245"/>
       <c r="H40" s="66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="76"/>
       <c r="B41" s="77"/>
-      <c r="C41" s="252" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="253"/>
-      <c r="E41" s="254"/>
-      <c r="F41" s="252" t="s">
+      <c r="C41" s="226" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="227"/>
+      <c r="E41" s="228"/>
+      <c r="F41" s="226" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="228"/>
+      <c r="H41" s="78" t="s">
         <v>108</v>
-      </c>
-      <c r="G41" s="254"/>
-      <c r="H41" s="78" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="103"/>
       <c r="B42" s="104"/>
-      <c r="C42" s="249" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="250"/>
-      <c r="E42" s="251"/>
-      <c r="F42" s="255" t="s">
-        <v>108</v>
-      </c>
-      <c r="G42" s="251"/>
+      <c r="C42" s="218" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="219"/>
+      <c r="E42" s="220"/>
+      <c r="F42" s="229" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="220"/>
       <c r="H42" s="160" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="103"/>
       <c r="B43" s="104"/>
-      <c r="C43" s="255" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="250"/>
-      <c r="E43" s="251"/>
-      <c r="F43" s="282" t="s">
-        <v>110</v>
-      </c>
-      <c r="G43" s="269"/>
-      <c r="H43" s="163" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A44" s="103"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="249"/>
-      <c r="D44" s="250"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="249"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="164"/>
-    </row>
-    <row r="45" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A45" s="73"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="232"/>
-      <c r="D45" s="243"/>
-      <c r="E45" s="233"/>
-      <c r="F45" s="246"/>
-      <c r="G45" s="247"/>
-      <c r="H45" s="75"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
+      <c r="C43" s="218"/>
+      <c r="D43" s="219"/>
+      <c r="E43" s="220"/>
+      <c r="F43" s="218"/>
+      <c r="G43" s="220"/>
+      <c r="H43" s="163"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="222"/>
+      <c r="E44" s="223"/>
+      <c r="F44" s="224"/>
+      <c r="G44" s="225"/>
+      <c r="H44" s="75"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A46" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="34"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A47" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="234" t="s">
+      <c r="A47" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="244"/>
-      <c r="E48" s="235"/>
-      <c r="F48" s="221" t="s">
-        <v>104</v>
-      </c>
-      <c r="G48" s="248"/>
-      <c r="H48" s="37" t="s">
-        <v>105</v>
-      </c>
+      <c r="C47" s="233" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="234"/>
+      <c r="E47" s="235"/>
+      <c r="F47" s="236" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="237"/>
+      <c r="H47" s="37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A48" s="70"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="230"/>
+      <c r="D48" s="231"/>
+      <c r="E48" s="232"/>
+      <c r="F48" s="230"/>
+      <c r="G48" s="232"/>
+      <c r="H48" s="72"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A49" s="76"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="252" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="253"/>
-      <c r="E49" s="254"/>
-      <c r="F49" s="252" t="s">
-        <v>108</v>
-      </c>
-      <c r="G49" s="254"/>
-      <c r="H49" s="78" t="s">
-        <v>123</v>
-      </c>
+      <c r="A49" s="70"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="230"/>
+      <c r="D49" s="231"/>
+      <c r="E49" s="232"/>
+      <c r="F49" s="230"/>
+      <c r="G49" s="232"/>
+      <c r="H49" s="72"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="70"/>
       <c r="B50" s="71"/>
-      <c r="C50" s="229"/>
-      <c r="D50" s="230"/>
-      <c r="E50" s="231"/>
-      <c r="F50" s="229"/>
-      <c r="G50" s="231"/>
+      <c r="C50" s="230"/>
+      <c r="D50" s="231"/>
+      <c r="E50" s="232"/>
+      <c r="F50" s="230"/>
+      <c r="G50" s="232"/>
       <c r="H50" s="72"/>
     </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A51" s="70"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="229"/>
-      <c r="D51" s="230"/>
-      <c r="E51" s="231"/>
-      <c r="F51" s="229"/>
-      <c r="G51" s="231"/>
-      <c r="H51" s="72"/>
-    </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A52" s="70"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="229"/>
-      <c r="D52" s="230"/>
-      <c r="E52" s="231"/>
-      <c r="F52" s="229"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="72"/>
-    </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A53" s="73"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="232"/>
-      <c r="D53" s="243"/>
-      <c r="E53" s="233"/>
-      <c r="F53" s="246"/>
-      <c r="G53" s="247"/>
-      <c r="H53" s="75"/>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A51" s="73"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="221"/>
+      <c r="D51" s="222"/>
+      <c r="E51" s="223"/>
+      <c r="F51" s="224"/>
+      <c r="G51" s="225"/>
+      <c r="H51" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
+  <mergeCells count="54">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="C24:D24"/>
@@ -7694,20 +7694,33 @@
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7720,29 +7733,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="5.625" customWidth="1"/>
-    <col min="3" max="5" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="5.58203125" customWidth="1"/>
+    <col min="3" max="5" width="9.08203125" customWidth="1"/>
     <col min="6" max="6" width="6.75" customWidth="1"/>
     <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.08203125" customWidth="1"/>
+    <col min="11" max="11" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="79" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -7759,7 +7770,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="130" t="s">
         <v>6</v>
@@ -7770,26 +7781,26 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="139" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="83" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="290">
+        <v>25</v>
+      </c>
+      <c r="L2" s="294">
         <v>45040</v>
       </c>
-      <c r="M2" s="291"/>
+      <c r="M2" s="295"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="138" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="138" t="s">
-        <v>25</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -7797,26 +7808,26 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I3" s="139" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="290">
-        <v>45043</v>
-      </c>
-      <c r="M3" s="291"/>
+        <v>32</v>
+      </c>
+      <c r="L3" s="294">
+        <v>45077</v>
+      </c>
+      <c r="M3" s="295"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="130" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="130" t="s">
-        <v>28</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -7829,10 +7840,10 @@
       <c r="K4" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="292" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="291"/>
+      <c r="L4" s="296" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" s="295"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="9"/>
@@ -7850,10 +7861,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="85" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B6" s="130" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -7869,10 +7880,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="87" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" s="137" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -7893,14 +7904,14 @@
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
       <c r="A9" s="88"/>
       <c r="F9" s="89"/>
-      <c r="G9" s="293" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="294"/>
-      <c r="I9" s="294"/>
-      <c r="J9" s="294"/>
-      <c r="K9" s="294"/>
-      <c r="L9" s="295"/>
+      <c r="G9" s="297" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="298"/>
+      <c r="I9" s="298"/>
+      <c r="J9" s="298"/>
+      <c r="K9" s="298"/>
+      <c r="L9" s="299"/>
       <c r="M9" s="89"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
@@ -7911,16 +7922,16 @@
       <c r="E10" s="91"/>
       <c r="F10" s="92"/>
       <c r="G10" s="90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H10" s="93" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I10" s="93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J10" s="93" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K10" s="93"/>
       <c r="L10" s="93"/>
@@ -7928,26 +7939,26 @@
     </row>
     <row r="11" spans="1:13" ht="21.75" customHeight="1">
       <c r="A11" s="88"/>
-      <c r="B11" s="296" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="287" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="288"/>
-      <c r="E11" s="288"/>
-      <c r="F11" s="289"/>
+      <c r="B11" s="291" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="288" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="289"/>
+      <c r="E11" s="289"/>
+      <c r="F11" s="290"/>
       <c r="G11" s="90" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H11" s="93" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I11" s="93" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J11" s="93" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K11" s="93"/>
       <c r="L11" s="93"/>
@@ -7955,24 +7966,24 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="88"/>
-      <c r="B12" s="297"/>
-      <c r="C12" s="287" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="288"/>
-      <c r="E12" s="288"/>
-      <c r="F12" s="289"/>
+      <c r="B12" s="292"/>
+      <c r="C12" s="288" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="289"/>
+      <c r="E12" s="289"/>
+      <c r="F12" s="290"/>
       <c r="G12" s="93" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H12" s="93" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I12" s="93" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J12" s="117" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K12" s="117"/>
       <c r="L12" s="93"/>
@@ -7980,24 +7991,24 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="88"/>
-      <c r="B13" s="297"/>
-      <c r="C13" s="287" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="288"/>
-      <c r="E13" s="288"/>
-      <c r="F13" s="289"/>
+      <c r="B13" s="292"/>
+      <c r="C13" s="288" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="289"/>
+      <c r="E13" s="289"/>
+      <c r="F13" s="290"/>
       <c r="G13" s="93" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H13" s="93" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I13" s="93" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J13" s="93" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K13" s="93"/>
       <c r="L13" s="93"/>
@@ -8005,24 +8016,24 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="88"/>
-      <c r="B14" s="297"/>
-      <c r="C14" s="287" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="288"/>
-      <c r="E14" s="288"/>
-      <c r="F14" s="289"/>
+      <c r="B14" s="292"/>
+      <c r="C14" s="288" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="289"/>
+      <c r="E14" s="289"/>
+      <c r="F14" s="290"/>
       <c r="G14" s="93" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H14" s="93" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I14" s="93" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J14" s="93" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K14" s="93"/>
       <c r="L14" s="93"/>
@@ -8030,24 +8041,24 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="88"/>
-      <c r="B15" s="297"/>
-      <c r="C15" s="287" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="288"/>
-      <c r="E15" s="288"/>
-      <c r="F15" s="289"/>
+      <c r="B15" s="292"/>
+      <c r="C15" s="288" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="289"/>
+      <c r="E15" s="289"/>
+      <c r="F15" s="290"/>
       <c r="G15" s="93" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H15" s="93" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="I15" s="93" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="J15" s="93" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K15" s="93"/>
       <c r="L15" s="93"/>
@@ -8055,24 +8066,24 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="88"/>
-      <c r="B16" s="297"/>
-      <c r="C16" s="287" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="288"/>
-      <c r="E16" s="288"/>
-      <c r="F16" s="289"/>
+      <c r="B16" s="292"/>
+      <c r="C16" s="288" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="289"/>
+      <c r="E16" s="289"/>
+      <c r="F16" s="290"/>
       <c r="G16" s="93" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H16" s="93" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I16" s="93" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J16" s="93" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K16" s="93"/>
       <c r="L16" s="93"/>
@@ -8080,24 +8091,24 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="88"/>
-      <c r="B17" s="297"/>
-      <c r="C17" s="287" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="288"/>
-      <c r="E17" s="288"/>
-      <c r="F17" s="289"/>
+      <c r="B17" s="292"/>
+      <c r="C17" s="288" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="289"/>
+      <c r="E17" s="289"/>
+      <c r="F17" s="290"/>
       <c r="G17" s="93" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H17" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" s="93" t="s">
         <v>142</v>
-      </c>
-      <c r="I17" s="93" t="s">
-        <v>143</v>
-      </c>
-      <c r="J17" s="93" t="s">
-        <v>148</v>
       </c>
       <c r="K17" s="93"/>
       <c r="L17" s="93"/>
@@ -8105,11 +8116,11 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="88"/>
-      <c r="B18" s="297"/>
-      <c r="C18" s="287"/>
-      <c r="D18" s="288"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="289"/>
+      <c r="B18" s="292"/>
+      <c r="C18" s="288"/>
+      <c r="D18" s="289"/>
+      <c r="E18" s="289"/>
+      <c r="F18" s="290"/>
       <c r="G18" s="93"/>
       <c r="H18" s="93"/>
       <c r="I18" s="93"/>
@@ -8120,11 +8131,11 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="88"/>
-      <c r="B19" s="297"/>
-      <c r="C19" s="287"/>
-      <c r="D19" s="288"/>
-      <c r="E19" s="288"/>
-      <c r="F19" s="289"/>
+      <c r="B19" s="292"/>
+      <c r="C19" s="288"/>
+      <c r="D19" s="289"/>
+      <c r="E19" s="289"/>
+      <c r="F19" s="290"/>
       <c r="G19" s="93"/>
       <c r="H19" s="93"/>
       <c r="I19" s="93"/>
@@ -8135,11 +8146,11 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="88"/>
-      <c r="B20" s="297"/>
-      <c r="C20" s="287"/>
-      <c r="D20" s="288"/>
-      <c r="E20" s="288"/>
-      <c r="F20" s="289"/>
+      <c r="B20" s="292"/>
+      <c r="C20" s="288"/>
+      <c r="D20" s="289"/>
+      <c r="E20" s="289"/>
+      <c r="F20" s="290"/>
       <c r="G20" s="93"/>
       <c r="H20" s="93"/>
       <c r="I20" s="93"/>
@@ -8150,11 +8161,11 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="88"/>
-      <c r="B21" s="297"/>
-      <c r="C21" s="287"/>
-      <c r="D21" s="288"/>
-      <c r="E21" s="288"/>
-      <c r="F21" s="289"/>
+      <c r="B21" s="292"/>
+      <c r="C21" s="288"/>
+      <c r="D21" s="289"/>
+      <c r="E21" s="289"/>
+      <c r="F21" s="290"/>
       <c r="G21" s="93"/>
       <c r="H21" s="93"/>
       <c r="I21" s="93"/>
@@ -8165,11 +8176,11 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="88"/>
-      <c r="B22" s="297"/>
-      <c r="C22" s="287"/>
-      <c r="D22" s="288"/>
-      <c r="E22" s="288"/>
-      <c r="F22" s="289"/>
+      <c r="B22" s="292"/>
+      <c r="C22" s="288"/>
+      <c r="D22" s="289"/>
+      <c r="E22" s="289"/>
+      <c r="F22" s="290"/>
       <c r="G22" s="93"/>
       <c r="H22" s="93"/>
       <c r="I22" s="93"/>
@@ -8180,11 +8191,11 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="88"/>
-      <c r="B23" s="297"/>
-      <c r="C23" s="287"/>
-      <c r="D23" s="288"/>
-      <c r="E23" s="288"/>
-      <c r="F23" s="289"/>
+      <c r="B23" s="292"/>
+      <c r="C23" s="288"/>
+      <c r="D23" s="289"/>
+      <c r="E23" s="289"/>
+      <c r="F23" s="290"/>
       <c r="G23" s="93"/>
       <c r="H23" s="93"/>
       <c r="I23" s="93"/>
@@ -8195,11 +8206,11 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="88"/>
-      <c r="B24" s="297"/>
-      <c r="C24" s="287"/>
-      <c r="D24" s="288"/>
-      <c r="E24" s="288"/>
-      <c r="F24" s="289"/>
+      <c r="B24" s="292"/>
+      <c r="C24" s="288"/>
+      <c r="D24" s="289"/>
+      <c r="E24" s="289"/>
+      <c r="F24" s="290"/>
       <c r="G24" s="93"/>
       <c r="H24" s="93"/>
       <c r="I24" s="93"/>
@@ -8210,11 +8221,11 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="88"/>
-      <c r="B25" s="297"/>
-      <c r="C25" s="287"/>
-      <c r="D25" s="288"/>
-      <c r="E25" s="288"/>
-      <c r="F25" s="289"/>
+      <c r="B25" s="292"/>
+      <c r="C25" s="288"/>
+      <c r="D25" s="289"/>
+      <c r="E25" s="289"/>
+      <c r="F25" s="290"/>
       <c r="G25" s="93"/>
       <c r="H25" s="93"/>
       <c r="I25" s="93"/>
@@ -8225,11 +8236,11 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="88"/>
-      <c r="B26" s="297"/>
-      <c r="C26" s="287"/>
-      <c r="D26" s="288"/>
-      <c r="E26" s="288"/>
-      <c r="F26" s="289"/>
+      <c r="B26" s="292"/>
+      <c r="C26" s="288"/>
+      <c r="D26" s="289"/>
+      <c r="E26" s="289"/>
+      <c r="F26" s="290"/>
       <c r="G26" s="93"/>
       <c r="H26" s="93"/>
       <c r="I26" s="93"/>
@@ -8240,11 +8251,11 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="88"/>
-      <c r="B27" s="297"/>
-      <c r="C27" s="287"/>
-      <c r="D27" s="288"/>
-      <c r="E27" s="288"/>
-      <c r="F27" s="289"/>
+      <c r="B27" s="292"/>
+      <c r="C27" s="288"/>
+      <c r="D27" s="289"/>
+      <c r="E27" s="289"/>
+      <c r="F27" s="290"/>
       <c r="G27" s="93"/>
       <c r="H27" s="93"/>
       <c r="I27" s="93"/>
@@ -8255,11 +8266,11 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="88"/>
-      <c r="B28" s="297"/>
-      <c r="C28" s="287"/>
-      <c r="D28" s="288"/>
-      <c r="E28" s="288"/>
-      <c r="F28" s="289"/>
+      <c r="B28" s="292"/>
+      <c r="C28" s="288"/>
+      <c r="D28" s="289"/>
+      <c r="E28" s="289"/>
+      <c r="F28" s="290"/>
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
       <c r="I28" s="93"/>
@@ -8270,11 +8281,11 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="88"/>
-      <c r="B29" s="297"/>
-      <c r="C29" s="287"/>
-      <c r="D29" s="288"/>
-      <c r="E29" s="288"/>
-      <c r="F29" s="289"/>
+      <c r="B29" s="292"/>
+      <c r="C29" s="288"/>
+      <c r="D29" s="289"/>
+      <c r="E29" s="289"/>
+      <c r="F29" s="290"/>
       <c r="G29" s="93"/>
       <c r="H29" s="93"/>
       <c r="I29" s="93"/>
@@ -8285,11 +8296,11 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="88"/>
-      <c r="B30" s="297"/>
-      <c r="C30" s="287"/>
-      <c r="D30" s="288"/>
-      <c r="E30" s="288"/>
-      <c r="F30" s="289"/>
+      <c r="B30" s="292"/>
+      <c r="C30" s="288"/>
+      <c r="D30" s="289"/>
+      <c r="E30" s="289"/>
+      <c r="F30" s="290"/>
       <c r="G30" s="93"/>
       <c r="H30" s="93"/>
       <c r="I30" s="93"/>
@@ -8300,11 +8311,11 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="88"/>
-      <c r="B31" s="297"/>
-      <c r="C31" s="287"/>
-      <c r="D31" s="288"/>
-      <c r="E31" s="288"/>
-      <c r="F31" s="289"/>
+      <c r="B31" s="292"/>
+      <c r="C31" s="288"/>
+      <c r="D31" s="289"/>
+      <c r="E31" s="289"/>
+      <c r="F31" s="290"/>
       <c r="G31" s="93"/>
       <c r="H31" s="93"/>
       <c r="I31" s="93"/>
@@ -8315,11 +8326,11 @@
     </row>
     <row r="32" spans="1:13" ht="23.25" customHeight="1">
       <c r="A32" s="88"/>
-      <c r="B32" s="297"/>
-      <c r="C32" s="287"/>
-      <c r="D32" s="288"/>
-      <c r="E32" s="288"/>
-      <c r="F32" s="289"/>
+      <c r="B32" s="292"/>
+      <c r="C32" s="288"/>
+      <c r="D32" s="289"/>
+      <c r="E32" s="289"/>
+      <c r="F32" s="290"/>
       <c r="G32" s="93"/>
       <c r="H32" s="93"/>
       <c r="I32" s="93"/>
@@ -8330,11 +8341,11 @@
     </row>
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="297"/>
-      <c r="C33" s="287"/>
-      <c r="D33" s="288"/>
-      <c r="E33" s="288"/>
-      <c r="F33" s="289"/>
+      <c r="B33" s="292"/>
+      <c r="C33" s="288"/>
+      <c r="D33" s="289"/>
+      <c r="E33" s="289"/>
+      <c r="F33" s="290"/>
       <c r="G33" s="93"/>
       <c r="H33" s="93"/>
       <c r="I33" s="93"/>
@@ -8345,11 +8356,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="298"/>
-      <c r="C34" s="287"/>
-      <c r="D34" s="288"/>
-      <c r="E34" s="288"/>
-      <c r="F34" s="289"/>
+      <c r="B34" s="293"/>
+      <c r="C34" s="288"/>
+      <c r="D34" s="289"/>
+      <c r="E34" s="289"/>
+      <c r="F34" s="290"/>
       <c r="G34" s="93"/>
       <c r="H34" s="93"/>
       <c r="I34" s="93"/>
@@ -8358,7 +8369,7 @@
       <c r="L34" s="93"/>
       <c r="M34" s="89"/>
     </row>
-    <row r="35" spans="1:13" ht="18.75">
+    <row r="35" spans="1:13">
       <c r="A35" s="88"/>
       <c r="M35" s="89"/>
     </row>
@@ -8377,17 +8388,14 @@
       <c r="L36" s="95"/>
       <c r="M36" s="96"/>
     </row>
-    <row r="37" spans="1:13" ht="18.75"/>
-    <row r="38" spans="1:13" ht="18.75"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B11:B34"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
@@ -8404,12 +8412,13 @@
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8418,15 +8427,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
@@ -8434,6 +8434,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8609,13 +8618,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DACE7C-D4CB-4A9F-B252-0392A2615F01}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64BD5AB1-8588-4240-B7B1-347039029B2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64BD5AB1-8588-4240-B7B1-347039029B2F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DACE7C-D4CB-4A9F-B252-0392A2615F01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDDB0ACD-FB8E-4AF9-85EA-3D8834B6FB26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDDB0ACD-FB8E-4AF9-85EA-3D8834B6FB26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>